--- a/Module 1/#10 Case study/Check List CaseStudy C0320G1.xlsx
+++ b/Module 1/#10 Case study/Check List CaseStudy C0320G1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC TAP\PHAN MEM\JAVA\KẾ HOẠCH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC TAP\PHAN MEM\JAVA\Module 1\#10 Case study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D33D60B-90E9-4CD1-A964-94FC8157BAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816BA97-D88A-43D4-BCE4-1C4B4FAD7CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
   <si>
     <t>Module</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Nguyễn Phan Hoài Ngân</t>
+  </si>
+  <si>
+    <t>✓</t>
   </si>
 </sst>
 </file>
@@ -449,22 +452,42 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -473,26 +496,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C292" sqref="C292"/>
+      <selection pane="bottomLeft" activeCell="H286" sqref="H286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -730,47 +733,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="44" t="s">
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="43"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="41"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -794,8 +797,8 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="3">
         <v>43926</v>
       </c>
@@ -815,8 +818,8 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="3">
         <v>43928</v>
       </c>
@@ -836,8 +839,8 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3">
         <v>43930</v>
       </c>
@@ -857,8 +860,8 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="3">
         <v>43932</v>
       </c>
@@ -878,8 +881,8 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="3">
         <v>43934</v>
       </c>
@@ -899,8 +902,8 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="3">
         <v>43936</v>
       </c>
@@ -920,8 +923,8 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="3">
         <v>43938</v>
       </c>
@@ -940,8 +943,8 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="3">
         <v>43940</v>
       </c>
@@ -961,8 +964,8 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="3">
         <v>43942</v>
       </c>
@@ -982,8 +985,8 @@
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="3">
         <v>43944</v>
       </c>
@@ -1003,8 +1006,8 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="3">
         <v>43946</v>
       </c>
@@ -1024,8 +1027,8 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="3">
         <v>43948</v>
       </c>
@@ -1045,8 +1048,8 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="3">
         <v>43950</v>
       </c>
@@ -1066,10 +1069,10 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
-        <v>2</v>
-      </c>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="46">
+        <v>2</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="18">
@@ -1090,8 +1093,8 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="18">
         <v>43926</v>
       </c>
@@ -1111,8 +1114,8 @@
       <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="18">
         <v>43928</v>
       </c>
@@ -1132,8 +1135,8 @@
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="18">
         <v>43930</v>
       </c>
@@ -1153,8 +1156,8 @@
       <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="18">
         <v>43932</v>
       </c>
@@ -1174,8 +1177,8 @@
       <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="18">
         <v>43934</v>
       </c>
@@ -1195,8 +1198,8 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="18">
         <v>43936</v>
       </c>
@@ -1216,8 +1219,8 @@
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="18">
         <v>43938</v>
       </c>
@@ -1237,8 +1240,8 @@
       <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="18">
         <v>43940</v>
       </c>
@@ -1258,8 +1261,8 @@
       <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="18">
         <v>43942</v>
       </c>
@@ -1279,8 +1282,8 @@
       <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="18">
         <v>43944</v>
       </c>
@@ -1300,8 +1303,8 @@
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="50"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="18">
         <v>43946</v>
       </c>
@@ -1321,8 +1324,8 @@
       <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="18">
         <v>43948</v>
       </c>
@@ -1342,8 +1345,8 @@
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="18">
         <v>43950</v>
       </c>
@@ -1363,10 +1366,10 @@
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46">
+      <c r="A31" s="44">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="3">
@@ -1387,8 +1390,8 @@
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="3">
         <v>43926</v>
       </c>
@@ -1408,8 +1411,8 @@
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="3">
         <v>43928</v>
       </c>
@@ -1429,8 +1432,8 @@
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="3">
         <v>43930</v>
       </c>
@@ -1450,8 +1453,8 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="3">
         <v>43932</v>
       </c>
@@ -1471,8 +1474,8 @@
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="3">
         <v>43934</v>
       </c>
@@ -1492,8 +1495,8 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="3">
         <v>43936</v>
       </c>
@@ -1513,8 +1516,8 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="3">
         <v>43938</v>
       </c>
@@ -1534,8 +1537,8 @@
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="3">
         <v>43940</v>
       </c>
@@ -1555,8 +1558,8 @@
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="3">
         <v>43942</v>
       </c>
@@ -1576,8 +1579,8 @@
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="3">
         <v>43944</v>
       </c>
@@ -1597,8 +1600,8 @@
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="3">
         <v>43946</v>
       </c>
@@ -1618,8 +1621,8 @@
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="3">
         <v>43948</v>
       </c>
@@ -1639,8 +1642,8 @@
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="3">
         <v>43950</v>
       </c>
@@ -1660,10 +1663,10 @@
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48">
+      <c r="A45" s="46">
         <v>4</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="18">
@@ -1684,8 +1687,8 @@
       <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="18">
         <v>43926</v>
       </c>
@@ -1705,8 +1708,8 @@
       <c r="J46" s="23"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="18">
         <v>43928</v>
       </c>
@@ -1726,8 +1729,8 @@
       <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="18">
         <v>43930</v>
       </c>
@@ -1747,8 +1750,8 @@
       <c r="J48" s="23"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="18">
         <v>43932</v>
       </c>
@@ -1768,8 +1771,8 @@
       <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="18">
         <v>43934</v>
       </c>
@@ -1789,8 +1792,8 @@
       <c r="J50" s="23"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="18">
         <v>43936</v>
       </c>
@@ -1810,8 +1813,8 @@
       <c r="J51" s="25"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="18">
         <v>43938</v>
       </c>
@@ -1831,8 +1834,8 @@
       <c r="J52" s="25"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="18">
         <v>43940</v>
       </c>
@@ -1852,8 +1855,8 @@
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="18">
         <v>43942</v>
       </c>
@@ -1873,8 +1876,8 @@
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="18">
         <v>43944</v>
       </c>
@@ -1894,8 +1897,8 @@
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="18">
         <v>43946</v>
       </c>
@@ -1915,8 +1918,8 @@
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="18">
         <v>43948</v>
       </c>
@@ -1936,8 +1939,8 @@
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="41"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="18">
         <v>43950</v>
       </c>
@@ -1957,10 +1960,10 @@
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="46">
+      <c r="A59" s="44">
         <v>5</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="3">
@@ -1981,8 +1984,8 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="3">
         <v>43926</v>
       </c>
@@ -2002,8 +2005,8 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="3">
         <v>43928</v>
       </c>
@@ -2023,8 +2026,8 @@
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="3">
         <v>43930</v>
       </c>
@@ -2044,8 +2047,8 @@
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="3">
         <v>43932</v>
       </c>
@@ -2065,8 +2068,8 @@
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="3">
         <v>43934</v>
       </c>
@@ -2086,8 +2089,8 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="3">
         <v>43936</v>
       </c>
@@ -2107,8 +2110,8 @@
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="3">
         <v>43938</v>
       </c>
@@ -2128,8 +2131,8 @@
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="3">
         <v>43940</v>
       </c>
@@ -2149,8 +2152,8 @@
       <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="3">
         <v>43942</v>
       </c>
@@ -2170,8 +2173,8 @@
       <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="3">
         <v>43944</v>
       </c>
@@ -2191,8 +2194,8 @@
       <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="3">
         <v>43946</v>
       </c>
@@ -2212,8 +2215,8 @@
       <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="3">
         <v>43948</v>
       </c>
@@ -2233,8 +2236,8 @@
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="41"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="3">
         <v>43950</v>
       </c>
@@ -2254,10 +2257,10 @@
       <c r="J72" s="8"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="48">
+      <c r="A73" s="46">
         <v>6</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="18">
@@ -2278,8 +2281,8 @@
       <c r="J73" s="23"/>
     </row>
     <row r="74" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="18">
         <v>43926</v>
       </c>
@@ -2299,8 +2302,8 @@
       <c r="J74" s="23"/>
     </row>
     <row r="75" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="18">
         <v>43928</v>
       </c>
@@ -2320,8 +2323,8 @@
       <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="18">
         <v>43930</v>
       </c>
@@ -2341,8 +2344,8 @@
       <c r="J76" s="23"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="18">
         <v>43932</v>
       </c>
@@ -2362,8 +2365,8 @@
       <c r="J77" s="23"/>
     </row>
     <row r="78" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="18">
         <v>43934</v>
       </c>
@@ -2383,8 +2386,8 @@
       <c r="J78" s="23"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="18">
         <v>43936</v>
       </c>
@@ -2404,8 +2407,8 @@
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="40"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="18">
         <v>43938</v>
       </c>
@@ -2425,8 +2428,8 @@
       <c r="J80" s="25"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="40"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="18">
         <v>43940</v>
       </c>
@@ -2446,8 +2449,8 @@
       <c r="J81" s="25"/>
     </row>
     <row r="82" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="40"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="18">
         <v>43942</v>
       </c>
@@ -2467,8 +2470,8 @@
       <c r="J82" s="25"/>
     </row>
     <row r="83" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="18">
         <v>43944</v>
       </c>
@@ -2488,8 +2491,8 @@
       <c r="J83" s="25"/>
     </row>
     <row r="84" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="18">
         <v>43946</v>
       </c>
@@ -2509,8 +2512,8 @@
       <c r="J84" s="25"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="18">
         <v>43948</v>
       </c>
@@ -2530,8 +2533,8 @@
       <c r="J85" s="25"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="41"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="18">
         <v>43950</v>
       </c>
@@ -2551,10 +2554,10 @@
       <c r="J86" s="25"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="46">
+      <c r="A87" s="44">
         <v>7</v>
       </c>
-      <c r="B87" s="42" t="s">
+      <c r="B87" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="3">
@@ -2575,8 +2578,8 @@
       <c r="J87" s="8"/>
     </row>
     <row r="88" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="3">
         <v>43926</v>
       </c>
@@ -2596,8 +2599,8 @@
       <c r="J88" s="8"/>
     </row>
     <row r="89" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="40"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="3">
         <v>43928</v>
       </c>
@@ -2617,8 +2620,8 @@
       <c r="J89" s="8"/>
     </row>
     <row r="90" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="40"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="3">
         <v>43930</v>
       </c>
@@ -2638,8 +2641,8 @@
       <c r="J90" s="8"/>
     </row>
     <row r="91" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="40"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="3">
         <v>43932</v>
       </c>
@@ -2659,8 +2662,8 @@
       <c r="J91" s="8"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="40"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="3">
         <v>43934</v>
       </c>
@@ -2680,8 +2683,8 @@
       <c r="J92" s="8"/>
     </row>
     <row r="93" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="40"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="3">
         <v>43936</v>
       </c>
@@ -2701,8 +2704,8 @@
       <c r="J93" s="12"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="3">
         <v>43938</v>
       </c>
@@ -2722,8 +2725,8 @@
       <c r="J94" s="12"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="3">
         <v>43940</v>
       </c>
@@ -2743,8 +2746,8 @@
       <c r="J95" s="12"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="3">
         <v>43942</v>
       </c>
@@ -2764,8 +2767,8 @@
       <c r="J96" s="12"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="3">
         <v>43944</v>
       </c>
@@ -2785,8 +2788,8 @@
       <c r="J97" s="12"/>
     </row>
     <row r="98" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="3">
         <v>43946</v>
       </c>
@@ -2806,8 +2809,8 @@
       <c r="J98" s="12"/>
     </row>
     <row r="99" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="3">
         <v>43948</v>
       </c>
@@ -2827,8 +2830,8 @@
       <c r="J99" s="12"/>
     </row>
     <row r="100" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="41"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="3">
         <v>43950</v>
       </c>
@@ -2848,10 +2851,10 @@
       <c r="J100" s="12"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="48">
+      <c r="A101" s="46">
         <v>8</v>
       </c>
-      <c r="B101" s="39" t="s">
+      <c r="B101" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C101" s="18">
@@ -2872,8 +2875,8 @@
       <c r="J101" s="23"/>
     </row>
     <row r="102" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
-      <c r="B102" s="40"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="18">
         <v>43926</v>
       </c>
@@ -2893,8 +2896,8 @@
       <c r="J102" s="23"/>
     </row>
     <row r="103" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="40"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="18">
         <v>43928</v>
       </c>
@@ -2914,8 +2917,8 @@
       <c r="J103" s="23"/>
     </row>
     <row r="104" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="40"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="18">
         <v>43930</v>
       </c>
@@ -2935,8 +2938,8 @@
       <c r="J104" s="23"/>
     </row>
     <row r="105" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="18">
         <v>43932</v>
       </c>
@@ -2956,8 +2959,8 @@
       <c r="J105" s="23"/>
     </row>
     <row r="106" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="18">
         <v>43934</v>
       </c>
@@ -2977,8 +2980,8 @@
       <c r="J106" s="23"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
-      <c r="B107" s="40"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="18">
         <v>43936</v>
       </c>
@@ -2998,8 +3001,8 @@
       <c r="J107" s="25"/>
     </row>
     <row r="108" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="40"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="18">
         <v>43938</v>
       </c>
@@ -3019,8 +3022,8 @@
       <c r="J108" s="25"/>
     </row>
     <row r="109" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="18">
         <v>43940</v>
       </c>
@@ -3040,8 +3043,8 @@
       <c r="J109" s="25"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
-      <c r="B110" s="40"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="18">
         <v>43942</v>
       </c>
@@ -3061,8 +3064,8 @@
       <c r="J110" s="25"/>
     </row>
     <row r="111" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="18">
         <v>43944</v>
       </c>
@@ -3082,8 +3085,8 @@
       <c r="J111" s="25"/>
     </row>
     <row r="112" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
-      <c r="B112" s="40"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="18">
         <v>43946</v>
       </c>
@@ -3103,8 +3106,8 @@
       <c r="J112" s="25"/>
     </row>
     <row r="113" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
-      <c r="B113" s="40"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="18">
         <v>43948</v>
       </c>
@@ -3124,8 +3127,8 @@
       <c r="J113" s="25"/>
     </row>
     <row r="114" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
-      <c r="B114" s="41"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="18">
         <v>43950</v>
       </c>
@@ -3145,10 +3148,10 @@
       <c r="J114" s="25"/>
     </row>
     <row r="115" spans="1:10" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="46">
+      <c r="A115" s="44">
         <v>9</v>
       </c>
-      <c r="B115" s="35" t="s">
+      <c r="B115" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="3">
@@ -3169,8 +3172,8 @@
       <c r="J115" s="8"/>
     </row>
     <row r="116" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
-      <c r="B116" s="36"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="3">
         <v>43926</v>
       </c>
@@ -3190,8 +3193,8 @@
       <c r="J116" s="8"/>
     </row>
     <row r="117" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="36"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="3">
         <v>43928</v>
       </c>
@@ -3211,8 +3214,8 @@
       <c r="J117" s="8"/>
     </row>
     <row r="118" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
-      <c r="B118" s="36"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="3">
         <v>43930</v>
       </c>
@@ -3232,8 +3235,8 @@
       <c r="J118" s="8"/>
     </row>
     <row r="119" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="36"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="3">
         <v>43932</v>
       </c>
@@ -3253,8 +3256,8 @@
       <c r="J119" s="8"/>
     </row>
     <row r="120" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
-      <c r="B120" s="36"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="3">
         <v>43934</v>
       </c>
@@ -3274,8 +3277,8 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
-      <c r="B121" s="36"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="3">
         <v>43936</v>
       </c>
@@ -3295,8 +3298,8 @@
       <c r="J121" s="12"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
-      <c r="B122" s="36"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="3">
         <v>43938</v>
       </c>
@@ -3316,8 +3319,8 @@
       <c r="J122" s="12"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
-      <c r="B123" s="36"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="3">
         <v>43940</v>
       </c>
@@ -3337,8 +3340,8 @@
       <c r="J123" s="12"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
-      <c r="B124" s="36"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="3">
         <v>43942</v>
       </c>
@@ -3358,8 +3361,8 @@
       <c r="J124" s="12"/>
     </row>
     <row r="125" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
-      <c r="B125" s="36"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="3">
         <v>43944</v>
       </c>
@@ -3379,8 +3382,8 @@
       <c r="J125" s="12"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
-      <c r="B126" s="36"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="3">
         <v>43946</v>
       </c>
@@ -3400,8 +3403,8 @@
       <c r="J126" s="12"/>
     </row>
     <row r="127" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
-      <c r="B127" s="36"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="3">
         <v>43948</v>
       </c>
@@ -3421,8 +3424,8 @@
       <c r="J127" s="12"/>
     </row>
     <row r="128" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
-      <c r="B128" s="37"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="40"/>
       <c r="C128" s="3">
         <v>43950</v>
       </c>
@@ -3442,10 +3445,10 @@
       <c r="J128" s="12"/>
     </row>
     <row r="129" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="48">
+      <c r="A129" s="46">
         <v>10</v>
       </c>
-      <c r="B129" s="39" t="s">
+      <c r="B129" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C129" s="18">
@@ -3466,8 +3469,8 @@
       <c r="J129" s="23"/>
     </row>
     <row r="130" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
-      <c r="B130" s="40"/>
+      <c r="A130" s="36"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="18">
         <v>43926</v>
       </c>
@@ -3487,8 +3490,8 @@
       <c r="J130" s="23"/>
     </row>
     <row r="131" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
-      <c r="B131" s="40"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="18">
         <v>43928</v>
       </c>
@@ -3508,8 +3511,8 @@
       <c r="J131" s="23"/>
     </row>
     <row r="132" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
-      <c r="B132" s="40"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="18">
         <v>43930</v>
       </c>
@@ -3529,8 +3532,8 @@
       <c r="J132" s="23"/>
     </row>
     <row r="133" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
-      <c r="B133" s="40"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="18">
         <v>43932</v>
       </c>
@@ -3550,8 +3553,8 @@
       <c r="J133" s="23"/>
     </row>
     <row r="134" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
-      <c r="B134" s="40"/>
+      <c r="A134" s="36"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="18">
         <v>43934</v>
       </c>
@@ -3571,8 +3574,8 @@
       <c r="J134" s="23"/>
     </row>
     <row r="135" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
-      <c r="B135" s="40"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="18">
         <v>43936</v>
       </c>
@@ -3592,8 +3595,8 @@
       <c r="J135" s="25"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
-      <c r="B136" s="40"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="18">
         <v>43938</v>
       </c>
@@ -3613,8 +3616,8 @@
       <c r="J136" s="25"/>
     </row>
     <row r="137" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="40"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="18">
         <v>43940</v>
       </c>
@@ -3634,8 +3637,8 @@
       <c r="J137" s="25"/>
     </row>
     <row r="138" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
-      <c r="B138" s="40"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="18">
         <v>43942</v>
       </c>
@@ -3655,8 +3658,8 @@
       <c r="J138" s="25"/>
     </row>
     <row r="139" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
-      <c r="B139" s="40"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="18">
         <v>43944</v>
       </c>
@@ -3676,8 +3679,8 @@
       <c r="J139" s="25"/>
     </row>
     <row r="140" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
-      <c r="B140" s="40"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="18">
         <v>43946</v>
       </c>
@@ -3697,8 +3700,8 @@
       <c r="J140" s="25"/>
     </row>
     <row r="141" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
-      <c r="B141" s="40"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="18">
         <v>43948</v>
       </c>
@@ -3718,8 +3721,8 @@
       <c r="J141" s="25"/>
     </row>
     <row r="142" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
-      <c r="B142" s="41"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="37"/>
       <c r="C142" s="18">
         <v>43950</v>
       </c>
@@ -3739,10 +3742,10 @@
       <c r="J142" s="25"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="46">
+      <c r="A143" s="44">
         <v>11</v>
       </c>
-      <c r="B143" s="42" t="s">
+      <c r="B143" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C143" s="3">
@@ -3762,8 +3765,8 @@
       <c r="I143" s="7"/>
     </row>
     <row r="144" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
-      <c r="B144" s="40"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="3">
         <v>43926</v>
       </c>
@@ -3782,8 +3785,8 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
-      <c r="B145" s="40"/>
+      <c r="A145" s="36"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="3">
         <v>43928</v>
       </c>
@@ -3802,8 +3805,8 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
-      <c r="B146" s="40"/>
+      <c r="A146" s="36"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="3">
         <v>43930</v>
       </c>
@@ -3822,8 +3825,8 @@
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
-      <c r="B147" s="40"/>
+      <c r="A147" s="36"/>
+      <c r="B147" s="36"/>
       <c r="C147" s="3">
         <v>43932</v>
       </c>
@@ -3842,8 +3845,8 @@
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
-      <c r="B148" s="40"/>
+      <c r="A148" s="36"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="3">
         <v>43934</v>
       </c>
@@ -3862,8 +3865,8 @@
       <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
-      <c r="B149" s="40"/>
+      <c r="A149" s="36"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="3">
         <v>43936</v>
       </c>
@@ -3882,8 +3885,8 @@
       <c r="I149" s="6"/>
     </row>
     <row r="150" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
-      <c r="B150" s="40"/>
+      <c r="A150" s="36"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="3">
         <v>43938</v>
       </c>
@@ -3902,8 +3905,8 @@
       <c r="I150" s="6"/>
     </row>
     <row r="151" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
-      <c r="B151" s="40"/>
+      <c r="A151" s="36"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="3">
         <v>43940</v>
       </c>
@@ -3922,8 +3925,8 @@
       <c r="I151" s="6"/>
     </row>
     <row r="152" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
-      <c r="B152" s="40"/>
+      <c r="A152" s="36"/>
+      <c r="B152" s="36"/>
       <c r="C152" s="3">
         <v>43942</v>
       </c>
@@ -3942,8 +3945,8 @@
       <c r="I152" s="14"/>
     </row>
     <row r="153" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
-      <c r="B153" s="40"/>
+      <c r="A153" s="36"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="3">
         <v>43944</v>
       </c>
@@ -3962,8 +3965,8 @@
       <c r="I153" s="14"/>
     </row>
     <row r="154" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
-      <c r="B154" s="40"/>
+      <c r="A154" s="36"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="3">
         <v>43946</v>
       </c>
@@ -3982,8 +3985,8 @@
       <c r="I154" s="14"/>
     </row>
     <row r="155" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
-      <c r="B155" s="40"/>
+      <c r="A155" s="36"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="3">
         <v>43948</v>
       </c>
@@ -4002,8 +4005,8 @@
       <c r="I155" s="14"/>
     </row>
     <row r="156" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
-      <c r="B156" s="41"/>
+      <c r="A156" s="36"/>
+      <c r="B156" s="37"/>
       <c r="C156" s="3">
         <v>43950</v>
       </c>
@@ -4022,10 +4025,10 @@
       <c r="I156" s="11"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="48">
+      <c r="A157" s="46">
         <v>12</v>
       </c>
-      <c r="B157" s="39" t="s">
+      <c r="B157" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="18">
@@ -4046,8 +4049,8 @@
       <c r="J157" s="23"/>
     </row>
     <row r="158" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
-      <c r="B158" s="40"/>
+      <c r="A158" s="36"/>
+      <c r="B158" s="36"/>
       <c r="C158" s="18">
         <v>43926</v>
       </c>
@@ -4067,8 +4070,8 @@
       <c r="J158" s="23"/>
     </row>
     <row r="159" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
-      <c r="B159" s="40"/>
+      <c r="A159" s="36"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="18">
         <v>43928</v>
       </c>
@@ -4088,8 +4091,8 @@
       <c r="J159" s="23"/>
     </row>
     <row r="160" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
-      <c r="B160" s="40"/>
+      <c r="A160" s="36"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="18">
         <v>43930</v>
       </c>
@@ -4109,8 +4112,8 @@
       <c r="J160" s="23"/>
     </row>
     <row r="161" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="40"/>
-      <c r="B161" s="40"/>
+      <c r="A161" s="36"/>
+      <c r="B161" s="36"/>
       <c r="C161" s="18">
         <v>43932</v>
       </c>
@@ -4130,8 +4133,8 @@
       <c r="J161" s="23"/>
     </row>
     <row r="162" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="40"/>
-      <c r="B162" s="40"/>
+      <c r="A162" s="36"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="18">
         <v>43934</v>
       </c>
@@ -4151,8 +4154,8 @@
       <c r="J162" s="23"/>
     </row>
     <row r="163" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="40"/>
-      <c r="B163" s="40"/>
+      <c r="A163" s="36"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="18">
         <v>43936</v>
       </c>
@@ -4172,8 +4175,8 @@
       <c r="J163" s="25"/>
     </row>
     <row r="164" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
-      <c r="B164" s="40"/>
+      <c r="A164" s="36"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="18">
         <v>43938</v>
       </c>
@@ -4193,8 +4196,8 @@
       <c r="J164" s="25"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="40"/>
-      <c r="B165" s="40"/>
+      <c r="A165" s="36"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="18">
         <v>43940</v>
       </c>
@@ -4214,8 +4217,8 @@
       <c r="J165" s="25"/>
     </row>
     <row r="166" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="40"/>
-      <c r="B166" s="40"/>
+      <c r="A166" s="36"/>
+      <c r="B166" s="36"/>
       <c r="C166" s="18">
         <v>43942</v>
       </c>
@@ -4235,8 +4238,8 @@
       <c r="J166" s="25"/>
     </row>
     <row r="167" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="40"/>
-      <c r="B167" s="40"/>
+      <c r="A167" s="36"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="18">
         <v>43944</v>
       </c>
@@ -4256,8 +4259,8 @@
       <c r="J167" s="25"/>
     </row>
     <row r="168" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="40"/>
-      <c r="B168" s="40"/>
+      <c r="A168" s="36"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="18">
         <v>43946</v>
       </c>
@@ -4277,8 +4280,8 @@
       <c r="J168" s="25"/>
     </row>
     <row r="169" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="40"/>
-      <c r="B169" s="40"/>
+      <c r="A169" s="36"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="18">
         <v>43948</v>
       </c>
@@ -4298,8 +4301,8 @@
       <c r="J169" s="25"/>
     </row>
     <row r="170" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="40"/>
-      <c r="B170" s="41"/>
+      <c r="A170" s="36"/>
+      <c r="B170" s="37"/>
       <c r="C170" s="18">
         <v>43950</v>
       </c>
@@ -4319,10 +4322,10 @@
       <c r="J170" s="25"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="46">
+      <c r="A171" s="44">
         <v>13</v>
       </c>
-      <c r="B171" s="42" t="s">
+      <c r="B171" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C171" s="3">
@@ -4342,8 +4345,8 @@
       <c r="I171" s="7"/>
     </row>
     <row r="172" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="40"/>
-      <c r="B172" s="40"/>
+      <c r="A172" s="36"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="3">
         <v>43926</v>
       </c>
@@ -4362,8 +4365,8 @@
       <c r="I172" s="6"/>
     </row>
     <row r="173" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="40"/>
-      <c r="B173" s="40"/>
+      <c r="A173" s="36"/>
+      <c r="B173" s="36"/>
       <c r="C173" s="3">
         <v>43928</v>
       </c>
@@ -4382,8 +4385,8 @@
       <c r="I173" s="6"/>
     </row>
     <row r="174" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="40"/>
-      <c r="B174" s="40"/>
+      <c r="A174" s="36"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="3">
         <v>43930</v>
       </c>
@@ -4402,8 +4405,8 @@
       <c r="I174" s="6"/>
     </row>
     <row r="175" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="40"/>
-      <c r="B175" s="40"/>
+      <c r="A175" s="36"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="3">
         <v>43932</v>
       </c>
@@ -4422,8 +4425,8 @@
       <c r="I175" s="6"/>
     </row>
     <row r="176" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="40"/>
-      <c r="B176" s="40"/>
+      <c r="A176" s="36"/>
+      <c r="B176" s="36"/>
       <c r="C176" s="3">
         <v>43934</v>
       </c>
@@ -4442,8 +4445,8 @@
       <c r="I176" s="6"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="40"/>
-      <c r="B177" s="40"/>
+      <c r="A177" s="36"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="3">
         <v>43936</v>
       </c>
@@ -4462,8 +4465,8 @@
       <c r="I177" s="6"/>
     </row>
     <row r="178" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="40"/>
-      <c r="B178" s="40"/>
+      <c r="A178" s="36"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="3">
         <v>43938</v>
       </c>
@@ -4482,8 +4485,8 @@
       <c r="I178" s="6"/>
     </row>
     <row r="179" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="40"/>
-      <c r="B179" s="40"/>
+      <c r="A179" s="36"/>
+      <c r="B179" s="36"/>
       <c r="C179" s="3">
         <v>43940</v>
       </c>
@@ -4502,8 +4505,8 @@
       <c r="I179" s="11"/>
     </row>
     <row r="180" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="40"/>
-      <c r="B180" s="40"/>
+      <c r="A180" s="36"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="3">
         <v>43942</v>
       </c>
@@ -4522,8 +4525,8 @@
       <c r="I180" s="14"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="40"/>
-      <c r="B181" s="40"/>
+      <c r="A181" s="36"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="3">
         <v>43944</v>
       </c>
@@ -4542,8 +4545,8 @@
       <c r="I181" s="14"/>
     </row>
     <row r="182" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="40"/>
-      <c r="B182" s="40"/>
+      <c r="A182" s="36"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="3">
         <v>43946</v>
       </c>
@@ -4562,8 +4565,8 @@
       <c r="I182" s="14"/>
     </row>
     <row r="183" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="40"/>
-      <c r="B183" s="40"/>
+      <c r="A183" s="36"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="3">
         <v>43948</v>
       </c>
@@ -4582,8 +4585,8 @@
       <c r="I183" s="14"/>
     </row>
     <row r="184" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="40"/>
-      <c r="B184" s="41"/>
+      <c r="A184" s="36"/>
+      <c r="B184" s="37"/>
       <c r="C184" s="3">
         <v>43950</v>
       </c>
@@ -4602,10 +4605,10 @@
       <c r="I184" s="14"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="48">
+      <c r="A185" s="46">
         <v>14</v>
       </c>
-      <c r="B185" s="39" t="s">
+      <c r="B185" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C185" s="18">
@@ -4626,8 +4629,8 @@
       <c r="J185" s="23"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="40"/>
-      <c r="B186" s="40"/>
+      <c r="A186" s="36"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="18">
         <v>43926</v>
       </c>
@@ -4647,8 +4650,8 @@
       <c r="J186" s="23"/>
     </row>
     <row r="187" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="40"/>
-      <c r="B187" s="40"/>
+      <c r="A187" s="36"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="18">
         <v>43928</v>
       </c>
@@ -4668,8 +4671,8 @@
       <c r="J187" s="23"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="40"/>
-      <c r="B188" s="40"/>
+      <c r="A188" s="36"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="18">
         <v>43930</v>
       </c>
@@ -4689,8 +4692,8 @@
       <c r="J188" s="23"/>
     </row>
     <row r="189" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="40"/>
-      <c r="B189" s="40"/>
+      <c r="A189" s="36"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="18">
         <v>43932</v>
       </c>
@@ -4710,8 +4713,8 @@
       <c r="J189" s="23"/>
     </row>
     <row r="190" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="40"/>
-      <c r="B190" s="40"/>
+      <c r="A190" s="36"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="18">
         <v>43934</v>
       </c>
@@ -4731,8 +4734,8 @@
       <c r="J190" s="23"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="40"/>
-      <c r="B191" s="40"/>
+      <c r="A191" s="36"/>
+      <c r="B191" s="36"/>
       <c r="C191" s="18">
         <v>43936</v>
       </c>
@@ -4752,8 +4755,8 @@
       <c r="J191" s="25"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="40"/>
-      <c r="B192" s="40"/>
+      <c r="A192" s="36"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="18">
         <v>43938</v>
       </c>
@@ -4773,8 +4776,8 @@
       <c r="J192" s="25"/>
     </row>
     <row r="193" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="40"/>
-      <c r="B193" s="40"/>
+      <c r="A193" s="36"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="18">
         <v>43940</v>
       </c>
@@ -4794,8 +4797,8 @@
       <c r="J193" s="25"/>
     </row>
     <row r="194" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="40"/>
-      <c r="B194" s="40"/>
+      <c r="A194" s="36"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="18">
         <v>43942</v>
       </c>
@@ -4815,8 +4818,8 @@
       <c r="J194" s="25"/>
     </row>
     <row r="195" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="40"/>
-      <c r="B195" s="40"/>
+      <c r="A195" s="36"/>
+      <c r="B195" s="36"/>
       <c r="C195" s="18">
         <v>43944</v>
       </c>
@@ -4836,8 +4839,8 @@
       <c r="J195" s="25"/>
     </row>
     <row r="196" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="40"/>
-      <c r="B196" s="40"/>
+      <c r="A196" s="36"/>
+      <c r="B196" s="36"/>
       <c r="C196" s="18">
         <v>43946</v>
       </c>
@@ -4857,8 +4860,8 @@
       <c r="J196" s="25"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="40"/>
-      <c r="B197" s="40"/>
+      <c r="A197" s="36"/>
+      <c r="B197" s="36"/>
       <c r="C197" s="18">
         <v>43948</v>
       </c>
@@ -4878,8 +4881,8 @@
       <c r="J197" s="25"/>
     </row>
     <row r="198" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="40"/>
-      <c r="B198" s="41"/>
+      <c r="A198" s="36"/>
+      <c r="B198" s="37"/>
       <c r="C198" s="18">
         <v>43950</v>
       </c>
@@ -4899,10 +4902,10 @@
       <c r="J198" s="25"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="46">
+      <c r="A199" s="44">
         <v>15</v>
       </c>
-      <c r="B199" s="35" t="s">
+      <c r="B199" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C199" s="3">
@@ -4922,8 +4925,8 @@
       <c r="I199" s="7"/>
     </row>
     <row r="200" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="40"/>
-      <c r="B200" s="36"/>
+      <c r="A200" s="36"/>
+      <c r="B200" s="39"/>
       <c r="C200" s="3">
         <v>43926</v>
       </c>
@@ -4942,8 +4945,8 @@
       <c r="I200" s="6"/>
     </row>
     <row r="201" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="40"/>
-      <c r="B201" s="36"/>
+      <c r="A201" s="36"/>
+      <c r="B201" s="39"/>
       <c r="C201" s="3">
         <v>43928</v>
       </c>
@@ -4962,8 +4965,8 @@
       <c r="I201" s="6"/>
     </row>
     <row r="202" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="40"/>
-      <c r="B202" s="36"/>
+      <c r="A202" s="36"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="3">
         <v>43930</v>
       </c>
@@ -4982,8 +4985,8 @@
       <c r="I202" s="6"/>
     </row>
     <row r="203" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="40"/>
-      <c r="B203" s="36"/>
+      <c r="A203" s="36"/>
+      <c r="B203" s="39"/>
       <c r="C203" s="3">
         <v>43932</v>
       </c>
@@ -5002,8 +5005,8 @@
       <c r="I203" s="6"/>
     </row>
     <row r="204" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="40"/>
-      <c r="B204" s="36"/>
+      <c r="A204" s="36"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="3">
         <v>43934</v>
       </c>
@@ -5022,8 +5025,8 @@
       <c r="I204" s="6"/>
     </row>
     <row r="205" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="40"/>
-      <c r="B205" s="36"/>
+      <c r="A205" s="36"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="3">
         <v>43936</v>
       </c>
@@ -5042,8 +5045,8 @@
       <c r="I205" s="6"/>
     </row>
     <row r="206" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="40"/>
-      <c r="B206" s="36"/>
+      <c r="A206" s="36"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="3">
         <v>43938</v>
       </c>
@@ -5062,8 +5065,8 @@
       <c r="I206" s="6"/>
     </row>
     <row r="207" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="40"/>
-      <c r="B207" s="36"/>
+      <c r="A207" s="36"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="3">
         <v>43940</v>
       </c>
@@ -5082,8 +5085,8 @@
       <c r="I207" s="11"/>
     </row>
     <row r="208" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="40"/>
-      <c r="B208" s="36"/>
+      <c r="A208" s="36"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="3">
         <v>43942</v>
       </c>
@@ -5102,8 +5105,8 @@
       <c r="I208" s="14"/>
     </row>
     <row r="209" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="40"/>
-      <c r="B209" s="36"/>
+      <c r="A209" s="36"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="3">
         <v>43944</v>
       </c>
@@ -5122,8 +5125,8 @@
       <c r="I209" s="14"/>
     </row>
     <row r="210" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="40"/>
-      <c r="B210" s="36"/>
+      <c r="A210" s="36"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="3">
         <v>43946</v>
       </c>
@@ -5142,8 +5145,8 @@
       <c r="I210" s="14"/>
     </row>
     <row r="211" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="40"/>
-      <c r="B211" s="36"/>
+      <c r="A211" s="36"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="3">
         <v>43948</v>
       </c>
@@ -5162,8 +5165,8 @@
       <c r="I211" s="14"/>
     </row>
     <row r="212" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="40"/>
-      <c r="B212" s="37"/>
+      <c r="A212" s="36"/>
+      <c r="B212" s="40"/>
       <c r="C212" s="3">
         <v>43950</v>
       </c>
@@ -5182,7 +5185,7 @@
       <c r="I212" s="14"/>
     </row>
     <row r="213" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="52">
+      <c r="A213" s="35">
         <v>16</v>
       </c>
       <c r="B213" s="38" t="s">
@@ -5206,8 +5209,8 @@
       <c r="J213" s="23"/>
     </row>
     <row r="214" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="40"/>
-      <c r="B214" s="36"/>
+      <c r="A214" s="36"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="18">
         <v>43926</v>
       </c>
@@ -5227,8 +5230,8 @@
       <c r="J214" s="23"/>
     </row>
     <row r="215" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="40"/>
-      <c r="B215" s="36"/>
+      <c r="A215" s="36"/>
+      <c r="B215" s="39"/>
       <c r="C215" s="18">
         <v>43928</v>
       </c>
@@ -5248,8 +5251,8 @@
       <c r="J215" s="23"/>
     </row>
     <row r="216" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="40"/>
-      <c r="B216" s="36"/>
+      <c r="A216" s="36"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="18">
         <v>43930</v>
       </c>
@@ -5269,8 +5272,8 @@
       <c r="J216" s="23"/>
     </row>
     <row r="217" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="40"/>
-      <c r="B217" s="36"/>
+      <c r="A217" s="36"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="18">
         <v>43932</v>
       </c>
@@ -5290,8 +5293,8 @@
       <c r="J217" s="23"/>
     </row>
     <row r="218" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="40"/>
-      <c r="B218" s="36"/>
+      <c r="A218" s="36"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="18">
         <v>43934</v>
       </c>
@@ -5311,8 +5314,8 @@
       <c r="J218" s="23"/>
     </row>
     <row r="219" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="40"/>
-      <c r="B219" s="36"/>
+      <c r="A219" s="36"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="18">
         <v>43936</v>
       </c>
@@ -5332,8 +5335,8 @@
       <c r="J219" s="25"/>
     </row>
     <row r="220" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="40"/>
-      <c r="B220" s="36"/>
+      <c r="A220" s="36"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="18">
         <v>43938</v>
       </c>
@@ -5353,8 +5356,8 @@
       <c r="J220" s="25"/>
     </row>
     <row r="221" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="40"/>
-      <c r="B221" s="36"/>
+      <c r="A221" s="36"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="18">
         <v>43940</v>
       </c>
@@ -5374,8 +5377,8 @@
       <c r="J221" s="25"/>
     </row>
     <row r="222" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="40"/>
-      <c r="B222" s="36"/>
+      <c r="A222" s="36"/>
+      <c r="B222" s="39"/>
       <c r="C222" s="18">
         <v>43942</v>
       </c>
@@ -5395,8 +5398,8 @@
       <c r="J222" s="25"/>
     </row>
     <row r="223" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="40"/>
-      <c r="B223" s="36"/>
+      <c r="A223" s="36"/>
+      <c r="B223" s="39"/>
       <c r="C223" s="18">
         <v>43944</v>
       </c>
@@ -5416,8 +5419,8 @@
       <c r="J223" s="25"/>
     </row>
     <row r="224" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="40"/>
-      <c r="B224" s="36"/>
+      <c r="A224" s="36"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="18">
         <v>43946</v>
       </c>
@@ -5437,8 +5440,8 @@
       <c r="J224" s="25"/>
     </row>
     <row r="225" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="40"/>
-      <c r="B225" s="36"/>
+      <c r="A225" s="36"/>
+      <c r="B225" s="39"/>
       <c r="C225" s="18">
         <v>43948</v>
       </c>
@@ -5458,8 +5461,8 @@
       <c r="J225" s="25"/>
     </row>
     <row r="226" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="40"/>
-      <c r="B226" s="37"/>
+      <c r="A226" s="36"/>
+      <c r="B226" s="40"/>
       <c r="C226" s="18">
         <v>43950</v>
       </c>
@@ -5479,10 +5482,10 @@
       <c r="J226" s="25"/>
     </row>
     <row r="227" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="53">
+      <c r="A227" s="41">
         <v>17</v>
       </c>
-      <c r="B227" s="42" t="s">
+      <c r="B227" s="45" t="s">
         <v>27</v>
       </c>
       <c r="C227" s="3">
@@ -5502,8 +5505,8 @@
       <c r="I227" s="7"/>
     </row>
     <row r="228" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="40"/>
-      <c r="B228" s="40"/>
+      <c r="A228" s="36"/>
+      <c r="B228" s="36"/>
       <c r="C228" s="3">
         <v>43926</v>
       </c>
@@ -5522,8 +5525,8 @@
       <c r="I228" s="6"/>
     </row>
     <row r="229" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="40"/>
-      <c r="B229" s="40"/>
+      <c r="A229" s="36"/>
+      <c r="B229" s="36"/>
       <c r="C229" s="3">
         <v>43928</v>
       </c>
@@ -5542,8 +5545,8 @@
       <c r="I229" s="6"/>
     </row>
     <row r="230" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="40"/>
-      <c r="B230" s="40"/>
+      <c r="A230" s="36"/>
+      <c r="B230" s="36"/>
       <c r="C230" s="3">
         <v>43930</v>
       </c>
@@ -5562,8 +5565,8 @@
       <c r="I230" s="6"/>
     </row>
     <row r="231" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="40"/>
-      <c r="B231" s="40"/>
+      <c r="A231" s="36"/>
+      <c r="B231" s="36"/>
       <c r="C231" s="3">
         <v>43932</v>
       </c>
@@ -5582,8 +5585,8 @@
       <c r="I231" s="6"/>
     </row>
     <row r="232" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="40"/>
-      <c r="B232" s="40"/>
+      <c r="A232" s="36"/>
+      <c r="B232" s="36"/>
       <c r="C232" s="3">
         <v>43934</v>
       </c>
@@ -5602,8 +5605,8 @@
       <c r="I232" s="6"/>
     </row>
     <row r="233" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="40"/>
-      <c r="B233" s="40"/>
+      <c r="A233" s="36"/>
+      <c r="B233" s="36"/>
       <c r="C233" s="3">
         <v>43936</v>
       </c>
@@ -5622,8 +5625,8 @@
       <c r="I233" s="6"/>
     </row>
     <row r="234" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="40"/>
-      <c r="B234" s="40"/>
+      <c r="A234" s="36"/>
+      <c r="B234" s="36"/>
       <c r="C234" s="3">
         <v>43938</v>
       </c>
@@ -5642,8 +5645,8 @@
       <c r="I234" s="6"/>
     </row>
     <row r="235" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="40"/>
-      <c r="B235" s="40"/>
+      <c r="A235" s="36"/>
+      <c r="B235" s="36"/>
       <c r="C235" s="3">
         <v>43940</v>
       </c>
@@ -5662,8 +5665,8 @@
       <c r="I235" s="11"/>
     </row>
     <row r="236" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="40"/>
-      <c r="B236" s="40"/>
+      <c r="A236" s="36"/>
+      <c r="B236" s="36"/>
       <c r="C236" s="3">
         <v>43942</v>
       </c>
@@ -5682,8 +5685,8 @@
       <c r="I236" s="14"/>
     </row>
     <row r="237" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="40"/>
-      <c r="B237" s="40"/>
+      <c r="A237" s="36"/>
+      <c r="B237" s="36"/>
       <c r="C237" s="3">
         <v>43944</v>
       </c>
@@ -5702,8 +5705,8 @@
       <c r="I237" s="14"/>
     </row>
     <row r="238" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="40"/>
-      <c r="B238" s="40"/>
+      <c r="A238" s="36"/>
+      <c r="B238" s="36"/>
       <c r="C238" s="3">
         <v>43946</v>
       </c>
@@ -5722,8 +5725,8 @@
       <c r="I238" s="14"/>
     </row>
     <row r="239" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="40"/>
-      <c r="B239" s="40"/>
+      <c r="A239" s="36"/>
+      <c r="B239" s="36"/>
       <c r="C239" s="3">
         <v>43948</v>
       </c>
@@ -5742,8 +5745,8 @@
       <c r="I239" s="14"/>
     </row>
     <row r="240" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="40"/>
-      <c r="B240" s="41"/>
+      <c r="A240" s="36"/>
+      <c r="B240" s="37"/>
       <c r="C240" s="3">
         <v>43950</v>
       </c>
@@ -5762,7 +5765,7 @@
       <c r="I240" s="14"/>
     </row>
     <row r="241" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="52">
+      <c r="A241" s="35">
         <v>18</v>
       </c>
       <c r="B241" s="38" t="s">
@@ -5786,8 +5789,8 @@
       <c r="J241" s="23"/>
     </row>
     <row r="242" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="40"/>
-      <c r="B242" s="36"/>
+      <c r="A242" s="36"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="18">
         <v>43926</v>
       </c>
@@ -5807,8 +5810,8 @@
       <c r="J242" s="23"/>
     </row>
     <row r="243" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="40"/>
-      <c r="B243" s="36"/>
+      <c r="A243" s="36"/>
+      <c r="B243" s="39"/>
       <c r="C243" s="18">
         <v>43928</v>
       </c>
@@ -5828,8 +5831,8 @@
       <c r="J243" s="23"/>
     </row>
     <row r="244" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="40"/>
-      <c r="B244" s="36"/>
+      <c r="A244" s="36"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="18">
         <v>43930</v>
       </c>
@@ -5849,8 +5852,8 @@
       <c r="J244" s="23"/>
     </row>
     <row r="245" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="40"/>
-      <c r="B245" s="36"/>
+      <c r="A245" s="36"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="18">
         <v>43932</v>
       </c>
@@ -5870,8 +5873,8 @@
       <c r="J245" s="23"/>
     </row>
     <row r="246" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="40"/>
-      <c r="B246" s="36"/>
+      <c r="A246" s="36"/>
+      <c r="B246" s="39"/>
       <c r="C246" s="18">
         <v>43934</v>
       </c>
@@ -5891,8 +5894,8 @@
       <c r="J246" s="23"/>
     </row>
     <row r="247" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="40"/>
-      <c r="B247" s="36"/>
+      <c r="A247" s="36"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="18">
         <v>43936</v>
       </c>
@@ -5912,8 +5915,8 @@
       <c r="J247" s="25"/>
     </row>
     <row r="248" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="40"/>
-      <c r="B248" s="36"/>
+      <c r="A248" s="36"/>
+      <c r="B248" s="39"/>
       <c r="C248" s="18">
         <v>43938</v>
       </c>
@@ -5933,8 +5936,8 @@
       <c r="J248" s="25"/>
     </row>
     <row r="249" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="40"/>
-      <c r="B249" s="36"/>
+      <c r="A249" s="36"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="18">
         <v>43940</v>
       </c>
@@ -5954,8 +5957,8 @@
       <c r="J249" s="25"/>
     </row>
     <row r="250" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="40"/>
-      <c r="B250" s="36"/>
+      <c r="A250" s="36"/>
+      <c r="B250" s="39"/>
       <c r="C250" s="18">
         <v>43942</v>
       </c>
@@ -5975,8 +5978,8 @@
       <c r="J250" s="25"/>
     </row>
     <row r="251" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="40"/>
-      <c r="B251" s="36"/>
+      <c r="A251" s="36"/>
+      <c r="B251" s="39"/>
       <c r="C251" s="18">
         <v>43944</v>
       </c>
@@ -5996,8 +5999,8 @@
       <c r="J251" s="25"/>
     </row>
     <row r="252" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="40"/>
-      <c r="B252" s="36"/>
+      <c r="A252" s="36"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="18">
         <v>43946</v>
       </c>
@@ -6017,8 +6020,8 @@
       <c r="J252" s="25"/>
     </row>
     <row r="253" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="40"/>
-      <c r="B253" s="36"/>
+      <c r="A253" s="36"/>
+      <c r="B253" s="39"/>
       <c r="C253" s="18">
         <v>43948</v>
       </c>
@@ -6038,8 +6041,8 @@
       <c r="J253" s="25"/>
     </row>
     <row r="254" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="40"/>
-      <c r="B254" s="37"/>
+      <c r="A254" s="36"/>
+      <c r="B254" s="40"/>
       <c r="C254" s="18">
         <v>43950</v>
       </c>
@@ -6059,10 +6062,10 @@
       <c r="J254" s="25"/>
     </row>
     <row r="255" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="53">
+      <c r="A255" s="41">
         <v>19</v>
       </c>
-      <c r="B255" s="35" t="s">
+      <c r="B255" s="42" t="s">
         <v>29</v>
       </c>
       <c r="C255" s="3">
@@ -6082,8 +6085,8 @@
       <c r="I255" s="7"/>
     </row>
     <row r="256" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="40"/>
-      <c r="B256" s="36"/>
+      <c r="A256" s="36"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="3">
         <v>43926</v>
       </c>
@@ -6102,8 +6105,8 @@
       <c r="I256" s="6"/>
     </row>
     <row r="257" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="40"/>
-      <c r="B257" s="36"/>
+      <c r="A257" s="36"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="3">
         <v>43928</v>
       </c>
@@ -6122,8 +6125,8 @@
       <c r="I257" s="6"/>
     </row>
     <row r="258" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="40"/>
-      <c r="B258" s="36"/>
+      <c r="A258" s="36"/>
+      <c r="B258" s="39"/>
       <c r="C258" s="3">
         <v>43930</v>
       </c>
@@ -6142,8 +6145,8 @@
       <c r="I258" s="6"/>
     </row>
     <row r="259" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="40"/>
-      <c r="B259" s="36"/>
+      <c r="A259" s="36"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="3">
         <v>43932</v>
       </c>
@@ -6162,8 +6165,8 @@
       <c r="I259" s="6"/>
     </row>
     <row r="260" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="40"/>
-      <c r="B260" s="36"/>
+      <c r="A260" s="36"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="3">
         <v>43934</v>
       </c>
@@ -6182,8 +6185,8 @@
       <c r="I260" s="6"/>
     </row>
     <row r="261" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="40"/>
-      <c r="B261" s="36"/>
+      <c r="A261" s="36"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="3">
         <v>43936</v>
       </c>
@@ -6202,8 +6205,8 @@
       <c r="I261" s="6"/>
     </row>
     <row r="262" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="40"/>
-      <c r="B262" s="36"/>
+      <c r="A262" s="36"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="3">
         <v>43938</v>
       </c>
@@ -6222,8 +6225,8 @@
       <c r="I262" s="6"/>
     </row>
     <row r="263" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="40"/>
-      <c r="B263" s="36"/>
+      <c r="A263" s="36"/>
+      <c r="B263" s="39"/>
       <c r="C263" s="3">
         <v>43940</v>
       </c>
@@ -6242,8 +6245,8 @@
       <c r="I263" s="11"/>
     </row>
     <row r="264" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="40"/>
-      <c r="B264" s="36"/>
+      <c r="A264" s="36"/>
+      <c r="B264" s="39"/>
       <c r="C264" s="3">
         <v>43942</v>
       </c>
@@ -6262,8 +6265,8 @@
       <c r="I264" s="14"/>
     </row>
     <row r="265" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="40"/>
-      <c r="B265" s="36"/>
+      <c r="A265" s="36"/>
+      <c r="B265" s="39"/>
       <c r="C265" s="3">
         <v>43944</v>
       </c>
@@ -6282,8 +6285,8 @@
       <c r="I265" s="14"/>
     </row>
     <row r="266" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="40"/>
-      <c r="B266" s="36"/>
+      <c r="A266" s="36"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="3">
         <v>43946</v>
       </c>
@@ -6302,8 +6305,8 @@
       <c r="I266" s="14"/>
     </row>
     <row r="267" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="40"/>
-      <c r="B267" s="36"/>
+      <c r="A267" s="36"/>
+      <c r="B267" s="39"/>
       <c r="C267" s="3">
         <v>43948</v>
       </c>
@@ -6322,8 +6325,8 @@
       <c r="I267" s="14"/>
     </row>
     <row r="268" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="40"/>
-      <c r="B268" s="37"/>
+      <c r="A268" s="36"/>
+      <c r="B268" s="40"/>
       <c r="C268" s="3">
         <v>43950</v>
       </c>
@@ -6342,7 +6345,7 @@
       <c r="I268" s="14"/>
     </row>
     <row r="269" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="52">
+      <c r="A269" s="35">
         <v>20</v>
       </c>
       <c r="B269" s="38" t="s">
@@ -6366,8 +6369,8 @@
       <c r="J269" s="23"/>
     </row>
     <row r="270" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="40"/>
-      <c r="B270" s="36"/>
+      <c r="A270" s="36"/>
+      <c r="B270" s="39"/>
       <c r="C270" s="18">
         <v>43926</v>
       </c>
@@ -6387,8 +6390,8 @@
       <c r="J270" s="23"/>
     </row>
     <row r="271" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="40"/>
-      <c r="B271" s="36"/>
+      <c r="A271" s="36"/>
+      <c r="B271" s="39"/>
       <c r="C271" s="18">
         <v>43928</v>
       </c>
@@ -6408,8 +6411,8 @@
       <c r="J271" s="23"/>
     </row>
     <row r="272" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="40"/>
-      <c r="B272" s="36"/>
+      <c r="A272" s="36"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="18">
         <v>43930</v>
       </c>
@@ -6429,8 +6432,8 @@
       <c r="J272" s="23"/>
     </row>
     <row r="273" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="40"/>
-      <c r="B273" s="36"/>
+      <c r="A273" s="36"/>
+      <c r="B273" s="39"/>
       <c r="C273" s="18">
         <v>43932</v>
       </c>
@@ -6450,8 +6453,8 @@
       <c r="J273" s="23"/>
     </row>
     <row r="274" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="40"/>
-      <c r="B274" s="36"/>
+      <c r="A274" s="36"/>
+      <c r="B274" s="39"/>
       <c r="C274" s="18">
         <v>43934</v>
       </c>
@@ -6471,8 +6474,8 @@
       <c r="J274" s="23"/>
     </row>
     <row r="275" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="40"/>
-      <c r="B275" s="36"/>
+      <c r="A275" s="36"/>
+      <c r="B275" s="39"/>
       <c r="C275" s="18">
         <v>43936</v>
       </c>
@@ -6492,8 +6495,8 @@
       <c r="J275" s="25"/>
     </row>
     <row r="276" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="40"/>
-      <c r="B276" s="36"/>
+      <c r="A276" s="36"/>
+      <c r="B276" s="39"/>
       <c r="C276" s="18">
         <v>43938</v>
       </c>
@@ -6513,8 +6516,8 @@
       <c r="J276" s="25"/>
     </row>
     <row r="277" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="40"/>
-      <c r="B277" s="36"/>
+      <c r="A277" s="36"/>
+      <c r="B277" s="39"/>
       <c r="C277" s="18">
         <v>43940</v>
       </c>
@@ -6534,8 +6537,8 @@
       <c r="J277" s="25"/>
     </row>
     <row r="278" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="40"/>
-      <c r="B278" s="36"/>
+      <c r="A278" s="36"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="18">
         <v>43942</v>
       </c>
@@ -6555,8 +6558,8 @@
       <c r="J278" s="25"/>
     </row>
     <row r="279" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="40"/>
-      <c r="B279" s="36"/>
+      <c r="A279" s="36"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="18">
         <v>43944</v>
       </c>
@@ -6576,8 +6579,8 @@
       <c r="J279" s="25"/>
     </row>
     <row r="280" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="40"/>
-      <c r="B280" s="36"/>
+      <c r="A280" s="36"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="18">
         <v>43946</v>
       </c>
@@ -6597,8 +6600,8 @@
       <c r="J280" s="25"/>
     </row>
     <row r="281" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="40"/>
-      <c r="B281" s="36"/>
+      <c r="A281" s="36"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="18">
         <v>43948</v>
       </c>
@@ -6618,8 +6621,8 @@
       <c r="J281" s="25"/>
     </row>
     <row r="282" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="40"/>
-      <c r="B282" s="37"/>
+      <c r="A282" s="36"/>
+      <c r="B282" s="40"/>
       <c r="C282" s="18">
         <v>43950</v>
       </c>
@@ -6639,10 +6642,10 @@
       <c r="J282" s="25"/>
     </row>
     <row r="283" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="53">
+      <c r="A283" s="41">
         <v>21</v>
       </c>
-      <c r="B283" s="35" t="s">
+      <c r="B283" s="42" t="s">
         <v>31</v>
       </c>
       <c r="C283" s="3">
@@ -6658,12 +6661,14 @@
         <v>1</v>
       </c>
       <c r="G283" s="10"/>
-      <c r="H283" s="6"/>
+      <c r="H283" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I283" s="7"/>
     </row>
     <row r="284" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="40"/>
-      <c r="B284" s="36"/>
+      <c r="A284" s="36"/>
+      <c r="B284" s="39"/>
       <c r="C284" s="3">
         <v>43926</v>
       </c>
@@ -6678,12 +6683,14 @@
         <v>2</v>
       </c>
       <c r="G284" s="4"/>
-      <c r="H284" s="6"/>
+      <c r="H284" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I284" s="6"/>
     </row>
     <row r="285" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="40"/>
-      <c r="B285" s="36"/>
+      <c r="A285" s="36"/>
+      <c r="B285" s="39"/>
       <c r="C285" s="3">
         <v>43928</v>
       </c>
@@ -6698,12 +6705,14 @@
         <v>1</v>
       </c>
       <c r="G285" s="10"/>
-      <c r="H285" s="6"/>
+      <c r="H285" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I285" s="6"/>
     </row>
     <row r="286" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="40"/>
-      <c r="B286" s="36"/>
+      <c r="A286" s="36"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="3">
         <v>43930</v>
       </c>
@@ -6722,8 +6731,8 @@
       <c r="I286" s="6"/>
     </row>
     <row r="287" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="40"/>
-      <c r="B287" s="36"/>
+      <c r="A287" s="36"/>
+      <c r="B287" s="39"/>
       <c r="C287" s="3">
         <v>43932</v>
       </c>
@@ -6742,8 +6751,8 @@
       <c r="I287" s="6"/>
     </row>
     <row r="288" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="40"/>
-      <c r="B288" s="36"/>
+      <c r="A288" s="36"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="3">
         <v>43934</v>
       </c>
@@ -6762,8 +6771,8 @@
       <c r="I288" s="6"/>
     </row>
     <row r="289" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="40"/>
-      <c r="B289" s="36"/>
+      <c r="A289" s="36"/>
+      <c r="B289" s="39"/>
       <c r="C289" s="3">
         <v>43936</v>
       </c>
@@ -6782,8 +6791,8 @@
       <c r="I289" s="6"/>
     </row>
     <row r="290" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="40"/>
-      <c r="B290" s="36"/>
+      <c r="A290" s="36"/>
+      <c r="B290" s="39"/>
       <c r="C290" s="3">
         <v>43938</v>
       </c>
@@ -6802,8 +6811,8 @@
       <c r="I290" s="6"/>
     </row>
     <row r="291" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="40"/>
-      <c r="B291" s="36"/>
+      <c r="A291" s="36"/>
+      <c r="B291" s="39"/>
       <c r="C291" s="3">
         <v>43940</v>
       </c>
@@ -6822,8 +6831,8 @@
       <c r="I291" s="11"/>
     </row>
     <row r="292" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="40"/>
-      <c r="B292" s="36"/>
+      <c r="A292" s="36"/>
+      <c r="B292" s="39"/>
       <c r="C292" s="3">
         <v>43942</v>
       </c>
@@ -6842,8 +6851,8 @@
       <c r="I292" s="14"/>
     </row>
     <row r="293" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="40"/>
-      <c r="B293" s="36"/>
+      <c r="A293" s="36"/>
+      <c r="B293" s="39"/>
       <c r="C293" s="3">
         <v>43944</v>
       </c>
@@ -6862,8 +6871,8 @@
       <c r="I293" s="14"/>
     </row>
     <row r="294" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="40"/>
-      <c r="B294" s="36"/>
+      <c r="A294" s="36"/>
+      <c r="B294" s="39"/>
       <c r="C294" s="3">
         <v>43946</v>
       </c>
@@ -6882,8 +6891,8 @@
       <c r="I294" s="14"/>
     </row>
     <row r="295" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="40"/>
-      <c r="B295" s="36"/>
+      <c r="A295" s="36"/>
+      <c r="B295" s="39"/>
       <c r="C295" s="3">
         <v>43948</v>
       </c>
@@ -6902,8 +6911,8 @@
       <c r="I295" s="14"/>
     </row>
     <row r="296" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="40"/>
-      <c r="B296" s="37"/>
+      <c r="A296" s="36"/>
+      <c r="B296" s="40"/>
       <c r="C296" s="3">
         <v>43950</v>
       </c>
@@ -6922,10 +6931,10 @@
       <c r="I296" s="14"/>
     </row>
     <row r="297" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="52">
+      <c r="A297" s="35">
         <v>22</v>
       </c>
-      <c r="B297" s="39" t="s">
+      <c r="B297" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C297" s="18">
@@ -6946,8 +6955,8 @@
       <c r="J297" s="23"/>
     </row>
     <row r="298" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="40"/>
-      <c r="B298" s="40"/>
+      <c r="A298" s="36"/>
+      <c r="B298" s="36"/>
       <c r="C298" s="18">
         <v>43926</v>
       </c>
@@ -6967,8 +6976,8 @@
       <c r="J298" s="23"/>
     </row>
     <row r="299" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="40"/>
-      <c r="B299" s="40"/>
+      <c r="A299" s="36"/>
+      <c r="B299" s="36"/>
       <c r="C299" s="18">
         <v>43928</v>
       </c>
@@ -6988,8 +6997,8 @@
       <c r="J299" s="23"/>
     </row>
     <row r="300" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="40"/>
-      <c r="B300" s="40"/>
+      <c r="A300" s="36"/>
+      <c r="B300" s="36"/>
       <c r="C300" s="18">
         <v>43930</v>
       </c>
@@ -7009,8 +7018,8 @@
       <c r="J300" s="23"/>
     </row>
     <row r="301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="40"/>
-      <c r="B301" s="40"/>
+      <c r="A301" s="36"/>
+      <c r="B301" s="36"/>
       <c r="C301" s="18">
         <v>43932</v>
       </c>
@@ -7030,8 +7039,8 @@
       <c r="J301" s="23"/>
     </row>
     <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="40"/>
-      <c r="B302" s="40"/>
+      <c r="A302" s="36"/>
+      <c r="B302" s="36"/>
       <c r="C302" s="18">
         <v>43934</v>
       </c>
@@ -7051,8 +7060,8 @@
       <c r="J302" s="23"/>
     </row>
     <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="40"/>
-      <c r="B303" s="40"/>
+      <c r="A303" s="36"/>
+      <c r="B303" s="36"/>
       <c r="C303" s="18">
         <v>43936</v>
       </c>
@@ -7072,8 +7081,8 @@
       <c r="J303" s="25"/>
     </row>
     <row r="304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="40"/>
-      <c r="B304" s="40"/>
+      <c r="A304" s="36"/>
+      <c r="B304" s="36"/>
       <c r="C304" s="18">
         <v>43938</v>
       </c>
@@ -7093,8 +7102,8 @@
       <c r="J304" s="25"/>
     </row>
     <row r="305" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="40"/>
-      <c r="B305" s="40"/>
+      <c r="A305" s="36"/>
+      <c r="B305" s="36"/>
       <c r="C305" s="18">
         <v>43940</v>
       </c>
@@ -7114,8 +7123,8 @@
       <c r="J305" s="25"/>
     </row>
     <row r="306" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="40"/>
-      <c r="B306" s="40"/>
+      <c r="A306" s="36"/>
+      <c r="B306" s="36"/>
       <c r="C306" s="18">
         <v>43942</v>
       </c>
@@ -7135,8 +7144,8 @@
       <c r="J306" s="25"/>
     </row>
     <row r="307" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="40"/>
-      <c r="B307" s="40"/>
+      <c r="A307" s="36"/>
+      <c r="B307" s="36"/>
       <c r="C307" s="18">
         <v>43944</v>
       </c>
@@ -7156,8 +7165,8 @@
       <c r="J307" s="25"/>
     </row>
     <row r="308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="40"/>
-      <c r="B308" s="40"/>
+      <c r="A308" s="36"/>
+      <c r="B308" s="36"/>
       <c r="C308" s="18">
         <v>43946</v>
       </c>
@@ -7177,8 +7186,8 @@
       <c r="J308" s="25"/>
     </row>
     <row r="309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="40"/>
-      <c r="B309" s="40"/>
+      <c r="A309" s="36"/>
+      <c r="B309" s="36"/>
       <c r="C309" s="18">
         <v>43948</v>
       </c>
@@ -7198,8 +7207,8 @@
       <c r="J309" s="25"/>
     </row>
     <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="40"/>
-      <c r="B310" s="41"/>
+      <c r="A310" s="36"/>
+      <c r="B310" s="37"/>
       <c r="C310" s="18">
         <v>43950</v>
       </c>
@@ -7219,10 +7228,10 @@
       <c r="J310" s="25"/>
     </row>
     <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="53">
+      <c r="A311" s="41">
         <v>23</v>
       </c>
-      <c r="B311" s="35" t="s">
+      <c r="B311" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C311" s="3">
@@ -7242,8 +7251,8 @@
       <c r="I311" s="7"/>
     </row>
     <row r="312" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="40"/>
-      <c r="B312" s="36"/>
+      <c r="A312" s="36"/>
+      <c r="B312" s="39"/>
       <c r="C312" s="3">
         <v>43926</v>
       </c>
@@ -7262,8 +7271,8 @@
       <c r="I312" s="6"/>
     </row>
     <row r="313" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="40"/>
-      <c r="B313" s="36"/>
+      <c r="A313" s="36"/>
+      <c r="B313" s="39"/>
       <c r="C313" s="3">
         <v>43928</v>
       </c>
@@ -7282,8 +7291,8 @@
       <c r="I313" s="6"/>
     </row>
     <row r="314" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="40"/>
-      <c r="B314" s="36"/>
+      <c r="A314" s="36"/>
+      <c r="B314" s="39"/>
       <c r="C314" s="3">
         <v>43930</v>
       </c>
@@ -7302,8 +7311,8 @@
       <c r="I314" s="6"/>
     </row>
     <row r="315" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="40"/>
-      <c r="B315" s="36"/>
+      <c r="A315" s="36"/>
+      <c r="B315" s="39"/>
       <c r="C315" s="3">
         <v>43932</v>
       </c>
@@ -7322,8 +7331,8 @@
       <c r="I315" s="6"/>
     </row>
     <row r="316" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="40"/>
-      <c r="B316" s="36"/>
+      <c r="A316" s="36"/>
+      <c r="B316" s="39"/>
       <c r="C316" s="3">
         <v>43934</v>
       </c>
@@ -7342,8 +7351,8 @@
       <c r="I316" s="6"/>
     </row>
     <row r="317" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="40"/>
-      <c r="B317" s="36"/>
+      <c r="A317" s="36"/>
+      <c r="B317" s="39"/>
       <c r="C317" s="3">
         <v>43936</v>
       </c>
@@ -7362,8 +7371,8 @@
       <c r="I317" s="6"/>
     </row>
     <row r="318" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="40"/>
-      <c r="B318" s="36"/>
+      <c r="A318" s="36"/>
+      <c r="B318" s="39"/>
       <c r="C318" s="3">
         <v>43938</v>
       </c>
@@ -7382,8 +7391,8 @@
       <c r="I318" s="6"/>
     </row>
     <row r="319" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="40"/>
-      <c r="B319" s="36"/>
+      <c r="A319" s="36"/>
+      <c r="B319" s="39"/>
       <c r="C319" s="3">
         <v>43940</v>
       </c>
@@ -7402,8 +7411,8 @@
       <c r="I319" s="11"/>
     </row>
     <row r="320" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="40"/>
-      <c r="B320" s="36"/>
+      <c r="A320" s="36"/>
+      <c r="B320" s="39"/>
       <c r="C320" s="3">
         <v>43942</v>
       </c>
@@ -7422,8 +7431,8 @@
       <c r="I320" s="14"/>
     </row>
     <row r="321" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="40"/>
-      <c r="B321" s="36"/>
+      <c r="A321" s="36"/>
+      <c r="B321" s="39"/>
       <c r="C321" s="3">
         <v>43944</v>
       </c>
@@ -7442,8 +7451,8 @@
       <c r="I321" s="14"/>
     </row>
     <row r="322" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="40"/>
-      <c r="B322" s="36"/>
+      <c r="A322" s="36"/>
+      <c r="B322" s="39"/>
       <c r="C322" s="3">
         <v>43946</v>
       </c>
@@ -7462,8 +7471,8 @@
       <c r="I322" s="14"/>
     </row>
     <row r="323" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="40"/>
-      <c r="B323" s="36"/>
+      <c r="A323" s="36"/>
+      <c r="B323" s="39"/>
       <c r="C323" s="3">
         <v>43948</v>
       </c>
@@ -7482,8 +7491,8 @@
       <c r="I323" s="14"/>
     </row>
     <row r="324" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="40"/>
-      <c r="B324" s="37"/>
+      <c r="A324" s="36"/>
+      <c r="B324" s="40"/>
       <c r="C324" s="3">
         <v>43950</v>
       </c>
@@ -7502,7 +7511,7 @@
       <c r="I324" s="14"/>
     </row>
     <row r="325" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="52">
+      <c r="A325" s="35">
         <v>24</v>
       </c>
       <c r="B325" s="38" t="s">
@@ -7526,8 +7535,8 @@
       <c r="J325" s="23"/>
     </row>
     <row r="326" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="40"/>
-      <c r="B326" s="36"/>
+      <c r="A326" s="36"/>
+      <c r="B326" s="39"/>
       <c r="C326" s="18">
         <v>43926</v>
       </c>
@@ -7547,8 +7556,8 @@
       <c r="J326" s="23"/>
     </row>
     <row r="327" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="40"/>
-      <c r="B327" s="36"/>
+      <c r="A327" s="36"/>
+      <c r="B327" s="39"/>
       <c r="C327" s="18">
         <v>43928</v>
       </c>
@@ -7568,8 +7577,8 @@
       <c r="J327" s="23"/>
     </row>
     <row r="328" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="40"/>
-      <c r="B328" s="36"/>
+      <c r="A328" s="36"/>
+      <c r="B328" s="39"/>
       <c r="C328" s="18">
         <v>43930</v>
       </c>
@@ -7589,8 +7598,8 @@
       <c r="J328" s="23"/>
     </row>
     <row r="329" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="40"/>
-      <c r="B329" s="36"/>
+      <c r="A329" s="36"/>
+      <c r="B329" s="39"/>
       <c r="C329" s="18">
         <v>43932</v>
       </c>
@@ -7610,8 +7619,8 @@
       <c r="J329" s="23"/>
     </row>
     <row r="330" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="40"/>
-      <c r="B330" s="36"/>
+      <c r="A330" s="36"/>
+      <c r="B330" s="39"/>
       <c r="C330" s="18">
         <v>43934</v>
       </c>
@@ -7631,8 +7640,8 @@
       <c r="J330" s="23"/>
     </row>
     <row r="331" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="40"/>
-      <c r="B331" s="36"/>
+      <c r="A331" s="36"/>
+      <c r="B331" s="39"/>
       <c r="C331" s="18">
         <v>43936</v>
       </c>
@@ -7652,8 +7661,8 @@
       <c r="J331" s="25"/>
     </row>
     <row r="332" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="40"/>
-      <c r="B332" s="36"/>
+      <c r="A332" s="36"/>
+      <c r="B332" s="39"/>
       <c r="C332" s="18">
         <v>43938</v>
       </c>
@@ -7673,8 +7682,8 @@
       <c r="J332" s="25"/>
     </row>
     <row r="333" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="40"/>
-      <c r="B333" s="36"/>
+      <c r="A333" s="36"/>
+      <c r="B333" s="39"/>
       <c r="C333" s="18">
         <v>43940</v>
       </c>
@@ -7694,8 +7703,8 @@
       <c r="J333" s="25"/>
     </row>
     <row r="334" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="40"/>
-      <c r="B334" s="36"/>
+      <c r="A334" s="36"/>
+      <c r="B334" s="39"/>
       <c r="C334" s="18">
         <v>43942</v>
       </c>
@@ -7715,8 +7724,8 @@
       <c r="J334" s="25"/>
     </row>
     <row r="335" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="40"/>
-      <c r="B335" s="36"/>
+      <c r="A335" s="36"/>
+      <c r="B335" s="39"/>
       <c r="C335" s="18">
         <v>43944</v>
       </c>
@@ -7736,8 +7745,8 @@
       <c r="J335" s="25"/>
     </row>
     <row r="336" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="40"/>
-      <c r="B336" s="36"/>
+      <c r="A336" s="36"/>
+      <c r="B336" s="39"/>
       <c r="C336" s="18">
         <v>43946</v>
       </c>
@@ -7757,8 +7766,8 @@
       <c r="J336" s="25"/>
     </row>
     <row r="337" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="40"/>
-      <c r="B337" s="36"/>
+      <c r="A337" s="36"/>
+      <c r="B337" s="39"/>
       <c r="C337" s="18">
         <v>43948</v>
       </c>
@@ -7778,8 +7787,8 @@
       <c r="J337" s="25"/>
     </row>
     <row r="338" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="41"/>
-      <c r="B338" s="37"/>
+      <c r="A338" s="37"/>
+      <c r="B338" s="40"/>
       <c r="C338" s="18">
         <v>43950</v>
       </c>
@@ -8259,6 +8268,54 @@
     <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="B31:B44"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A142"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="B129:B142"/>
+    <mergeCell ref="B143:B156"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A157:A170"/>
+    <mergeCell ref="A171:A184"/>
+    <mergeCell ref="A185:A198"/>
+    <mergeCell ref="B157:B170"/>
+    <mergeCell ref="B171:B184"/>
+    <mergeCell ref="B185:B198"/>
+    <mergeCell ref="A199:A212"/>
+    <mergeCell ref="A213:A226"/>
+    <mergeCell ref="A227:A240"/>
+    <mergeCell ref="A311:A324"/>
+    <mergeCell ref="B311:B324"/>
+    <mergeCell ref="B255:B268"/>
+    <mergeCell ref="B269:B282"/>
+    <mergeCell ref="B199:B212"/>
+    <mergeCell ref="B213:B226"/>
+    <mergeCell ref="B227:B240"/>
+    <mergeCell ref="B241:B254"/>
     <mergeCell ref="A325:A338"/>
     <mergeCell ref="B325:B338"/>
     <mergeCell ref="A241:A254"/>
@@ -8268,54 +8325,6 @@
     <mergeCell ref="B283:B296"/>
     <mergeCell ref="A297:A310"/>
     <mergeCell ref="B297:B310"/>
-    <mergeCell ref="A199:A212"/>
-    <mergeCell ref="A213:A226"/>
-    <mergeCell ref="A227:A240"/>
-    <mergeCell ref="A311:A324"/>
-    <mergeCell ref="B311:B324"/>
-    <mergeCell ref="B143:B156"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="A157:A170"/>
-    <mergeCell ref="A171:A184"/>
-    <mergeCell ref="A185:A198"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A129:A142"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B87:B100"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="B129:B142"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="B31:B44"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B255:B268"/>
-    <mergeCell ref="B269:B282"/>
-    <mergeCell ref="B157:B170"/>
-    <mergeCell ref="B171:B184"/>
-    <mergeCell ref="B185:B198"/>
-    <mergeCell ref="B199:B212"/>
-    <mergeCell ref="B213:B226"/>
-    <mergeCell ref="B227:B240"/>
-    <mergeCell ref="B241:B254"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Module 1/#10 Case study/Check List CaseStudy C0320G1.xlsx
+++ b/Module 1/#10 Case study/Check List CaseStudy C0320G1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC TAP\PHAN MEM\JAVA\Module 1\#10 Case study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816BA97-D88A-43D4-BCE4-1C4B4FAD7CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116C4D2-87FD-4981-9277-49E2CACFB82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="36">
   <si>
     <t>Module</t>
   </si>
@@ -452,50 +452,50 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H286" sqref="H286"/>
+      <selection pane="bottomLeft" activeCell="C290" sqref="C290:H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -733,50 +733,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="52" t="s">
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="51"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="37"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
-        <v>1</v>
-      </c>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3">
@@ -797,8 +797,8 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="3">
         <v>43926</v>
       </c>
@@ -818,8 +818,8 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="3">
         <v>43928</v>
       </c>
@@ -839,8 +839,8 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="3">
         <v>43930</v>
       </c>
@@ -860,8 +860,8 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="3">
         <v>43932</v>
       </c>
@@ -881,8 +881,8 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="3">
         <v>43934</v>
       </c>
@@ -902,8 +902,8 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="3">
         <v>43936</v>
       </c>
@@ -923,8 +923,8 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="3">
         <v>43938</v>
       </c>
@@ -943,8 +943,8 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="3">
         <v>43940</v>
       </c>
@@ -964,8 +964,8 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="3">
         <v>43942</v>
       </c>
@@ -985,8 +985,8 @@
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="3">
         <v>43944</v>
       </c>
@@ -1006,8 +1006,8 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="3">
         <v>43946</v>
       </c>
@@ -1027,8 +1027,8 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="3">
         <v>43948</v>
       </c>
@@ -1048,8 +1048,8 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="3">
         <v>43950</v>
       </c>
@@ -1069,10 +1069,10 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46">
-        <v>2</v>
-      </c>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="44">
+        <v>2</v>
+      </c>
+      <c r="B17" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="18">
@@ -1093,8 +1093,8 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="18">
         <v>43926</v>
       </c>
@@ -1114,8 +1114,8 @@
       <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="18">
         <v>43928</v>
       </c>
@@ -1135,8 +1135,8 @@
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="18">
         <v>43930</v>
       </c>
@@ -1156,8 +1156,8 @@
       <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="18">
         <v>43932</v>
       </c>
@@ -1177,8 +1177,8 @@
       <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="18">
         <v>43934</v>
       </c>
@@ -1198,8 +1198,8 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="18">
         <v>43936</v>
       </c>
@@ -1219,8 +1219,8 @@
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="18">
         <v>43938</v>
       </c>
@@ -1240,8 +1240,8 @@
       <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="18">
         <v>43940</v>
       </c>
@@ -1261,8 +1261,8 @@
       <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="18">
         <v>43942</v>
       </c>
@@ -1282,8 +1282,8 @@
       <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="18">
         <v>43944</v>
       </c>
@@ -1303,8 +1303,8 @@
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="18">
         <v>43946</v>
       </c>
@@ -1324,8 +1324,8 @@
       <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="18">
         <v>43948</v>
       </c>
@@ -1345,8 +1345,8 @@
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="18">
         <v>43950</v>
       </c>
@@ -1366,10 +1366,10 @@
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="39">
         <v>3</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="3">
@@ -1390,8 +1390,8 @@
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="3">
         <v>43926</v>
       </c>
@@ -1411,8 +1411,8 @@
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="3">
         <v>43928</v>
       </c>
@@ -1432,8 +1432,8 @@
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="3">
         <v>43930</v>
       </c>
@@ -1453,8 +1453,8 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="39"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="3">
         <v>43932</v>
       </c>
@@ -1474,8 +1474,8 @@
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="39"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="3">
         <v>43934</v>
       </c>
@@ -1495,8 +1495,8 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="3">
         <v>43936</v>
       </c>
@@ -1516,8 +1516,8 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="3">
         <v>43938</v>
       </c>
@@ -1537,8 +1537,8 @@
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="3">
         <v>43940</v>
       </c>
@@ -1558,8 +1558,8 @@
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="3">
         <v>43942</v>
       </c>
@@ -1579,8 +1579,8 @@
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="39"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="3">
         <v>43944</v>
       </c>
@@ -1600,8 +1600,8 @@
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="39"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="3">
         <v>43946</v>
       </c>
@@ -1621,8 +1621,8 @@
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="39"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="3">
         <v>43948</v>
       </c>
@@ -1642,8 +1642,8 @@
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="3">
         <v>43950</v>
       </c>
@@ -1663,10 +1663,10 @@
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46">
+      <c r="A45" s="44">
         <v>4</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="18">
@@ -1687,8 +1687,8 @@
       <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="18">
         <v>43926</v>
       </c>
@@ -1708,8 +1708,8 @@
       <c r="J46" s="23"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="18">
         <v>43928</v>
       </c>
@@ -1729,8 +1729,8 @@
       <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="18">
         <v>43930</v>
       </c>
@@ -1750,8 +1750,8 @@
       <c r="J48" s="23"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="18">
         <v>43932</v>
       </c>
@@ -1771,8 +1771,8 @@
       <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="18">
         <v>43934</v>
       </c>
@@ -1792,8 +1792,8 @@
       <c r="J50" s="23"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="18">
         <v>43936</v>
       </c>
@@ -1813,8 +1813,8 @@
       <c r="J51" s="25"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="18">
         <v>43938</v>
       </c>
@@ -1834,8 +1834,8 @@
       <c r="J52" s="25"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="18">
         <v>43940</v>
       </c>
@@ -1855,8 +1855,8 @@
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="18">
         <v>43942</v>
       </c>
@@ -1876,8 +1876,8 @@
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="18">
         <v>43944</v>
       </c>
@@ -1897,8 +1897,8 @@
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="18">
         <v>43946</v>
       </c>
@@ -1918,8 +1918,8 @@
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="18">
         <v>43948</v>
       </c>
@@ -1939,8 +1939,8 @@
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="18">
         <v>43950</v>
       </c>
@@ -1960,10 +1960,10 @@
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44">
+      <c r="A59" s="39">
         <v>5</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="3">
@@ -1984,8 +1984,8 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="3">
         <v>43926</v>
       </c>
@@ -2005,8 +2005,8 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="3">
         <v>43928</v>
       </c>
@@ -2026,8 +2026,8 @@
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="3">
         <v>43930</v>
       </c>
@@ -2047,8 +2047,8 @@
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="3">
         <v>43932</v>
       </c>
@@ -2068,8 +2068,8 @@
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="3">
         <v>43934</v>
       </c>
@@ -2089,8 +2089,8 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="3">
         <v>43936</v>
       </c>
@@ -2110,8 +2110,8 @@
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="3">
         <v>43938</v>
       </c>
@@ -2131,8 +2131,8 @@
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="3">
         <v>43940</v>
       </c>
@@ -2152,8 +2152,8 @@
       <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="36"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="3">
         <v>43942</v>
       </c>
@@ -2173,8 +2173,8 @@
       <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="3">
         <v>43944</v>
       </c>
@@ -2194,8 +2194,8 @@
       <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="3">
         <v>43946</v>
       </c>
@@ -2215,8 +2215,8 @@
       <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="3">
         <v>43948</v>
       </c>
@@ -2236,8 +2236,8 @@
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="37"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="3">
         <v>43950</v>
       </c>
@@ -2257,10 +2257,10 @@
       <c r="J72" s="8"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="46">
+      <c r="A73" s="44">
         <v>6</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="18">
@@ -2281,8 +2281,8 @@
       <c r="J73" s="23"/>
     </row>
     <row r="74" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="18">
         <v>43926</v>
       </c>
@@ -2302,8 +2302,8 @@
       <c r="J74" s="23"/>
     </row>
     <row r="75" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="18">
         <v>43928</v>
       </c>
@@ -2323,8 +2323,8 @@
       <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
       <c r="C76" s="18">
         <v>43930</v>
       </c>
@@ -2344,8 +2344,8 @@
       <c r="J76" s="23"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="18">
         <v>43932</v>
       </c>
@@ -2365,8 +2365,8 @@
       <c r="J77" s="23"/>
     </row>
     <row r="78" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="18">
         <v>43934</v>
       </c>
@@ -2386,8 +2386,8 @@
       <c r="J78" s="23"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="36"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="18">
         <v>43936</v>
       </c>
@@ -2407,8 +2407,8 @@
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
-      <c r="B80" s="36"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="18">
         <v>43938</v>
       </c>
@@ -2428,8 +2428,8 @@
       <c r="J80" s="25"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="18">
         <v>43940</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="J81" s="25"/>
     </row>
     <row r="82" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="18">
         <v>43942</v>
       </c>
@@ -2470,8 +2470,8 @@
       <c r="J82" s="25"/>
     </row>
     <row r="83" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="18">
         <v>43944</v>
       </c>
@@ -2491,8 +2491,8 @@
       <c r="J83" s="25"/>
     </row>
     <row r="84" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
-      <c r="B84" s="36"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="18">
         <v>43946</v>
       </c>
@@ -2512,8 +2512,8 @@
       <c r="J84" s="25"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="36"/>
-      <c r="B85" s="36"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="18">
         <v>43948</v>
       </c>
@@ -2533,8 +2533,8 @@
       <c r="J85" s="25"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="37"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="18">
         <v>43950</v>
       </c>
@@ -2554,10 +2554,10 @@
       <c r="J86" s="25"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="44">
+      <c r="A87" s="39">
         <v>7</v>
       </c>
-      <c r="B87" s="45" t="s">
+      <c r="B87" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="3">
@@ -2578,8 +2578,8 @@
       <c r="J87" s="8"/>
     </row>
     <row r="88" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="36"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="3">
         <v>43926</v>
       </c>
@@ -2599,8 +2599,8 @@
       <c r="J88" s="8"/>
     </row>
     <row r="89" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="36"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="3">
         <v>43928</v>
       </c>
@@ -2620,8 +2620,8 @@
       <c r="J89" s="8"/>
     </row>
     <row r="90" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="36"/>
-      <c r="B90" s="36"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="3">
         <v>43930</v>
       </c>
@@ -2641,8 +2641,8 @@
       <c r="J90" s="8"/>
     </row>
     <row r="91" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="36"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="3">
         <v>43932</v>
       </c>
@@ -2662,8 +2662,8 @@
       <c r="J91" s="8"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="3">
         <v>43934</v>
       </c>
@@ -2683,8 +2683,8 @@
       <c r="J92" s="8"/>
     </row>
     <row r="93" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
-      <c r="B93" s="36"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="3">
         <v>43936</v>
       </c>
@@ -2704,8 +2704,8 @@
       <c r="J93" s="12"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="36"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="3">
         <v>43938</v>
       </c>
@@ -2725,8 +2725,8 @@
       <c r="J94" s="12"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
-      <c r="B95" s="36"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="3">
         <v>43940</v>
       </c>
@@ -2746,8 +2746,8 @@
       <c r="J95" s="12"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="36"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="3">
         <v>43942</v>
       </c>
@@ -2767,8 +2767,8 @@
       <c r="J96" s="12"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="36"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="3">
         <v>43944</v>
       </c>
@@ -2788,8 +2788,8 @@
       <c r="J97" s="12"/>
     </row>
     <row r="98" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36"/>
-      <c r="B98" s="36"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="3">
         <v>43946</v>
       </c>
@@ -2809,8 +2809,8 @@
       <c r="J98" s="12"/>
     </row>
     <row r="99" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
-      <c r="B99" s="36"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="40"/>
       <c r="C99" s="3">
         <v>43948</v>
       </c>
@@ -2830,8 +2830,8 @@
       <c r="J99" s="12"/>
     </row>
     <row r="100" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
-      <c r="B100" s="37"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="3">
         <v>43950</v>
       </c>
@@ -2851,10 +2851,10 @@
       <c r="J100" s="12"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="46">
+      <c r="A101" s="44">
         <v>8</v>
       </c>
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C101" s="18">
@@ -2875,8 +2875,8 @@
       <c r="J101" s="23"/>
     </row>
     <row r="102" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="36"/>
-      <c r="B102" s="36"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="40"/>
       <c r="C102" s="18">
         <v>43926</v>
       </c>
@@ -2896,8 +2896,8 @@
       <c r="J102" s="23"/>
     </row>
     <row r="103" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="40"/>
       <c r="C103" s="18">
         <v>43928</v>
       </c>
@@ -2917,8 +2917,8 @@
       <c r="J103" s="23"/>
     </row>
     <row r="104" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="36"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="40"/>
       <c r="C104" s="18">
         <v>43930</v>
       </c>
@@ -2938,8 +2938,8 @@
       <c r="J104" s="23"/>
     </row>
     <row r="105" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="36"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="18">
         <v>43932</v>
       </c>
@@ -2959,8 +2959,8 @@
       <c r="J105" s="23"/>
     </row>
     <row r="106" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="36"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
       <c r="C106" s="18">
         <v>43934</v>
       </c>
@@ -2980,8 +2980,8 @@
       <c r="J106" s="23"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="40"/>
       <c r="C107" s="18">
         <v>43936</v>
       </c>
@@ -3001,8 +3001,8 @@
       <c r="J107" s="25"/>
     </row>
     <row r="108" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="36"/>
-      <c r="B108" s="36"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="40"/>
       <c r="C108" s="18">
         <v>43938</v>
       </c>
@@ -3022,8 +3022,8 @@
       <c r="J108" s="25"/>
     </row>
     <row r="109" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36"/>
-      <c r="B109" s="36"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
       <c r="C109" s="18">
         <v>43940</v>
       </c>
@@ -3043,8 +3043,8 @@
       <c r="J109" s="25"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="36"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="40"/>
       <c r="C110" s="18">
         <v>43942</v>
       </c>
@@ -3064,8 +3064,8 @@
       <c r="J110" s="25"/>
     </row>
     <row r="111" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="36"/>
-      <c r="B111" s="36"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
       <c r="C111" s="18">
         <v>43944</v>
       </c>
@@ -3085,8 +3085,8 @@
       <c r="J111" s="25"/>
     </row>
     <row r="112" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
-      <c r="B112" s="36"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="40"/>
       <c r="C112" s="18">
         <v>43946</v>
       </c>
@@ -3106,8 +3106,8 @@
       <c r="J112" s="25"/>
     </row>
     <row r="113" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
-      <c r="B113" s="36"/>
+      <c r="A113" s="40"/>
+      <c r="B113" s="40"/>
       <c r="C113" s="18">
         <v>43948</v>
       </c>
@@ -3127,8 +3127,8 @@
       <c r="J113" s="25"/>
     </row>
     <row r="114" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="36"/>
-      <c r="B114" s="37"/>
+      <c r="A114" s="40"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="18">
         <v>43950</v>
       </c>
@@ -3148,10 +3148,10 @@
       <c r="J114" s="25"/>
     </row>
     <row r="115" spans="1:10" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="44">
+      <c r="A115" s="39">
         <v>9</v>
       </c>
-      <c r="B115" s="42" t="s">
+      <c r="B115" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="3">
@@ -3172,8 +3172,8 @@
       <c r="J115" s="8"/>
     </row>
     <row r="116" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="36"/>
-      <c r="B116" s="39"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="3">
         <v>43926</v>
       </c>
@@ -3193,8 +3193,8 @@
       <c r="J116" s="8"/>
     </row>
     <row r="117" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="36"/>
-      <c r="B117" s="39"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="3">
         <v>43928</v>
       </c>
@@ -3214,8 +3214,8 @@
       <c r="J117" s="8"/>
     </row>
     <row r="118" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="36"/>
-      <c r="B118" s="39"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="3">
         <v>43930</v>
       </c>
@@ -3235,8 +3235,8 @@
       <c r="J118" s="8"/>
     </row>
     <row r="119" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="36"/>
-      <c r="B119" s="39"/>
+      <c r="A119" s="40"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="3">
         <v>43932</v>
       </c>
@@ -3256,8 +3256,8 @@
       <c r="J119" s="8"/>
     </row>
     <row r="120" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="36"/>
-      <c r="B120" s="39"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="42"/>
       <c r="C120" s="3">
         <v>43934</v>
       </c>
@@ -3277,8 +3277,8 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="39"/>
+      <c r="A121" s="40"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="3">
         <v>43936</v>
       </c>
@@ -3298,8 +3298,8 @@
       <c r="J121" s="12"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="36"/>
-      <c r="B122" s="39"/>
+      <c r="A122" s="40"/>
+      <c r="B122" s="42"/>
       <c r="C122" s="3">
         <v>43938</v>
       </c>
@@ -3319,8 +3319,8 @@
       <c r="J122" s="12"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="36"/>
-      <c r="B123" s="39"/>
+      <c r="A123" s="40"/>
+      <c r="B123" s="42"/>
       <c r="C123" s="3">
         <v>43940</v>
       </c>
@@ -3340,8 +3340,8 @@
       <c r="J123" s="12"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="39"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="42"/>
       <c r="C124" s="3">
         <v>43942</v>
       </c>
@@ -3361,8 +3361,8 @@
       <c r="J124" s="12"/>
     </row>
     <row r="125" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="36"/>
-      <c r="B125" s="39"/>
+      <c r="A125" s="40"/>
+      <c r="B125" s="42"/>
       <c r="C125" s="3">
         <v>43944</v>
       </c>
@@ -3382,8 +3382,8 @@
       <c r="J125" s="12"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="36"/>
-      <c r="B126" s="39"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="42"/>
       <c r="C126" s="3">
         <v>43946</v>
       </c>
@@ -3403,8 +3403,8 @@
       <c r="J126" s="12"/>
     </row>
     <row r="127" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="36"/>
-      <c r="B127" s="39"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="42"/>
       <c r="C127" s="3">
         <v>43948</v>
       </c>
@@ -3424,8 +3424,8 @@
       <c r="J127" s="12"/>
     </row>
     <row r="128" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="36"/>
-      <c r="B128" s="40"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="43"/>
       <c r="C128" s="3">
         <v>43950</v>
       </c>
@@ -3445,10 +3445,10 @@
       <c r="J128" s="12"/>
     </row>
     <row r="129" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="46">
+      <c r="A129" s="44">
         <v>10</v>
       </c>
-      <c r="B129" s="43" t="s">
+      <c r="B129" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C129" s="18">
@@ -3469,8 +3469,8 @@
       <c r="J129" s="23"/>
     </row>
     <row r="130" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="36"/>
-      <c r="B130" s="36"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="40"/>
       <c r="C130" s="18">
         <v>43926</v>
       </c>
@@ -3490,8 +3490,8 @@
       <c r="J130" s="23"/>
     </row>
     <row r="131" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="36"/>
-      <c r="B131" s="36"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="40"/>
       <c r="C131" s="18">
         <v>43928</v>
       </c>
@@ -3511,8 +3511,8 @@
       <c r="J131" s="23"/>
     </row>
     <row r="132" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="36"/>
-      <c r="B132" s="36"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="40"/>
       <c r="C132" s="18">
         <v>43930</v>
       </c>
@@ -3532,8 +3532,8 @@
       <c r="J132" s="23"/>
     </row>
     <row r="133" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="36"/>
-      <c r="B133" s="36"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="40"/>
       <c r="C133" s="18">
         <v>43932</v>
       </c>
@@ -3553,8 +3553,8 @@
       <c r="J133" s="23"/>
     </row>
     <row r="134" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="36"/>
-      <c r="B134" s="36"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="40"/>
       <c r="C134" s="18">
         <v>43934</v>
       </c>
@@ -3574,8 +3574,8 @@
       <c r="J134" s="23"/>
     </row>
     <row r="135" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="36"/>
-      <c r="B135" s="36"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="40"/>
       <c r="C135" s="18">
         <v>43936</v>
       </c>
@@ -3595,8 +3595,8 @@
       <c r="J135" s="25"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="36"/>
-      <c r="B136" s="36"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="40"/>
       <c r="C136" s="18">
         <v>43938</v>
       </c>
@@ -3616,8 +3616,8 @@
       <c r="J136" s="25"/>
     </row>
     <row r="137" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="36"/>
-      <c r="B137" s="36"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="40"/>
       <c r="C137" s="18">
         <v>43940</v>
       </c>
@@ -3637,8 +3637,8 @@
       <c r="J137" s="25"/>
     </row>
     <row r="138" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
-      <c r="B138" s="36"/>
+      <c r="A138" s="40"/>
+      <c r="B138" s="40"/>
       <c r="C138" s="18">
         <v>43942</v>
       </c>
@@ -3658,8 +3658,8 @@
       <c r="J138" s="25"/>
     </row>
     <row r="139" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="36"/>
-      <c r="B139" s="36"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="40"/>
       <c r="C139" s="18">
         <v>43944</v>
       </c>
@@ -3679,8 +3679,8 @@
       <c r="J139" s="25"/>
     </row>
     <row r="140" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="36"/>
-      <c r="B140" s="36"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="40"/>
       <c r="C140" s="18">
         <v>43946</v>
       </c>
@@ -3700,8 +3700,8 @@
       <c r="J140" s="25"/>
     </row>
     <row r="141" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="36"/>
-      <c r="B141" s="36"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="40"/>
       <c r="C141" s="18">
         <v>43948</v>
       </c>
@@ -3721,8 +3721,8 @@
       <c r="J141" s="25"/>
     </row>
     <row r="142" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="36"/>
-      <c r="B142" s="37"/>
+      <c r="A142" s="40"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="18">
         <v>43950</v>
       </c>
@@ -3742,10 +3742,10 @@
       <c r="J142" s="25"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="44">
+      <c r="A143" s="39">
         <v>11</v>
       </c>
-      <c r="B143" s="45" t="s">
+      <c r="B143" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C143" s="3">
@@ -3765,8 +3765,8 @@
       <c r="I143" s="7"/>
     </row>
     <row r="144" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="36"/>
-      <c r="B144" s="36"/>
+      <c r="A144" s="40"/>
+      <c r="B144" s="40"/>
       <c r="C144" s="3">
         <v>43926</v>
       </c>
@@ -3785,8 +3785,8 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="36"/>
-      <c r="B145" s="36"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="40"/>
       <c r="C145" s="3">
         <v>43928</v>
       </c>
@@ -3805,8 +3805,8 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="36"/>
-      <c r="B146" s="36"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="40"/>
       <c r="C146" s="3">
         <v>43930</v>
       </c>
@@ -3825,8 +3825,8 @@
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="36"/>
-      <c r="B147" s="36"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="40"/>
       <c r="C147" s="3">
         <v>43932</v>
       </c>
@@ -3845,8 +3845,8 @@
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="36"/>
-      <c r="B148" s="36"/>
+      <c r="A148" s="40"/>
+      <c r="B148" s="40"/>
       <c r="C148" s="3">
         <v>43934</v>
       </c>
@@ -3865,8 +3865,8 @@
       <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="36"/>
-      <c r="B149" s="36"/>
+      <c r="A149" s="40"/>
+      <c r="B149" s="40"/>
       <c r="C149" s="3">
         <v>43936</v>
       </c>
@@ -3885,8 +3885,8 @@
       <c r="I149" s="6"/>
     </row>
     <row r="150" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="36"/>
-      <c r="B150" s="36"/>
+      <c r="A150" s="40"/>
+      <c r="B150" s="40"/>
       <c r="C150" s="3">
         <v>43938</v>
       </c>
@@ -3905,8 +3905,8 @@
       <c r="I150" s="6"/>
     </row>
     <row r="151" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="36"/>
-      <c r="B151" s="36"/>
+      <c r="A151" s="40"/>
+      <c r="B151" s="40"/>
       <c r="C151" s="3">
         <v>43940</v>
       </c>
@@ -3925,8 +3925,8 @@
       <c r="I151" s="6"/>
     </row>
     <row r="152" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="36"/>
-      <c r="B152" s="36"/>
+      <c r="A152" s="40"/>
+      <c r="B152" s="40"/>
       <c r="C152" s="3">
         <v>43942</v>
       </c>
@@ -3945,8 +3945,8 @@
       <c r="I152" s="14"/>
     </row>
     <row r="153" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="36"/>
-      <c r="B153" s="36"/>
+      <c r="A153" s="40"/>
+      <c r="B153" s="40"/>
       <c r="C153" s="3">
         <v>43944</v>
       </c>
@@ -3965,8 +3965,8 @@
       <c r="I153" s="14"/>
     </row>
     <row r="154" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="36"/>
-      <c r="B154" s="36"/>
+      <c r="A154" s="40"/>
+      <c r="B154" s="40"/>
       <c r="C154" s="3">
         <v>43946</v>
       </c>
@@ -3985,8 +3985,8 @@
       <c r="I154" s="14"/>
     </row>
     <row r="155" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="36"/>
-      <c r="B155" s="36"/>
+      <c r="A155" s="40"/>
+      <c r="B155" s="40"/>
       <c r="C155" s="3">
         <v>43948</v>
       </c>
@@ -4005,8 +4005,8 @@
       <c r="I155" s="14"/>
     </row>
     <row r="156" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="36"/>
-      <c r="B156" s="37"/>
+      <c r="A156" s="40"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="3">
         <v>43950</v>
       </c>
@@ -4025,10 +4025,10 @@
       <c r="I156" s="11"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="46">
+      <c r="A157" s="44">
         <v>12</v>
       </c>
-      <c r="B157" s="43" t="s">
+      <c r="B157" s="49" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="18">
@@ -4049,8 +4049,8 @@
       <c r="J157" s="23"/>
     </row>
     <row r="158" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="36"/>
-      <c r="B158" s="36"/>
+      <c r="A158" s="40"/>
+      <c r="B158" s="40"/>
       <c r="C158" s="18">
         <v>43926</v>
       </c>
@@ -4070,8 +4070,8 @@
       <c r="J158" s="23"/>
     </row>
     <row r="159" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="36"/>
-      <c r="B159" s="36"/>
+      <c r="A159" s="40"/>
+      <c r="B159" s="40"/>
       <c r="C159" s="18">
         <v>43928</v>
       </c>
@@ -4091,8 +4091,8 @@
       <c r="J159" s="23"/>
     </row>
     <row r="160" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="36"/>
-      <c r="B160" s="36"/>
+      <c r="A160" s="40"/>
+      <c r="B160" s="40"/>
       <c r="C160" s="18">
         <v>43930</v>
       </c>
@@ -4112,8 +4112,8 @@
       <c r="J160" s="23"/>
     </row>
     <row r="161" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="36"/>
-      <c r="B161" s="36"/>
+      <c r="A161" s="40"/>
+      <c r="B161" s="40"/>
       <c r="C161" s="18">
         <v>43932</v>
       </c>
@@ -4133,8 +4133,8 @@
       <c r="J161" s="23"/>
     </row>
     <row r="162" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="36"/>
-      <c r="B162" s="36"/>
+      <c r="A162" s="40"/>
+      <c r="B162" s="40"/>
       <c r="C162" s="18">
         <v>43934</v>
       </c>
@@ -4154,8 +4154,8 @@
       <c r="J162" s="23"/>
     </row>
     <row r="163" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="36"/>
-      <c r="B163" s="36"/>
+      <c r="A163" s="40"/>
+      <c r="B163" s="40"/>
       <c r="C163" s="18">
         <v>43936</v>
       </c>
@@ -4175,8 +4175,8 @@
       <c r="J163" s="25"/>
     </row>
     <row r="164" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="36"/>
-      <c r="B164" s="36"/>
+      <c r="A164" s="40"/>
+      <c r="B164" s="40"/>
       <c r="C164" s="18">
         <v>43938</v>
       </c>
@@ -4196,8 +4196,8 @@
       <c r="J164" s="25"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="36"/>
-      <c r="B165" s="36"/>
+      <c r="A165" s="40"/>
+      <c r="B165" s="40"/>
       <c r="C165" s="18">
         <v>43940</v>
       </c>
@@ -4217,8 +4217,8 @@
       <c r="J165" s="25"/>
     </row>
     <row r="166" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="36"/>
-      <c r="B166" s="36"/>
+      <c r="A166" s="40"/>
+      <c r="B166" s="40"/>
       <c r="C166" s="18">
         <v>43942</v>
       </c>
@@ -4238,8 +4238,8 @@
       <c r="J166" s="25"/>
     </row>
     <row r="167" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="36"/>
-      <c r="B167" s="36"/>
+      <c r="A167" s="40"/>
+      <c r="B167" s="40"/>
       <c r="C167" s="18">
         <v>43944</v>
       </c>
@@ -4259,8 +4259,8 @@
       <c r="J167" s="25"/>
     </row>
     <row r="168" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="36"/>
-      <c r="B168" s="36"/>
+      <c r="A168" s="40"/>
+      <c r="B168" s="40"/>
       <c r="C168" s="18">
         <v>43946</v>
       </c>
@@ -4280,8 +4280,8 @@
       <c r="J168" s="25"/>
     </row>
     <row r="169" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="36"/>
-      <c r="B169" s="36"/>
+      <c r="A169" s="40"/>
+      <c r="B169" s="40"/>
       <c r="C169" s="18">
         <v>43948</v>
       </c>
@@ -4301,8 +4301,8 @@
       <c r="J169" s="25"/>
     </row>
     <row r="170" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="36"/>
-      <c r="B170" s="37"/>
+      <c r="A170" s="40"/>
+      <c r="B170" s="36"/>
       <c r="C170" s="18">
         <v>43950</v>
       </c>
@@ -4322,10 +4322,10 @@
       <c r="J170" s="25"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="44">
+      <c r="A171" s="39">
         <v>13</v>
       </c>
-      <c r="B171" s="45" t="s">
+      <c r="B171" s="50" t="s">
         <v>23</v>
       </c>
       <c r="C171" s="3">
@@ -4345,8 +4345,8 @@
       <c r="I171" s="7"/>
     </row>
     <row r="172" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="36"/>
-      <c r="B172" s="36"/>
+      <c r="A172" s="40"/>
+      <c r="B172" s="40"/>
       <c r="C172" s="3">
         <v>43926</v>
       </c>
@@ -4365,8 +4365,8 @@
       <c r="I172" s="6"/>
     </row>
     <row r="173" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="36"/>
-      <c r="B173" s="36"/>
+      <c r="A173" s="40"/>
+      <c r="B173" s="40"/>
       <c r="C173" s="3">
         <v>43928</v>
       </c>
@@ -4385,8 +4385,8 @@
       <c r="I173" s="6"/>
     </row>
     <row r="174" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="36"/>
-      <c r="B174" s="36"/>
+      <c r="A174" s="40"/>
+      <c r="B174" s="40"/>
       <c r="C174" s="3">
         <v>43930</v>
       </c>
@@ -4405,8 +4405,8 @@
       <c r="I174" s="6"/>
     </row>
     <row r="175" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="36"/>
-      <c r="B175" s="36"/>
+      <c r="A175" s="40"/>
+      <c r="B175" s="40"/>
       <c r="C175" s="3">
         <v>43932</v>
       </c>
@@ -4425,8 +4425,8 @@
       <c r="I175" s="6"/>
     </row>
     <row r="176" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="36"/>
-      <c r="B176" s="36"/>
+      <c r="A176" s="40"/>
+      <c r="B176" s="40"/>
       <c r="C176" s="3">
         <v>43934</v>
       </c>
@@ -4445,8 +4445,8 @@
       <c r="I176" s="6"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="36"/>
-      <c r="B177" s="36"/>
+      <c r="A177" s="40"/>
+      <c r="B177" s="40"/>
       <c r="C177" s="3">
         <v>43936</v>
       </c>
@@ -4465,8 +4465,8 @@
       <c r="I177" s="6"/>
     </row>
     <row r="178" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="36"/>
-      <c r="B178" s="36"/>
+      <c r="A178" s="40"/>
+      <c r="B178" s="40"/>
       <c r="C178" s="3">
         <v>43938</v>
       </c>
@@ -4485,8 +4485,8 @@
       <c r="I178" s="6"/>
     </row>
     <row r="179" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="36"/>
-      <c r="B179" s="36"/>
+      <c r="A179" s="40"/>
+      <c r="B179" s="40"/>
       <c r="C179" s="3">
         <v>43940</v>
       </c>
@@ -4505,8 +4505,8 @@
       <c r="I179" s="11"/>
     </row>
     <row r="180" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="36"/>
-      <c r="B180" s="36"/>
+      <c r="A180" s="40"/>
+      <c r="B180" s="40"/>
       <c r="C180" s="3">
         <v>43942</v>
       </c>
@@ -4525,8 +4525,8 @@
       <c r="I180" s="14"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="36"/>
-      <c r="B181" s="36"/>
+      <c r="A181" s="40"/>
+      <c r="B181" s="40"/>
       <c r="C181" s="3">
         <v>43944</v>
       </c>
@@ -4545,8 +4545,8 @@
       <c r="I181" s="14"/>
     </row>
     <row r="182" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="36"/>
-      <c r="B182" s="36"/>
+      <c r="A182" s="40"/>
+      <c r="B182" s="40"/>
       <c r="C182" s="3">
         <v>43946</v>
       </c>
@@ -4565,8 +4565,8 @@
       <c r="I182" s="14"/>
     </row>
     <row r="183" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="36"/>
-      <c r="B183" s="36"/>
+      <c r="A183" s="40"/>
+      <c r="B183" s="40"/>
       <c r="C183" s="3">
         <v>43948</v>
       </c>
@@ -4585,8 +4585,8 @@
       <c r="I183" s="14"/>
     </row>
     <row r="184" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="36"/>
-      <c r="B184" s="37"/>
+      <c r="A184" s="40"/>
+      <c r="B184" s="36"/>
       <c r="C184" s="3">
         <v>43950</v>
       </c>
@@ -4605,10 +4605,10 @@
       <c r="I184" s="14"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="46">
+      <c r="A185" s="44">
         <v>14</v>
       </c>
-      <c r="B185" s="43" t="s">
+      <c r="B185" s="49" t="s">
         <v>24</v>
       </c>
       <c r="C185" s="18">
@@ -4629,8 +4629,8 @@
       <c r="J185" s="23"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="36"/>
-      <c r="B186" s="36"/>
+      <c r="A186" s="40"/>
+      <c r="B186" s="40"/>
       <c r="C186" s="18">
         <v>43926</v>
       </c>
@@ -4650,8 +4650,8 @@
       <c r="J186" s="23"/>
     </row>
     <row r="187" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="36"/>
-      <c r="B187" s="36"/>
+      <c r="A187" s="40"/>
+      <c r="B187" s="40"/>
       <c r="C187" s="18">
         <v>43928</v>
       </c>
@@ -4671,8 +4671,8 @@
       <c r="J187" s="23"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="36"/>
-      <c r="B188" s="36"/>
+      <c r="A188" s="40"/>
+      <c r="B188" s="40"/>
       <c r="C188" s="18">
         <v>43930</v>
       </c>
@@ -4692,8 +4692,8 @@
       <c r="J188" s="23"/>
     </row>
     <row r="189" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="36"/>
-      <c r="B189" s="36"/>
+      <c r="A189" s="40"/>
+      <c r="B189" s="40"/>
       <c r="C189" s="18">
         <v>43932</v>
       </c>
@@ -4713,8 +4713,8 @@
       <c r="J189" s="23"/>
     </row>
     <row r="190" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="36"/>
-      <c r="B190" s="36"/>
+      <c r="A190" s="40"/>
+      <c r="B190" s="40"/>
       <c r="C190" s="18">
         <v>43934</v>
       </c>
@@ -4734,8 +4734,8 @@
       <c r="J190" s="23"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="36"/>
-      <c r="B191" s="36"/>
+      <c r="A191" s="40"/>
+      <c r="B191" s="40"/>
       <c r="C191" s="18">
         <v>43936</v>
       </c>
@@ -4755,8 +4755,8 @@
       <c r="J191" s="25"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="36"/>
-      <c r="B192" s="36"/>
+      <c r="A192" s="40"/>
+      <c r="B192" s="40"/>
       <c r="C192" s="18">
         <v>43938</v>
       </c>
@@ -4776,8 +4776,8 @@
       <c r="J192" s="25"/>
     </row>
     <row r="193" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="36"/>
-      <c r="B193" s="36"/>
+      <c r="A193" s="40"/>
+      <c r="B193" s="40"/>
       <c r="C193" s="18">
         <v>43940</v>
       </c>
@@ -4797,8 +4797,8 @@
       <c r="J193" s="25"/>
     </row>
     <row r="194" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="36"/>
-      <c r="B194" s="36"/>
+      <c r="A194" s="40"/>
+      <c r="B194" s="40"/>
       <c r="C194" s="18">
         <v>43942</v>
       </c>
@@ -4818,8 +4818,8 @@
       <c r="J194" s="25"/>
     </row>
     <row r="195" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="36"/>
-      <c r="B195" s="36"/>
+      <c r="A195" s="40"/>
+      <c r="B195" s="40"/>
       <c r="C195" s="18">
         <v>43944</v>
       </c>
@@ -4839,8 +4839,8 @@
       <c r="J195" s="25"/>
     </row>
     <row r="196" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="36"/>
-      <c r="B196" s="36"/>
+      <c r="A196" s="40"/>
+      <c r="B196" s="40"/>
       <c r="C196" s="18">
         <v>43946</v>
       </c>
@@ -4860,8 +4860,8 @@
       <c r="J196" s="25"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="36"/>
-      <c r="B197" s="36"/>
+      <c r="A197" s="40"/>
+      <c r="B197" s="40"/>
       <c r="C197" s="18">
         <v>43948</v>
       </c>
@@ -4881,8 +4881,8 @@
       <c r="J197" s="25"/>
     </row>
     <row r="198" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="36"/>
-      <c r="B198" s="37"/>
+      <c r="A198" s="40"/>
+      <c r="B198" s="36"/>
       <c r="C198" s="18">
         <v>43950</v>
       </c>
@@ -4902,10 +4902,10 @@
       <c r="J198" s="25"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="44">
+      <c r="A199" s="39">
         <v>15</v>
       </c>
-      <c r="B199" s="42" t="s">
+      <c r="B199" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C199" s="3">
@@ -4925,8 +4925,8 @@
       <c r="I199" s="7"/>
     </row>
     <row r="200" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="36"/>
-      <c r="B200" s="39"/>
+      <c r="A200" s="40"/>
+      <c r="B200" s="42"/>
       <c r="C200" s="3">
         <v>43926</v>
       </c>
@@ -4945,8 +4945,8 @@
       <c r="I200" s="6"/>
     </row>
     <row r="201" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="36"/>
-      <c r="B201" s="39"/>
+      <c r="A201" s="40"/>
+      <c r="B201" s="42"/>
       <c r="C201" s="3">
         <v>43928</v>
       </c>
@@ -4965,8 +4965,8 @@
       <c r="I201" s="6"/>
     </row>
     <row r="202" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="36"/>
-      <c r="B202" s="39"/>
+      <c r="A202" s="40"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="3">
         <v>43930</v>
       </c>
@@ -4985,8 +4985,8 @@
       <c r="I202" s="6"/>
     </row>
     <row r="203" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="36"/>
-      <c r="B203" s="39"/>
+      <c r="A203" s="40"/>
+      <c r="B203" s="42"/>
       <c r="C203" s="3">
         <v>43932</v>
       </c>
@@ -5005,8 +5005,8 @@
       <c r="I203" s="6"/>
     </row>
     <row r="204" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="36"/>
-      <c r="B204" s="39"/>
+      <c r="A204" s="40"/>
+      <c r="B204" s="42"/>
       <c r="C204" s="3">
         <v>43934</v>
       </c>
@@ -5025,8 +5025,8 @@
       <c r="I204" s="6"/>
     </row>
     <row r="205" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="36"/>
-      <c r="B205" s="39"/>
+      <c r="A205" s="40"/>
+      <c r="B205" s="42"/>
       <c r="C205" s="3">
         <v>43936</v>
       </c>
@@ -5045,8 +5045,8 @@
       <c r="I205" s="6"/>
     </row>
     <row r="206" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="36"/>
-      <c r="B206" s="39"/>
+      <c r="A206" s="40"/>
+      <c r="B206" s="42"/>
       <c r="C206" s="3">
         <v>43938</v>
       </c>
@@ -5065,8 +5065,8 @@
       <c r="I206" s="6"/>
     </row>
     <row r="207" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="36"/>
-      <c r="B207" s="39"/>
+      <c r="A207" s="40"/>
+      <c r="B207" s="42"/>
       <c r="C207" s="3">
         <v>43940</v>
       </c>
@@ -5085,8 +5085,8 @@
       <c r="I207" s="11"/>
     </row>
     <row r="208" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="36"/>
-      <c r="B208" s="39"/>
+      <c r="A208" s="40"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="3">
         <v>43942</v>
       </c>
@@ -5105,8 +5105,8 @@
       <c r="I208" s="14"/>
     </row>
     <row r="209" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="36"/>
-      <c r="B209" s="39"/>
+      <c r="A209" s="40"/>
+      <c r="B209" s="42"/>
       <c r="C209" s="3">
         <v>43944</v>
       </c>
@@ -5125,8 +5125,8 @@
       <c r="I209" s="14"/>
     </row>
     <row r="210" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="36"/>
-      <c r="B210" s="39"/>
+      <c r="A210" s="40"/>
+      <c r="B210" s="42"/>
       <c r="C210" s="3">
         <v>43946</v>
       </c>
@@ -5145,8 +5145,8 @@
       <c r="I210" s="14"/>
     </row>
     <row r="211" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="36"/>
-      <c r="B211" s="39"/>
+      <c r="A211" s="40"/>
+      <c r="B211" s="42"/>
       <c r="C211" s="3">
         <v>43948</v>
       </c>
@@ -5165,8 +5165,8 @@
       <c r="I211" s="14"/>
     </row>
     <row r="212" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="36"/>
-      <c r="B212" s="40"/>
+      <c r="A212" s="40"/>
+      <c r="B212" s="43"/>
       <c r="C212" s="3">
         <v>43950</v>
       </c>
@@ -5185,10 +5185,10 @@
       <c r="I212" s="14"/>
     </row>
     <row r="213" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="35">
+      <c r="A213" s="51">
         <v>16</v>
       </c>
-      <c r="B213" s="38" t="s">
+      <c r="B213" s="53" t="s">
         <v>26</v>
       </c>
       <c r="C213" s="18">
@@ -5209,8 +5209,8 @@
       <c r="J213" s="23"/>
     </row>
     <row r="214" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="36"/>
-      <c r="B214" s="39"/>
+      <c r="A214" s="40"/>
+      <c r="B214" s="42"/>
       <c r="C214" s="18">
         <v>43926</v>
       </c>
@@ -5230,8 +5230,8 @@
       <c r="J214" s="23"/>
     </row>
     <row r="215" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="36"/>
-      <c r="B215" s="39"/>
+      <c r="A215" s="40"/>
+      <c r="B215" s="42"/>
       <c r="C215" s="18">
         <v>43928</v>
       </c>
@@ -5251,8 +5251,8 @@
       <c r="J215" s="23"/>
     </row>
     <row r="216" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="36"/>
-      <c r="B216" s="39"/>
+      <c r="A216" s="40"/>
+      <c r="B216" s="42"/>
       <c r="C216" s="18">
         <v>43930</v>
       </c>
@@ -5272,8 +5272,8 @@
       <c r="J216" s="23"/>
     </row>
     <row r="217" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="36"/>
-      <c r="B217" s="39"/>
+      <c r="A217" s="40"/>
+      <c r="B217" s="42"/>
       <c r="C217" s="18">
         <v>43932</v>
       </c>
@@ -5293,8 +5293,8 @@
       <c r="J217" s="23"/>
     </row>
     <row r="218" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="36"/>
-      <c r="B218" s="39"/>
+      <c r="A218" s="40"/>
+      <c r="B218" s="42"/>
       <c r="C218" s="18">
         <v>43934</v>
       </c>
@@ -5314,8 +5314,8 @@
       <c r="J218" s="23"/>
     </row>
     <row r="219" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="36"/>
-      <c r="B219" s="39"/>
+      <c r="A219" s="40"/>
+      <c r="B219" s="42"/>
       <c r="C219" s="18">
         <v>43936</v>
       </c>
@@ -5335,8 +5335,8 @@
       <c r="J219" s="25"/>
     </row>
     <row r="220" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="36"/>
-      <c r="B220" s="39"/>
+      <c r="A220" s="40"/>
+      <c r="B220" s="42"/>
       <c r="C220" s="18">
         <v>43938</v>
       </c>
@@ -5356,8 +5356,8 @@
       <c r="J220" s="25"/>
     </row>
     <row r="221" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="36"/>
-      <c r="B221" s="39"/>
+      <c r="A221" s="40"/>
+      <c r="B221" s="42"/>
       <c r="C221" s="18">
         <v>43940</v>
       </c>
@@ -5377,8 +5377,8 @@
       <c r="J221" s="25"/>
     </row>
     <row r="222" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="36"/>
-      <c r="B222" s="39"/>
+      <c r="A222" s="40"/>
+      <c r="B222" s="42"/>
       <c r="C222" s="18">
         <v>43942</v>
       </c>
@@ -5398,8 +5398,8 @@
       <c r="J222" s="25"/>
     </row>
     <row r="223" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="36"/>
-      <c r="B223" s="39"/>
+      <c r="A223" s="40"/>
+      <c r="B223" s="42"/>
       <c r="C223" s="18">
         <v>43944</v>
       </c>
@@ -5419,8 +5419,8 @@
       <c r="J223" s="25"/>
     </row>
     <row r="224" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="36"/>
-      <c r="B224" s="39"/>
+      <c r="A224" s="40"/>
+      <c r="B224" s="42"/>
       <c r="C224" s="18">
         <v>43946</v>
       </c>
@@ -5440,8 +5440,8 @@
       <c r="J224" s="25"/>
     </row>
     <row r="225" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="36"/>
-      <c r="B225" s="39"/>
+      <c r="A225" s="40"/>
+      <c r="B225" s="42"/>
       <c r="C225" s="18">
         <v>43948</v>
       </c>
@@ -5461,8 +5461,8 @@
       <c r="J225" s="25"/>
     </row>
     <row r="226" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="36"/>
-      <c r="B226" s="40"/>
+      <c r="A226" s="40"/>
+      <c r="B226" s="43"/>
       <c r="C226" s="18">
         <v>43950</v>
       </c>
@@ -5482,10 +5482,10 @@
       <c r="J226" s="25"/>
     </row>
     <row r="227" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="41">
+      <c r="A227" s="52">
         <v>17</v>
       </c>
-      <c r="B227" s="45" t="s">
+      <c r="B227" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C227" s="3">
@@ -5505,8 +5505,8 @@
       <c r="I227" s="7"/>
     </row>
     <row r="228" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="36"/>
-      <c r="B228" s="36"/>
+      <c r="A228" s="40"/>
+      <c r="B228" s="40"/>
       <c r="C228" s="3">
         <v>43926</v>
       </c>
@@ -5525,8 +5525,8 @@
       <c r="I228" s="6"/>
     </row>
     <row r="229" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="36"/>
-      <c r="B229" s="36"/>
+      <c r="A229" s="40"/>
+      <c r="B229" s="40"/>
       <c r="C229" s="3">
         <v>43928</v>
       </c>
@@ -5545,8 +5545,8 @@
       <c r="I229" s="6"/>
     </row>
     <row r="230" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="36"/>
-      <c r="B230" s="36"/>
+      <c r="A230" s="40"/>
+      <c r="B230" s="40"/>
       <c r="C230" s="3">
         <v>43930</v>
       </c>
@@ -5565,8 +5565,8 @@
       <c r="I230" s="6"/>
     </row>
     <row r="231" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="36"/>
-      <c r="B231" s="36"/>
+      <c r="A231" s="40"/>
+      <c r="B231" s="40"/>
       <c r="C231" s="3">
         <v>43932</v>
       </c>
@@ -5585,8 +5585,8 @@
       <c r="I231" s="6"/>
     </row>
     <row r="232" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="36"/>
-      <c r="B232" s="36"/>
+      <c r="A232" s="40"/>
+      <c r="B232" s="40"/>
       <c r="C232" s="3">
         <v>43934</v>
       </c>
@@ -5605,8 +5605,8 @@
       <c r="I232" s="6"/>
     </row>
     <row r="233" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="36"/>
-      <c r="B233" s="36"/>
+      <c r="A233" s="40"/>
+      <c r="B233" s="40"/>
       <c r="C233" s="3">
         <v>43936</v>
       </c>
@@ -5625,8 +5625,8 @@
       <c r="I233" s="6"/>
     </row>
     <row r="234" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="36"/>
-      <c r="B234" s="36"/>
+      <c r="A234" s="40"/>
+      <c r="B234" s="40"/>
       <c r="C234" s="3">
         <v>43938</v>
       </c>
@@ -5645,8 +5645,8 @@
       <c r="I234" s="6"/>
     </row>
     <row r="235" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="36"/>
-      <c r="B235" s="36"/>
+      <c r="A235" s="40"/>
+      <c r="B235" s="40"/>
       <c r="C235" s="3">
         <v>43940</v>
       </c>
@@ -5665,8 +5665,8 @@
       <c r="I235" s="11"/>
     </row>
     <row r="236" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="36"/>
-      <c r="B236" s="36"/>
+      <c r="A236" s="40"/>
+      <c r="B236" s="40"/>
       <c r="C236" s="3">
         <v>43942</v>
       </c>
@@ -5685,8 +5685,8 @@
       <c r="I236" s="14"/>
     </row>
     <row r="237" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="36"/>
-      <c r="B237" s="36"/>
+      <c r="A237" s="40"/>
+      <c r="B237" s="40"/>
       <c r="C237" s="3">
         <v>43944</v>
       </c>
@@ -5705,8 +5705,8 @@
       <c r="I237" s="14"/>
     </row>
     <row r="238" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="36"/>
-      <c r="B238" s="36"/>
+      <c r="A238" s="40"/>
+      <c r="B238" s="40"/>
       <c r="C238" s="3">
         <v>43946</v>
       </c>
@@ -5725,8 +5725,8 @@
       <c r="I238" s="14"/>
     </row>
     <row r="239" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="36"/>
-      <c r="B239" s="36"/>
+      <c r="A239" s="40"/>
+      <c r="B239" s="40"/>
       <c r="C239" s="3">
         <v>43948</v>
       </c>
@@ -5745,8 +5745,8 @@
       <c r="I239" s="14"/>
     </row>
     <row r="240" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="36"/>
-      <c r="B240" s="37"/>
+      <c r="A240" s="40"/>
+      <c r="B240" s="36"/>
       <c r="C240" s="3">
         <v>43950</v>
       </c>
@@ -5765,10 +5765,10 @@
       <c r="I240" s="14"/>
     </row>
     <row r="241" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="35">
+      <c r="A241" s="51">
         <v>18</v>
       </c>
-      <c r="B241" s="38" t="s">
+      <c r="B241" s="53" t="s">
         <v>28</v>
       </c>
       <c r="C241" s="18">
@@ -5789,8 +5789,8 @@
       <c r="J241" s="23"/>
     </row>
     <row r="242" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="36"/>
-      <c r="B242" s="39"/>
+      <c r="A242" s="40"/>
+      <c r="B242" s="42"/>
       <c r="C242" s="18">
         <v>43926</v>
       </c>
@@ -5810,8 +5810,8 @@
       <c r="J242" s="23"/>
     </row>
     <row r="243" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="36"/>
-      <c r="B243" s="39"/>
+      <c r="A243" s="40"/>
+      <c r="B243" s="42"/>
       <c r="C243" s="18">
         <v>43928</v>
       </c>
@@ -5831,8 +5831,8 @@
       <c r="J243" s="23"/>
     </row>
     <row r="244" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="36"/>
-      <c r="B244" s="39"/>
+      <c r="A244" s="40"/>
+      <c r="B244" s="42"/>
       <c r="C244" s="18">
         <v>43930</v>
       </c>
@@ -5852,8 +5852,8 @@
       <c r="J244" s="23"/>
     </row>
     <row r="245" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="36"/>
-      <c r="B245" s="39"/>
+      <c r="A245" s="40"/>
+      <c r="B245" s="42"/>
       <c r="C245" s="18">
         <v>43932</v>
       </c>
@@ -5873,8 +5873,8 @@
       <c r="J245" s="23"/>
     </row>
     <row r="246" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="36"/>
-      <c r="B246" s="39"/>
+      <c r="A246" s="40"/>
+      <c r="B246" s="42"/>
       <c r="C246" s="18">
         <v>43934</v>
       </c>
@@ -5894,8 +5894,8 @@
       <c r="J246" s="23"/>
     </row>
     <row r="247" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="36"/>
-      <c r="B247" s="39"/>
+      <c r="A247" s="40"/>
+      <c r="B247" s="42"/>
       <c r="C247" s="18">
         <v>43936</v>
       </c>
@@ -5915,8 +5915,8 @@
       <c r="J247" s="25"/>
     </row>
     <row r="248" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="36"/>
-      <c r="B248" s="39"/>
+      <c r="A248" s="40"/>
+      <c r="B248" s="42"/>
       <c r="C248" s="18">
         <v>43938</v>
       </c>
@@ -5936,8 +5936,8 @@
       <c r="J248" s="25"/>
     </row>
     <row r="249" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="36"/>
-      <c r="B249" s="39"/>
+      <c r="A249" s="40"/>
+      <c r="B249" s="42"/>
       <c r="C249" s="18">
         <v>43940</v>
       </c>
@@ -5957,8 +5957,8 @@
       <c r="J249" s="25"/>
     </row>
     <row r="250" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="36"/>
-      <c r="B250" s="39"/>
+      <c r="A250" s="40"/>
+      <c r="B250" s="42"/>
       <c r="C250" s="18">
         <v>43942</v>
       </c>
@@ -5978,8 +5978,8 @@
       <c r="J250" s="25"/>
     </row>
     <row r="251" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="36"/>
-      <c r="B251" s="39"/>
+      <c r="A251" s="40"/>
+      <c r="B251" s="42"/>
       <c r="C251" s="18">
         <v>43944</v>
       </c>
@@ -5999,8 +5999,8 @@
       <c r="J251" s="25"/>
     </row>
     <row r="252" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="36"/>
-      <c r="B252" s="39"/>
+      <c r="A252" s="40"/>
+      <c r="B252" s="42"/>
       <c r="C252" s="18">
         <v>43946</v>
       </c>
@@ -6020,8 +6020,8 @@
       <c r="J252" s="25"/>
     </row>
     <row r="253" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="36"/>
-      <c r="B253" s="39"/>
+      <c r="A253" s="40"/>
+      <c r="B253" s="42"/>
       <c r="C253" s="18">
         <v>43948</v>
       </c>
@@ -6041,8 +6041,8 @@
       <c r="J253" s="25"/>
     </row>
     <row r="254" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="36"/>
-      <c r="B254" s="40"/>
+      <c r="A254" s="40"/>
+      <c r="B254" s="43"/>
       <c r="C254" s="18">
         <v>43950</v>
       </c>
@@ -6062,10 +6062,10 @@
       <c r="J254" s="25"/>
     </row>
     <row r="255" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="41">
+      <c r="A255" s="52">
         <v>19</v>
       </c>
-      <c r="B255" s="42" t="s">
+      <c r="B255" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C255" s="3">
@@ -6085,8 +6085,8 @@
       <c r="I255" s="7"/>
     </row>
     <row r="256" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="36"/>
-      <c r="B256" s="39"/>
+      <c r="A256" s="40"/>
+      <c r="B256" s="42"/>
       <c r="C256" s="3">
         <v>43926</v>
       </c>
@@ -6105,8 +6105,8 @@
       <c r="I256" s="6"/>
     </row>
     <row r="257" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="36"/>
-      <c r="B257" s="39"/>
+      <c r="A257" s="40"/>
+      <c r="B257" s="42"/>
       <c r="C257" s="3">
         <v>43928</v>
       </c>
@@ -6125,8 +6125,8 @@
       <c r="I257" s="6"/>
     </row>
     <row r="258" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="36"/>
-      <c r="B258" s="39"/>
+      <c r="A258" s="40"/>
+      <c r="B258" s="42"/>
       <c r="C258" s="3">
         <v>43930</v>
       </c>
@@ -6145,8 +6145,8 @@
       <c r="I258" s="6"/>
     </row>
     <row r="259" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="36"/>
-      <c r="B259" s="39"/>
+      <c r="A259" s="40"/>
+      <c r="B259" s="42"/>
       <c r="C259" s="3">
         <v>43932</v>
       </c>
@@ -6165,8 +6165,8 @@
       <c r="I259" s="6"/>
     </row>
     <row r="260" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="36"/>
-      <c r="B260" s="39"/>
+      <c r="A260" s="40"/>
+      <c r="B260" s="42"/>
       <c r="C260" s="3">
         <v>43934</v>
       </c>
@@ -6185,8 +6185,8 @@
       <c r="I260" s="6"/>
     </row>
     <row r="261" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="36"/>
-      <c r="B261" s="39"/>
+      <c r="A261" s="40"/>
+      <c r="B261" s="42"/>
       <c r="C261" s="3">
         <v>43936</v>
       </c>
@@ -6205,8 +6205,8 @@
       <c r="I261" s="6"/>
     </row>
     <row r="262" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="36"/>
-      <c r="B262" s="39"/>
+      <c r="A262" s="40"/>
+      <c r="B262" s="42"/>
       <c r="C262" s="3">
         <v>43938</v>
       </c>
@@ -6225,8 +6225,8 @@
       <c r="I262" s="6"/>
     </row>
     <row r="263" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="36"/>
-      <c r="B263" s="39"/>
+      <c r="A263" s="40"/>
+      <c r="B263" s="42"/>
       <c r="C263" s="3">
         <v>43940</v>
       </c>
@@ -6245,8 +6245,8 @@
       <c r="I263" s="11"/>
     </row>
     <row r="264" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="36"/>
-      <c r="B264" s="39"/>
+      <c r="A264" s="40"/>
+      <c r="B264" s="42"/>
       <c r="C264" s="3">
         <v>43942</v>
       </c>
@@ -6265,8 +6265,8 @@
       <c r="I264" s="14"/>
     </row>
     <row r="265" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="36"/>
-      <c r="B265" s="39"/>
+      <c r="A265" s="40"/>
+      <c r="B265" s="42"/>
       <c r="C265" s="3">
         <v>43944</v>
       </c>
@@ -6285,8 +6285,8 @@
       <c r="I265" s="14"/>
     </row>
     <row r="266" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="36"/>
-      <c r="B266" s="39"/>
+      <c r="A266" s="40"/>
+      <c r="B266" s="42"/>
       <c r="C266" s="3">
         <v>43946</v>
       </c>
@@ -6305,8 +6305,8 @@
       <c r="I266" s="14"/>
     </row>
     <row r="267" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="36"/>
-      <c r="B267" s="39"/>
+      <c r="A267" s="40"/>
+      <c r="B267" s="42"/>
       <c r="C267" s="3">
         <v>43948</v>
       </c>
@@ -6325,8 +6325,8 @@
       <c r="I267" s="14"/>
     </row>
     <row r="268" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="36"/>
-      <c r="B268" s="40"/>
+      <c r="A268" s="40"/>
+      <c r="B268" s="43"/>
       <c r="C268" s="3">
         <v>43950</v>
       </c>
@@ -6345,10 +6345,10 @@
       <c r="I268" s="14"/>
     </row>
     <row r="269" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="35">
+      <c r="A269" s="51">
         <v>20</v>
       </c>
-      <c r="B269" s="38" t="s">
+      <c r="B269" s="53" t="s">
         <v>30</v>
       </c>
       <c r="C269" s="18">
@@ -6369,8 +6369,8 @@
       <c r="J269" s="23"/>
     </row>
     <row r="270" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="36"/>
-      <c r="B270" s="39"/>
+      <c r="A270" s="40"/>
+      <c r="B270" s="42"/>
       <c r="C270" s="18">
         <v>43926</v>
       </c>
@@ -6390,8 +6390,8 @@
       <c r="J270" s="23"/>
     </row>
     <row r="271" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="36"/>
-      <c r="B271" s="39"/>
+      <c r="A271" s="40"/>
+      <c r="B271" s="42"/>
       <c r="C271" s="18">
         <v>43928</v>
       </c>
@@ -6411,8 +6411,8 @@
       <c r="J271" s="23"/>
     </row>
     <row r="272" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="36"/>
-      <c r="B272" s="39"/>
+      <c r="A272" s="40"/>
+      <c r="B272" s="42"/>
       <c r="C272" s="18">
         <v>43930</v>
       </c>
@@ -6432,8 +6432,8 @@
       <c r="J272" s="23"/>
     </row>
     <row r="273" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="36"/>
-      <c r="B273" s="39"/>
+      <c r="A273" s="40"/>
+      <c r="B273" s="42"/>
       <c r="C273" s="18">
         <v>43932</v>
       </c>
@@ -6453,8 +6453,8 @@
       <c r="J273" s="23"/>
     </row>
     <row r="274" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="36"/>
-      <c r="B274" s="39"/>
+      <c r="A274" s="40"/>
+      <c r="B274" s="42"/>
       <c r="C274" s="18">
         <v>43934</v>
       </c>
@@ -6474,8 +6474,8 @@
       <c r="J274" s="23"/>
     </row>
     <row r="275" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="36"/>
-      <c r="B275" s="39"/>
+      <c r="A275" s="40"/>
+      <c r="B275" s="42"/>
       <c r="C275" s="18">
         <v>43936</v>
       </c>
@@ -6495,8 +6495,8 @@
       <c r="J275" s="25"/>
     </row>
     <row r="276" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="36"/>
-      <c r="B276" s="39"/>
+      <c r="A276" s="40"/>
+      <c r="B276" s="42"/>
       <c r="C276" s="18">
         <v>43938</v>
       </c>
@@ -6516,8 +6516,8 @@
       <c r="J276" s="25"/>
     </row>
     <row r="277" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="36"/>
-      <c r="B277" s="39"/>
+      <c r="A277" s="40"/>
+      <c r="B277" s="42"/>
       <c r="C277" s="18">
         <v>43940</v>
       </c>
@@ -6537,8 +6537,8 @@
       <c r="J277" s="25"/>
     </row>
     <row r="278" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="36"/>
-      <c r="B278" s="39"/>
+      <c r="A278" s="40"/>
+      <c r="B278" s="42"/>
       <c r="C278" s="18">
         <v>43942</v>
       </c>
@@ -6558,8 +6558,8 @@
       <c r="J278" s="25"/>
     </row>
     <row r="279" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="36"/>
-      <c r="B279" s="39"/>
+      <c r="A279" s="40"/>
+      <c r="B279" s="42"/>
       <c r="C279" s="18">
         <v>43944</v>
       </c>
@@ -6579,8 +6579,8 @@
       <c r="J279" s="25"/>
     </row>
     <row r="280" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="36"/>
-      <c r="B280" s="39"/>
+      <c r="A280" s="40"/>
+      <c r="B280" s="42"/>
       <c r="C280" s="18">
         <v>43946</v>
       </c>
@@ -6600,8 +6600,8 @@
       <c r="J280" s="25"/>
     </row>
     <row r="281" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="36"/>
-      <c r="B281" s="39"/>
+      <c r="A281" s="40"/>
+      <c r="B281" s="42"/>
       <c r="C281" s="18">
         <v>43948</v>
       </c>
@@ -6621,8 +6621,8 @@
       <c r="J281" s="25"/>
     </row>
     <row r="282" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="36"/>
-      <c r="B282" s="40"/>
+      <c r="A282" s="40"/>
+      <c r="B282" s="43"/>
       <c r="C282" s="18">
         <v>43950</v>
       </c>
@@ -6642,10 +6642,10 @@
       <c r="J282" s="25"/>
     </row>
     <row r="283" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="41">
+      <c r="A283" s="52">
         <v>21</v>
       </c>
-      <c r="B283" s="42" t="s">
+      <c r="B283" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C283" s="3">
@@ -6667,8 +6667,8 @@
       <c r="I283" s="7"/>
     </row>
     <row r="284" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="36"/>
-      <c r="B284" s="39"/>
+      <c r="A284" s="40"/>
+      <c r="B284" s="42"/>
       <c r="C284" s="3">
         <v>43926</v>
       </c>
@@ -6689,8 +6689,8 @@
       <c r="I284" s="6"/>
     </row>
     <row r="285" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="36"/>
-      <c r="B285" s="39"/>
+      <c r="A285" s="40"/>
+      <c r="B285" s="42"/>
       <c r="C285" s="3">
         <v>43928</v>
       </c>
@@ -6711,8 +6711,8 @@
       <c r="I285" s="6"/>
     </row>
     <row r="286" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="36"/>
-      <c r="B286" s="39"/>
+      <c r="A286" s="40"/>
+      <c r="B286" s="42"/>
       <c r="C286" s="3">
         <v>43930</v>
       </c>
@@ -6727,12 +6727,14 @@
         <v>2</v>
       </c>
       <c r="G286" s="4"/>
-      <c r="H286" s="6"/>
+      <c r="H286" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I286" s="6"/>
     </row>
     <row r="287" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="36"/>
-      <c r="B287" s="39"/>
+      <c r="A287" s="40"/>
+      <c r="B287" s="42"/>
       <c r="C287" s="3">
         <v>43932</v>
       </c>
@@ -6747,12 +6749,14 @@
         <v>3</v>
       </c>
       <c r="G287" s="4"/>
-      <c r="H287" s="6"/>
+      <c r="H287" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I287" s="6"/>
     </row>
     <row r="288" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="36"/>
-      <c r="B288" s="39"/>
+      <c r="A288" s="40"/>
+      <c r="B288" s="42"/>
       <c r="C288" s="3">
         <v>43934</v>
       </c>
@@ -6767,12 +6771,14 @@
         <v>1</v>
       </c>
       <c r="G288" s="10"/>
-      <c r="H288" s="6"/>
+      <c r="H288" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I288" s="6"/>
     </row>
     <row r="289" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="36"/>
-      <c r="B289" s="39"/>
+      <c r="A289" s="40"/>
+      <c r="B289" s="42"/>
       <c r="C289" s="3">
         <v>43936</v>
       </c>
@@ -6787,12 +6793,14 @@
         <v>2</v>
       </c>
       <c r="G289" s="4"/>
-      <c r="H289" s="6"/>
+      <c r="H289" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I289" s="6"/>
     </row>
     <row r="290" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="36"/>
-      <c r="B290" s="39"/>
+      <c r="A290" s="40"/>
+      <c r="B290" s="42"/>
       <c r="C290" s="3">
         <v>43938</v>
       </c>
@@ -6811,8 +6819,8 @@
       <c r="I290" s="6"/>
     </row>
     <row r="291" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="36"/>
-      <c r="B291" s="39"/>
+      <c r="A291" s="40"/>
+      <c r="B291" s="42"/>
       <c r="C291" s="3">
         <v>43940</v>
       </c>
@@ -6831,8 +6839,8 @@
       <c r="I291" s="11"/>
     </row>
     <row r="292" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="36"/>
-      <c r="B292" s="39"/>
+      <c r="A292" s="40"/>
+      <c r="B292" s="42"/>
       <c r="C292" s="3">
         <v>43942</v>
       </c>
@@ -6851,8 +6859,8 @@
       <c r="I292" s="14"/>
     </row>
     <row r="293" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="36"/>
-      <c r="B293" s="39"/>
+      <c r="A293" s="40"/>
+      <c r="B293" s="42"/>
       <c r="C293" s="3">
         <v>43944</v>
       </c>
@@ -6871,8 +6879,8 @@
       <c r="I293" s="14"/>
     </row>
     <row r="294" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="36"/>
-      <c r="B294" s="39"/>
+      <c r="A294" s="40"/>
+      <c r="B294" s="42"/>
       <c r="C294" s="3">
         <v>43946</v>
       </c>
@@ -6891,8 +6899,8 @@
       <c r="I294" s="14"/>
     </row>
     <row r="295" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="36"/>
-      <c r="B295" s="39"/>
+      <c r="A295" s="40"/>
+      <c r="B295" s="42"/>
       <c r="C295" s="3">
         <v>43948</v>
       </c>
@@ -6911,8 +6919,8 @@
       <c r="I295" s="14"/>
     </row>
     <row r="296" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="36"/>
-      <c r="B296" s="40"/>
+      <c r="A296" s="40"/>
+      <c r="B296" s="43"/>
       <c r="C296" s="3">
         <v>43950</v>
       </c>
@@ -6931,10 +6939,10 @@
       <c r="I296" s="14"/>
     </row>
     <row r="297" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="35">
+      <c r="A297" s="51">
         <v>22</v>
       </c>
-      <c r="B297" s="43" t="s">
+      <c r="B297" s="49" t="s">
         <v>32</v>
       </c>
       <c r="C297" s="18">
@@ -6955,8 +6963,8 @@
       <c r="J297" s="23"/>
     </row>
     <row r="298" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="36"/>
-      <c r="B298" s="36"/>
+      <c r="A298" s="40"/>
+      <c r="B298" s="40"/>
       <c r="C298" s="18">
         <v>43926</v>
       </c>
@@ -6976,8 +6984,8 @@
       <c r="J298" s="23"/>
     </row>
     <row r="299" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="36"/>
-      <c r="B299" s="36"/>
+      <c r="A299" s="40"/>
+      <c r="B299" s="40"/>
       <c r="C299" s="18">
         <v>43928</v>
       </c>
@@ -6997,8 +7005,8 @@
       <c r="J299" s="23"/>
     </row>
     <row r="300" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="36"/>
-      <c r="B300" s="36"/>
+      <c r="A300" s="40"/>
+      <c r="B300" s="40"/>
       <c r="C300" s="18">
         <v>43930</v>
       </c>
@@ -7018,8 +7026,8 @@
       <c r="J300" s="23"/>
     </row>
     <row r="301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="36"/>
-      <c r="B301" s="36"/>
+      <c r="A301" s="40"/>
+      <c r="B301" s="40"/>
       <c r="C301" s="18">
         <v>43932</v>
       </c>
@@ -7039,8 +7047,8 @@
       <c r="J301" s="23"/>
     </row>
     <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="36"/>
-      <c r="B302" s="36"/>
+      <c r="A302" s="40"/>
+      <c r="B302" s="40"/>
       <c r="C302" s="18">
         <v>43934</v>
       </c>
@@ -7060,8 +7068,8 @@
       <c r="J302" s="23"/>
     </row>
     <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="36"/>
-      <c r="B303" s="36"/>
+      <c r="A303" s="40"/>
+      <c r="B303" s="40"/>
       <c r="C303" s="18">
         <v>43936</v>
       </c>
@@ -7081,8 +7089,8 @@
       <c r="J303" s="25"/>
     </row>
     <row r="304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="36"/>
-      <c r="B304" s="36"/>
+      <c r="A304" s="40"/>
+      <c r="B304" s="40"/>
       <c r="C304" s="18">
         <v>43938</v>
       </c>
@@ -7102,8 +7110,8 @@
       <c r="J304" s="25"/>
     </row>
     <row r="305" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="36"/>
-      <c r="B305" s="36"/>
+      <c r="A305" s="40"/>
+      <c r="B305" s="40"/>
       <c r="C305" s="18">
         <v>43940</v>
       </c>
@@ -7123,8 +7131,8 @@
       <c r="J305" s="25"/>
     </row>
     <row r="306" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="36"/>
-      <c r="B306" s="36"/>
+      <c r="A306" s="40"/>
+      <c r="B306" s="40"/>
       <c r="C306" s="18">
         <v>43942</v>
       </c>
@@ -7144,8 +7152,8 @@
       <c r="J306" s="25"/>
     </row>
     <row r="307" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="36"/>
-      <c r="B307" s="36"/>
+      <c r="A307" s="40"/>
+      <c r="B307" s="40"/>
       <c r="C307" s="18">
         <v>43944</v>
       </c>
@@ -7165,8 +7173,8 @@
       <c r="J307" s="25"/>
     </row>
     <row r="308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="36"/>
-      <c r="B308" s="36"/>
+      <c r="A308" s="40"/>
+      <c r="B308" s="40"/>
       <c r="C308" s="18">
         <v>43946</v>
       </c>
@@ -7186,8 +7194,8 @@
       <c r="J308" s="25"/>
     </row>
     <row r="309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="36"/>
-      <c r="B309" s="36"/>
+      <c r="A309" s="40"/>
+      <c r="B309" s="40"/>
       <c r="C309" s="18">
         <v>43948</v>
       </c>
@@ -7207,8 +7215,8 @@
       <c r="J309" s="25"/>
     </row>
     <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="36"/>
-      <c r="B310" s="37"/>
+      <c r="A310" s="40"/>
+      <c r="B310" s="36"/>
       <c r="C310" s="18">
         <v>43950</v>
       </c>
@@ -7228,10 +7236,10 @@
       <c r="J310" s="25"/>
     </row>
     <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="41">
+      <c r="A311" s="52">
         <v>23</v>
       </c>
-      <c r="B311" s="42" t="s">
+      <c r="B311" s="48" t="s">
         <v>33</v>
       </c>
       <c r="C311" s="3">
@@ -7251,8 +7259,8 @@
       <c r="I311" s="7"/>
     </row>
     <row r="312" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="36"/>
-      <c r="B312" s="39"/>
+      <c r="A312" s="40"/>
+      <c r="B312" s="42"/>
       <c r="C312" s="3">
         <v>43926</v>
       </c>
@@ -7271,8 +7279,8 @@
       <c r="I312" s="6"/>
     </row>
     <row r="313" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="36"/>
-      <c r="B313" s="39"/>
+      <c r="A313" s="40"/>
+      <c r="B313" s="42"/>
       <c r="C313" s="3">
         <v>43928</v>
       </c>
@@ -7291,8 +7299,8 @@
       <c r="I313" s="6"/>
     </row>
     <row r="314" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="36"/>
-      <c r="B314" s="39"/>
+      <c r="A314" s="40"/>
+      <c r="B314" s="42"/>
       <c r="C314" s="3">
         <v>43930</v>
       </c>
@@ -7311,8 +7319,8 @@
       <c r="I314" s="6"/>
     </row>
     <row r="315" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="36"/>
-      <c r="B315" s="39"/>
+      <c r="A315" s="40"/>
+      <c r="B315" s="42"/>
       <c r="C315" s="3">
         <v>43932</v>
       </c>
@@ -7331,8 +7339,8 @@
       <c r="I315" s="6"/>
     </row>
     <row r="316" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="36"/>
-      <c r="B316" s="39"/>
+      <c r="A316" s="40"/>
+      <c r="B316" s="42"/>
       <c r="C316" s="3">
         <v>43934</v>
       </c>
@@ -7351,8 +7359,8 @@
       <c r="I316" s="6"/>
     </row>
     <row r="317" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="36"/>
-      <c r="B317" s="39"/>
+      <c r="A317" s="40"/>
+      <c r="B317" s="42"/>
       <c r="C317" s="3">
         <v>43936</v>
       </c>
@@ -7371,8 +7379,8 @@
       <c r="I317" s="6"/>
     </row>
     <row r="318" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="36"/>
-      <c r="B318" s="39"/>
+      <c r="A318" s="40"/>
+      <c r="B318" s="42"/>
       <c r="C318" s="3">
         <v>43938</v>
       </c>
@@ -7391,8 +7399,8 @@
       <c r="I318" s="6"/>
     </row>
     <row r="319" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="36"/>
-      <c r="B319" s="39"/>
+      <c r="A319" s="40"/>
+      <c r="B319" s="42"/>
       <c r="C319" s="3">
         <v>43940</v>
       </c>
@@ -7411,8 +7419,8 @@
       <c r="I319" s="11"/>
     </row>
     <row r="320" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="36"/>
-      <c r="B320" s="39"/>
+      <c r="A320" s="40"/>
+      <c r="B320" s="42"/>
       <c r="C320" s="3">
         <v>43942</v>
       </c>
@@ -7431,8 +7439,8 @@
       <c r="I320" s="14"/>
     </row>
     <row r="321" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="36"/>
-      <c r="B321" s="39"/>
+      <c r="A321" s="40"/>
+      <c r="B321" s="42"/>
       <c r="C321" s="3">
         <v>43944</v>
       </c>
@@ -7451,8 +7459,8 @@
       <c r="I321" s="14"/>
     </row>
     <row r="322" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="36"/>
-      <c r="B322" s="39"/>
+      <c r="A322" s="40"/>
+      <c r="B322" s="42"/>
       <c r="C322" s="3">
         <v>43946</v>
       </c>
@@ -7471,8 +7479,8 @@
       <c r="I322" s="14"/>
     </row>
     <row r="323" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="36"/>
-      <c r="B323" s="39"/>
+      <c r="A323" s="40"/>
+      <c r="B323" s="42"/>
       <c r="C323" s="3">
         <v>43948</v>
       </c>
@@ -7491,8 +7499,8 @@
       <c r="I323" s="14"/>
     </row>
     <row r="324" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="36"/>
-      <c r="B324" s="40"/>
+      <c r="A324" s="40"/>
+      <c r="B324" s="43"/>
       <c r="C324" s="3">
         <v>43950</v>
       </c>
@@ -7511,10 +7519,10 @@
       <c r="I324" s="14"/>
     </row>
     <row r="325" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="35">
+      <c r="A325" s="51">
         <v>24</v>
       </c>
-      <c r="B325" s="38" t="s">
+      <c r="B325" s="53" t="s">
         <v>34</v>
       </c>
       <c r="C325" s="18">
@@ -7535,8 +7543,8 @@
       <c r="J325" s="23"/>
     </row>
     <row r="326" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="36"/>
-      <c r="B326" s="39"/>
+      <c r="A326" s="40"/>
+      <c r="B326" s="42"/>
       <c r="C326" s="18">
         <v>43926</v>
       </c>
@@ -7556,8 +7564,8 @@
       <c r="J326" s="23"/>
     </row>
     <row r="327" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="36"/>
-      <c r="B327" s="39"/>
+      <c r="A327" s="40"/>
+      <c r="B327" s="42"/>
       <c r="C327" s="18">
         <v>43928</v>
       </c>
@@ -7577,8 +7585,8 @@
       <c r="J327" s="23"/>
     </row>
     <row r="328" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="36"/>
-      <c r="B328" s="39"/>
+      <c r="A328" s="40"/>
+      <c r="B328" s="42"/>
       <c r="C328" s="18">
         <v>43930</v>
       </c>
@@ -7598,8 +7606,8 @@
       <c r="J328" s="23"/>
     </row>
     <row r="329" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="36"/>
-      <c r="B329" s="39"/>
+      <c r="A329" s="40"/>
+      <c r="B329" s="42"/>
       <c r="C329" s="18">
         <v>43932</v>
       </c>
@@ -7619,8 +7627,8 @@
       <c r="J329" s="23"/>
     </row>
     <row r="330" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="36"/>
-      <c r="B330" s="39"/>
+      <c r="A330" s="40"/>
+      <c r="B330" s="42"/>
       <c r="C330" s="18">
         <v>43934</v>
       </c>
@@ -7640,8 +7648,8 @@
       <c r="J330" s="23"/>
     </row>
     <row r="331" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="36"/>
-      <c r="B331" s="39"/>
+      <c r="A331" s="40"/>
+      <c r="B331" s="42"/>
       <c r="C331" s="18">
         <v>43936</v>
       </c>
@@ -7661,8 +7669,8 @@
       <c r="J331" s="25"/>
     </row>
     <row r="332" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="36"/>
-      <c r="B332" s="39"/>
+      <c r="A332" s="40"/>
+      <c r="B332" s="42"/>
       <c r="C332" s="18">
         <v>43938</v>
       </c>
@@ -7682,8 +7690,8 @@
       <c r="J332" s="25"/>
     </row>
     <row r="333" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="36"/>
-      <c r="B333" s="39"/>
+      <c r="A333" s="40"/>
+      <c r="B333" s="42"/>
       <c r="C333" s="18">
         <v>43940</v>
       </c>
@@ -7703,8 +7711,8 @@
       <c r="J333" s="25"/>
     </row>
     <row r="334" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="36"/>
-      <c r="B334" s="39"/>
+      <c r="A334" s="40"/>
+      <c r="B334" s="42"/>
       <c r="C334" s="18">
         <v>43942</v>
       </c>
@@ -7724,8 +7732,8 @@
       <c r="J334" s="25"/>
     </row>
     <row r="335" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="36"/>
-      <c r="B335" s="39"/>
+      <c r="A335" s="40"/>
+      <c r="B335" s="42"/>
       <c r="C335" s="18">
         <v>43944</v>
       </c>
@@ -7745,8 +7753,8 @@
       <c r="J335" s="25"/>
     </row>
     <row r="336" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="36"/>
-      <c r="B336" s="39"/>
+      <c r="A336" s="40"/>
+      <c r="B336" s="42"/>
       <c r="C336" s="18">
         <v>43946</v>
       </c>
@@ -7766,8 +7774,8 @@
       <c r="J336" s="25"/>
     </row>
     <row r="337" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="36"/>
-      <c r="B337" s="39"/>
+      <c r="A337" s="40"/>
+      <c r="B337" s="42"/>
       <c r="C337" s="18">
         <v>43948</v>
       </c>
@@ -7787,8 +7795,8 @@
       <c r="J337" s="25"/>
     </row>
     <row r="338" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="37"/>
-      <c r="B338" s="40"/>
+      <c r="A338" s="36"/>
+      <c r="B338" s="43"/>
       <c r="C338" s="18">
         <v>43950</v>
       </c>
@@ -8268,43 +8276,15 @@
     <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="B31:B44"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A129:A142"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B87:B100"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="B129:B142"/>
-    <mergeCell ref="B143:B156"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="A157:A170"/>
-    <mergeCell ref="A171:A184"/>
-    <mergeCell ref="A185:A198"/>
-    <mergeCell ref="B157:B170"/>
-    <mergeCell ref="B171:B184"/>
-    <mergeCell ref="B185:B198"/>
+    <mergeCell ref="A325:A338"/>
+    <mergeCell ref="B325:B338"/>
+    <mergeCell ref="A241:A254"/>
+    <mergeCell ref="A255:A268"/>
+    <mergeCell ref="A269:A282"/>
+    <mergeCell ref="A283:A296"/>
+    <mergeCell ref="B283:B296"/>
+    <mergeCell ref="A297:A310"/>
+    <mergeCell ref="B297:B310"/>
     <mergeCell ref="A199:A212"/>
     <mergeCell ref="A213:A226"/>
     <mergeCell ref="A227:A240"/>
@@ -8316,15 +8296,43 @@
     <mergeCell ref="B213:B226"/>
     <mergeCell ref="B227:B240"/>
     <mergeCell ref="B241:B254"/>
-    <mergeCell ref="A325:A338"/>
-    <mergeCell ref="B325:B338"/>
-    <mergeCell ref="A241:A254"/>
-    <mergeCell ref="A255:A268"/>
-    <mergeCell ref="A269:A282"/>
-    <mergeCell ref="A283:A296"/>
-    <mergeCell ref="B283:B296"/>
-    <mergeCell ref="A297:A310"/>
-    <mergeCell ref="B297:B310"/>
+    <mergeCell ref="B143:B156"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A157:A170"/>
+    <mergeCell ref="A171:A184"/>
+    <mergeCell ref="A185:A198"/>
+    <mergeCell ref="B157:B170"/>
+    <mergeCell ref="B171:B184"/>
+    <mergeCell ref="B185:B198"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A142"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="B129:B142"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="B31:B44"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Module 1/#10 Case study/Check List CaseStudy C0320G1.xlsx
+++ b/Module 1/#10 Case study/Check List CaseStudy C0320G1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC TAP\PHAN MEM\JAVA\Module 1\#10 Case study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116C4D2-87FD-4981-9277-49E2CACFB82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160EDD26-5684-4384-9B7C-F5CAF94D1317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="36">
   <si>
     <t>Module</t>
   </si>
@@ -452,50 +452,50 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C290" sqref="C290:H290"/>
+      <selection pane="bottomLeft" activeCell="H291" sqref="H291:H292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -733,50 +733,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="35"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
-        <v>1</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="44">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3">
@@ -797,8 +797,8 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="3">
         <v>43926</v>
       </c>
@@ -818,8 +818,8 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="3">
         <v>43928</v>
       </c>
@@ -839,8 +839,8 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3">
         <v>43930</v>
       </c>
@@ -860,8 +860,8 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="3">
         <v>43932</v>
       </c>
@@ -881,8 +881,8 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="3">
         <v>43934</v>
       </c>
@@ -902,8 +902,8 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="3">
         <v>43936</v>
       </c>
@@ -923,8 +923,8 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="3">
         <v>43938</v>
       </c>
@@ -943,8 +943,8 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="3">
         <v>43940</v>
       </c>
@@ -964,8 +964,8 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="3">
         <v>43942</v>
       </c>
@@ -985,8 +985,8 @@
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="3">
         <v>43944</v>
       </c>
@@ -1006,8 +1006,8 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="3">
         <v>43946</v>
       </c>
@@ -1027,8 +1027,8 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="3">
         <v>43948</v>
       </c>
@@ -1048,8 +1048,8 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="3">
         <v>43950</v>
       </c>
@@ -1069,10 +1069,10 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
-        <v>2</v>
-      </c>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="46">
+        <v>2</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="18">
@@ -1093,8 +1093,8 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="18">
         <v>43926</v>
       </c>
@@ -1114,8 +1114,8 @@
       <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="18">
         <v>43928</v>
       </c>
@@ -1135,8 +1135,8 @@
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="18">
         <v>43930</v>
       </c>
@@ -1156,8 +1156,8 @@
       <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="18">
         <v>43932</v>
       </c>
@@ -1177,8 +1177,8 @@
       <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="18">
         <v>43934</v>
       </c>
@@ -1198,8 +1198,8 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="18">
         <v>43936</v>
       </c>
@@ -1219,8 +1219,8 @@
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="18">
         <v>43938</v>
       </c>
@@ -1240,8 +1240,8 @@
       <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="18">
         <v>43940</v>
       </c>
@@ -1261,8 +1261,8 @@
       <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="18">
         <v>43942</v>
       </c>
@@ -1282,8 +1282,8 @@
       <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="18">
         <v>43944</v>
       </c>
@@ -1303,8 +1303,8 @@
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="18">
         <v>43946</v>
       </c>
@@ -1324,8 +1324,8 @@
       <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="18">
         <v>43948</v>
       </c>
@@ -1345,8 +1345,8 @@
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="18">
         <v>43950</v>
       </c>
@@ -1366,10 +1366,10 @@
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+      <c r="A31" s="44">
         <v>3</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="42" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="3">
@@ -1390,8 +1390,8 @@
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="3">
         <v>43926</v>
       </c>
@@ -1411,8 +1411,8 @@
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="3">
         <v>43928</v>
       </c>
@@ -1432,8 +1432,8 @@
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="3">
         <v>43930</v>
       </c>
@@ -1453,8 +1453,8 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="3">
         <v>43932</v>
       </c>
@@ -1474,8 +1474,8 @@
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="3">
         <v>43934</v>
       </c>
@@ -1495,8 +1495,8 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="3">
         <v>43936</v>
       </c>
@@ -1516,8 +1516,8 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="3">
         <v>43938</v>
       </c>
@@ -1537,8 +1537,8 @@
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="42"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="3">
         <v>43940</v>
       </c>
@@ -1558,8 +1558,8 @@
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="3">
         <v>43942</v>
       </c>
@@ -1579,8 +1579,8 @@
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="42"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="3">
         <v>43944</v>
       </c>
@@ -1600,8 +1600,8 @@
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="42"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="3">
         <v>43946</v>
       </c>
@@ -1621,8 +1621,8 @@
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="42"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="3">
         <v>43948</v>
       </c>
@@ -1642,8 +1642,8 @@
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="3">
         <v>43950</v>
       </c>
@@ -1663,10 +1663,10 @@
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44">
+      <c r="A45" s="46">
         <v>4</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="18">
@@ -1687,8 +1687,8 @@
       <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="18">
         <v>43926</v>
       </c>
@@ -1708,8 +1708,8 @@
       <c r="J46" s="23"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="18">
         <v>43928</v>
       </c>
@@ -1729,8 +1729,8 @@
       <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="18">
         <v>43930</v>
       </c>
@@ -1750,8 +1750,8 @@
       <c r="J48" s="23"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="18">
         <v>43932</v>
       </c>
@@ -1771,8 +1771,8 @@
       <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="18">
         <v>43934</v>
       </c>
@@ -1792,8 +1792,8 @@
       <c r="J50" s="23"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="18">
         <v>43936</v>
       </c>
@@ -1813,8 +1813,8 @@
       <c r="J51" s="25"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="18">
         <v>43938</v>
       </c>
@@ -1834,8 +1834,8 @@
       <c r="J52" s="25"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="18">
         <v>43940</v>
       </c>
@@ -1855,8 +1855,8 @@
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="18">
         <v>43942</v>
       </c>
@@ -1876,8 +1876,8 @@
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="18">
         <v>43944</v>
       </c>
@@ -1897,8 +1897,8 @@
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="18">
         <v>43946</v>
       </c>
@@ -1918,8 +1918,8 @@
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="18">
         <v>43948</v>
       </c>
@@ -1939,8 +1939,8 @@
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="36"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="18">
         <v>43950</v>
       </c>
@@ -1960,10 +1960,10 @@
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39">
+      <c r="A59" s="44">
         <v>5</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="3">
@@ -1984,8 +1984,8 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="3">
         <v>43926</v>
       </c>
@@ -2005,8 +2005,8 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="3">
         <v>43928</v>
       </c>
@@ -2026,8 +2026,8 @@
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="3">
         <v>43930</v>
       </c>
@@ -2047,8 +2047,8 @@
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="3">
         <v>43932</v>
       </c>
@@ -2068,8 +2068,8 @@
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="3">
         <v>43934</v>
       </c>
@@ -2089,8 +2089,8 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="3">
         <v>43936</v>
       </c>
@@ -2110,8 +2110,8 @@
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="3">
         <v>43938</v>
       </c>
@@ -2131,8 +2131,8 @@
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="3">
         <v>43940</v>
       </c>
@@ -2152,8 +2152,8 @@
       <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="3">
         <v>43942</v>
       </c>
@@ -2173,8 +2173,8 @@
       <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="3">
         <v>43944</v>
       </c>
@@ -2194,8 +2194,8 @@
       <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="3">
         <v>43946</v>
       </c>
@@ -2215,8 +2215,8 @@
       <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="3">
         <v>43948</v>
       </c>
@@ -2236,8 +2236,8 @@
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="36"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="3">
         <v>43950</v>
       </c>
@@ -2257,10 +2257,10 @@
       <c r="J72" s="8"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="44">
+      <c r="A73" s="46">
         <v>6</v>
       </c>
-      <c r="B73" s="49" t="s">
+      <c r="B73" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="18">
@@ -2281,8 +2281,8 @@
       <c r="J73" s="23"/>
     </row>
     <row r="74" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="18">
         <v>43926</v>
       </c>
@@ -2302,8 +2302,8 @@
       <c r="J74" s="23"/>
     </row>
     <row r="75" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="18">
         <v>43928</v>
       </c>
@@ -2323,8 +2323,8 @@
       <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="18">
         <v>43930</v>
       </c>
@@ -2344,8 +2344,8 @@
       <c r="J76" s="23"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="18">
         <v>43932</v>
       </c>
@@ -2365,8 +2365,8 @@
       <c r="J77" s="23"/>
     </row>
     <row r="78" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="18">
         <v>43934</v>
       </c>
@@ -2386,8 +2386,8 @@
       <c r="J78" s="23"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="18">
         <v>43936</v>
       </c>
@@ -2407,8 +2407,8 @@
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="40"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="18">
         <v>43938</v>
       </c>
@@ -2428,8 +2428,8 @@
       <c r="J80" s="25"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="40"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="18">
         <v>43940</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="J81" s="25"/>
     </row>
     <row r="82" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="40"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="18">
         <v>43942</v>
       </c>
@@ -2470,8 +2470,8 @@
       <c r="J82" s="25"/>
     </row>
     <row r="83" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="18">
         <v>43944</v>
       </c>
@@ -2491,8 +2491,8 @@
       <c r="J83" s="25"/>
     </row>
     <row r="84" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="18">
         <v>43946</v>
       </c>
@@ -2512,8 +2512,8 @@
       <c r="J84" s="25"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="18">
         <v>43948</v>
       </c>
@@ -2533,8 +2533,8 @@
       <c r="J85" s="25"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="36"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="18">
         <v>43950</v>
       </c>
@@ -2554,10 +2554,10 @@
       <c r="J86" s="25"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39">
+      <c r="A87" s="44">
         <v>7</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="3">
@@ -2578,8 +2578,8 @@
       <c r="J87" s="8"/>
     </row>
     <row r="88" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="3">
         <v>43926</v>
       </c>
@@ -2599,8 +2599,8 @@
       <c r="J88" s="8"/>
     </row>
     <row r="89" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="40"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="3">
         <v>43928</v>
       </c>
@@ -2620,8 +2620,8 @@
       <c r="J89" s="8"/>
     </row>
     <row r="90" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="40"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="3">
         <v>43930</v>
       </c>
@@ -2641,8 +2641,8 @@
       <c r="J90" s="8"/>
     </row>
     <row r="91" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="40"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="3">
         <v>43932</v>
       </c>
@@ -2662,8 +2662,8 @@
       <c r="J91" s="8"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="40"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="3">
         <v>43934</v>
       </c>
@@ -2683,8 +2683,8 @@
       <c r="J92" s="8"/>
     </row>
     <row r="93" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="40"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="3">
         <v>43936</v>
       </c>
@@ -2704,8 +2704,8 @@
       <c r="J93" s="12"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="3">
         <v>43938</v>
       </c>
@@ -2725,8 +2725,8 @@
       <c r="J94" s="12"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="3">
         <v>43940</v>
       </c>
@@ -2746,8 +2746,8 @@
       <c r="J95" s="12"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="3">
         <v>43942</v>
       </c>
@@ -2767,8 +2767,8 @@
       <c r="J96" s="12"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="3">
         <v>43944</v>
       </c>
@@ -2788,8 +2788,8 @@
       <c r="J97" s="12"/>
     </row>
     <row r="98" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="3">
         <v>43946</v>
       </c>
@@ -2809,8 +2809,8 @@
       <c r="J98" s="12"/>
     </row>
     <row r="99" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="3">
         <v>43948</v>
       </c>
@@ -2830,8 +2830,8 @@
       <c r="J99" s="12"/>
     </row>
     <row r="100" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="36"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="3">
         <v>43950</v>
       </c>
@@ -2851,10 +2851,10 @@
       <c r="J100" s="12"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="44">
+      <c r="A101" s="46">
         <v>8</v>
       </c>
-      <c r="B101" s="49" t="s">
+      <c r="B101" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C101" s="18">
@@ -2875,8 +2875,8 @@
       <c r="J101" s="23"/>
     </row>
     <row r="102" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
-      <c r="B102" s="40"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="18">
         <v>43926</v>
       </c>
@@ -2896,8 +2896,8 @@
       <c r="J102" s="23"/>
     </row>
     <row r="103" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="40"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="18">
         <v>43928</v>
       </c>
@@ -2917,8 +2917,8 @@
       <c r="J103" s="23"/>
     </row>
     <row r="104" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="40"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="18">
         <v>43930</v>
       </c>
@@ -2938,8 +2938,8 @@
       <c r="J104" s="23"/>
     </row>
     <row r="105" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="18">
         <v>43932</v>
       </c>
@@ -2959,8 +2959,8 @@
       <c r="J105" s="23"/>
     </row>
     <row r="106" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="18">
         <v>43934</v>
       </c>
@@ -2980,8 +2980,8 @@
       <c r="J106" s="23"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
-      <c r="B107" s="40"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="18">
         <v>43936</v>
       </c>
@@ -3001,8 +3001,8 @@
       <c r="J107" s="25"/>
     </row>
     <row r="108" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="40"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="18">
         <v>43938</v>
       </c>
@@ -3022,8 +3022,8 @@
       <c r="J108" s="25"/>
     </row>
     <row r="109" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="18">
         <v>43940</v>
       </c>
@@ -3043,8 +3043,8 @@
       <c r="J109" s="25"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
-      <c r="B110" s="40"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="18">
         <v>43942</v>
       </c>
@@ -3064,8 +3064,8 @@
       <c r="J110" s="25"/>
     </row>
     <row r="111" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="18">
         <v>43944</v>
       </c>
@@ -3085,8 +3085,8 @@
       <c r="J111" s="25"/>
     </row>
     <row r="112" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
-      <c r="B112" s="40"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="18">
         <v>43946</v>
       </c>
@@ -3106,8 +3106,8 @@
       <c r="J112" s="25"/>
     </row>
     <row r="113" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
-      <c r="B113" s="40"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="18">
         <v>43948</v>
       </c>
@@ -3127,8 +3127,8 @@
       <c r="J113" s="25"/>
     </row>
     <row r="114" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
-      <c r="B114" s="36"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="18">
         <v>43950</v>
       </c>
@@ -3148,10 +3148,10 @@
       <c r="J114" s="25"/>
     </row>
     <row r="115" spans="1:10" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="39">
+      <c r="A115" s="44">
         <v>9</v>
       </c>
-      <c r="B115" s="48" t="s">
+      <c r="B115" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="3">
@@ -3172,8 +3172,8 @@
       <c r="J115" s="8"/>
     </row>
     <row r="116" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
-      <c r="B116" s="42"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="3">
         <v>43926</v>
       </c>
@@ -3193,8 +3193,8 @@
       <c r="J116" s="8"/>
     </row>
     <row r="117" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="42"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="3">
         <v>43928</v>
       </c>
@@ -3214,8 +3214,8 @@
       <c r="J117" s="8"/>
     </row>
     <row r="118" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
-      <c r="B118" s="42"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="3">
         <v>43930</v>
       </c>
@@ -3235,8 +3235,8 @@
       <c r="J118" s="8"/>
     </row>
     <row r="119" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="42"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="3">
         <v>43932</v>
       </c>
@@ -3256,8 +3256,8 @@
       <c r="J119" s="8"/>
     </row>
     <row r="120" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
-      <c r="B120" s="42"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="3">
         <v>43934</v>
       </c>
@@ -3277,8 +3277,8 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
-      <c r="B121" s="42"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="3">
         <v>43936</v>
       </c>
@@ -3298,8 +3298,8 @@
       <c r="J121" s="12"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
-      <c r="B122" s="42"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="3">
         <v>43938</v>
       </c>
@@ -3319,8 +3319,8 @@
       <c r="J122" s="12"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
-      <c r="B123" s="42"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="3">
         <v>43940</v>
       </c>
@@ -3340,8 +3340,8 @@
       <c r="J123" s="12"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
-      <c r="B124" s="42"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="3">
         <v>43942</v>
       </c>
@@ -3361,8 +3361,8 @@
       <c r="J124" s="12"/>
     </row>
     <row r="125" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
-      <c r="B125" s="42"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="3">
         <v>43944</v>
       </c>
@@ -3382,8 +3382,8 @@
       <c r="J125" s="12"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
-      <c r="B126" s="42"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="3">
         <v>43946</v>
       </c>
@@ -3403,8 +3403,8 @@
       <c r="J126" s="12"/>
     </row>
     <row r="127" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
-      <c r="B127" s="42"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="3">
         <v>43948</v>
       </c>
@@ -3424,8 +3424,8 @@
       <c r="J127" s="12"/>
     </row>
     <row r="128" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
-      <c r="B128" s="43"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="40"/>
       <c r="C128" s="3">
         <v>43950</v>
       </c>
@@ -3445,10 +3445,10 @@
       <c r="J128" s="12"/>
     </row>
     <row r="129" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="44">
+      <c r="A129" s="46">
         <v>10</v>
       </c>
-      <c r="B129" s="49" t="s">
+      <c r="B129" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C129" s="18">
@@ -3469,8 +3469,8 @@
       <c r="J129" s="23"/>
     </row>
     <row r="130" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
-      <c r="B130" s="40"/>
+      <c r="A130" s="36"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="18">
         <v>43926</v>
       </c>
@@ -3490,8 +3490,8 @@
       <c r="J130" s="23"/>
     </row>
     <row r="131" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
-      <c r="B131" s="40"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="18">
         <v>43928</v>
       </c>
@@ -3511,8 +3511,8 @@
       <c r="J131" s="23"/>
     </row>
     <row r="132" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
-      <c r="B132" s="40"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="18">
         <v>43930</v>
       </c>
@@ -3532,8 +3532,8 @@
       <c r="J132" s="23"/>
     </row>
     <row r="133" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
-      <c r="B133" s="40"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="18">
         <v>43932</v>
       </c>
@@ -3553,8 +3553,8 @@
       <c r="J133" s="23"/>
     </row>
     <row r="134" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
-      <c r="B134" s="40"/>
+      <c r="A134" s="36"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="18">
         <v>43934</v>
       </c>
@@ -3574,8 +3574,8 @@
       <c r="J134" s="23"/>
     </row>
     <row r="135" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
-      <c r="B135" s="40"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="18">
         <v>43936</v>
       </c>
@@ -3595,8 +3595,8 @@
       <c r="J135" s="25"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
-      <c r="B136" s="40"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="18">
         <v>43938</v>
       </c>
@@ -3616,8 +3616,8 @@
       <c r="J136" s="25"/>
     </row>
     <row r="137" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="40"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="18">
         <v>43940</v>
       </c>
@@ -3637,8 +3637,8 @@
       <c r="J137" s="25"/>
     </row>
     <row r="138" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
-      <c r="B138" s="40"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="18">
         <v>43942</v>
       </c>
@@ -3658,8 +3658,8 @@
       <c r="J138" s="25"/>
     </row>
     <row r="139" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
-      <c r="B139" s="40"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="18">
         <v>43944</v>
       </c>
@@ -3679,8 +3679,8 @@
       <c r="J139" s="25"/>
     </row>
     <row r="140" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
-      <c r="B140" s="40"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="18">
         <v>43946</v>
       </c>
@@ -3700,8 +3700,8 @@
       <c r="J140" s="25"/>
     </row>
     <row r="141" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
-      <c r="B141" s="40"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="18">
         <v>43948</v>
       </c>
@@ -3721,8 +3721,8 @@
       <c r="J141" s="25"/>
     </row>
     <row r="142" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
-      <c r="B142" s="36"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="37"/>
       <c r="C142" s="18">
         <v>43950</v>
       </c>
@@ -3742,10 +3742,10 @@
       <c r="J142" s="25"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="39">
+      <c r="A143" s="44">
         <v>11</v>
       </c>
-      <c r="B143" s="50" t="s">
+      <c r="B143" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C143" s="3">
@@ -3765,8 +3765,8 @@
       <c r="I143" s="7"/>
     </row>
     <row r="144" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
-      <c r="B144" s="40"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="3">
         <v>43926</v>
       </c>
@@ -3785,8 +3785,8 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
-      <c r="B145" s="40"/>
+      <c r="A145" s="36"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="3">
         <v>43928</v>
       </c>
@@ -3805,8 +3805,8 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
-      <c r="B146" s="40"/>
+      <c r="A146" s="36"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="3">
         <v>43930</v>
       </c>
@@ -3825,8 +3825,8 @@
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
-      <c r="B147" s="40"/>
+      <c r="A147" s="36"/>
+      <c r="B147" s="36"/>
       <c r="C147" s="3">
         <v>43932</v>
       </c>
@@ -3845,8 +3845,8 @@
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
-      <c r="B148" s="40"/>
+      <c r="A148" s="36"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="3">
         <v>43934</v>
       </c>
@@ -3865,8 +3865,8 @@
       <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
-      <c r="B149" s="40"/>
+      <c r="A149" s="36"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="3">
         <v>43936</v>
       </c>
@@ -3885,8 +3885,8 @@
       <c r="I149" s="6"/>
     </row>
     <row r="150" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
-      <c r="B150" s="40"/>
+      <c r="A150" s="36"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="3">
         <v>43938</v>
       </c>
@@ -3905,8 +3905,8 @@
       <c r="I150" s="6"/>
     </row>
     <row r="151" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
-      <c r="B151" s="40"/>
+      <c r="A151" s="36"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="3">
         <v>43940</v>
       </c>
@@ -3925,8 +3925,8 @@
       <c r="I151" s="6"/>
     </row>
     <row r="152" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
-      <c r="B152" s="40"/>
+      <c r="A152" s="36"/>
+      <c r="B152" s="36"/>
       <c r="C152" s="3">
         <v>43942</v>
       </c>
@@ -3945,8 +3945,8 @@
       <c r="I152" s="14"/>
     </row>
     <row r="153" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
-      <c r="B153" s="40"/>
+      <c r="A153" s="36"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="3">
         <v>43944</v>
       </c>
@@ -3965,8 +3965,8 @@
       <c r="I153" s="14"/>
     </row>
     <row r="154" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
-      <c r="B154" s="40"/>
+      <c r="A154" s="36"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="3">
         <v>43946</v>
       </c>
@@ -3985,8 +3985,8 @@
       <c r="I154" s="14"/>
     </row>
     <row r="155" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
-      <c r="B155" s="40"/>
+      <c r="A155" s="36"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="3">
         <v>43948</v>
       </c>
@@ -4005,8 +4005,8 @@
       <c r="I155" s="14"/>
     </row>
     <row r="156" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
-      <c r="B156" s="36"/>
+      <c r="A156" s="36"/>
+      <c r="B156" s="37"/>
       <c r="C156" s="3">
         <v>43950</v>
       </c>
@@ -4025,10 +4025,10 @@
       <c r="I156" s="11"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="44">
+      <c r="A157" s="46">
         <v>12</v>
       </c>
-      <c r="B157" s="49" t="s">
+      <c r="B157" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="18">
@@ -4049,8 +4049,8 @@
       <c r="J157" s="23"/>
     </row>
     <row r="158" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
-      <c r="B158" s="40"/>
+      <c r="A158" s="36"/>
+      <c r="B158" s="36"/>
       <c r="C158" s="18">
         <v>43926</v>
       </c>
@@ -4070,8 +4070,8 @@
       <c r="J158" s="23"/>
     </row>
     <row r="159" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
-      <c r="B159" s="40"/>
+      <c r="A159" s="36"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="18">
         <v>43928</v>
       </c>
@@ -4091,8 +4091,8 @@
       <c r="J159" s="23"/>
     </row>
     <row r="160" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
-      <c r="B160" s="40"/>
+      <c r="A160" s="36"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="18">
         <v>43930</v>
       </c>
@@ -4112,8 +4112,8 @@
       <c r="J160" s="23"/>
     </row>
     <row r="161" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="40"/>
-      <c r="B161" s="40"/>
+      <c r="A161" s="36"/>
+      <c r="B161" s="36"/>
       <c r="C161" s="18">
         <v>43932</v>
       </c>
@@ -4133,8 +4133,8 @@
       <c r="J161" s="23"/>
     </row>
     <row r="162" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="40"/>
-      <c r="B162" s="40"/>
+      <c r="A162" s="36"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="18">
         <v>43934</v>
       </c>
@@ -4154,8 +4154,8 @@
       <c r="J162" s="23"/>
     </row>
     <row r="163" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="40"/>
-      <c r="B163" s="40"/>
+      <c r="A163" s="36"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="18">
         <v>43936</v>
       </c>
@@ -4175,8 +4175,8 @@
       <c r="J163" s="25"/>
     </row>
     <row r="164" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
-      <c r="B164" s="40"/>
+      <c r="A164" s="36"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="18">
         <v>43938</v>
       </c>
@@ -4196,8 +4196,8 @@
       <c r="J164" s="25"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="40"/>
-      <c r="B165" s="40"/>
+      <c r="A165" s="36"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="18">
         <v>43940</v>
       </c>
@@ -4217,8 +4217,8 @@
       <c r="J165" s="25"/>
     </row>
     <row r="166" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="40"/>
-      <c r="B166" s="40"/>
+      <c r="A166" s="36"/>
+      <c r="B166" s="36"/>
       <c r="C166" s="18">
         <v>43942</v>
       </c>
@@ -4238,8 +4238,8 @@
       <c r="J166" s="25"/>
     </row>
     <row r="167" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="40"/>
-      <c r="B167" s="40"/>
+      <c r="A167" s="36"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="18">
         <v>43944</v>
       </c>
@@ -4259,8 +4259,8 @@
       <c r="J167" s="25"/>
     </row>
     <row r="168" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="40"/>
-      <c r="B168" s="40"/>
+      <c r="A168" s="36"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="18">
         <v>43946</v>
       </c>
@@ -4280,8 +4280,8 @@
       <c r="J168" s="25"/>
     </row>
     <row r="169" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="40"/>
-      <c r="B169" s="40"/>
+      <c r="A169" s="36"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="18">
         <v>43948</v>
       </c>
@@ -4301,8 +4301,8 @@
       <c r="J169" s="25"/>
     </row>
     <row r="170" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="40"/>
-      <c r="B170" s="36"/>
+      <c r="A170" s="36"/>
+      <c r="B170" s="37"/>
       <c r="C170" s="18">
         <v>43950</v>
       </c>
@@ -4322,10 +4322,10 @@
       <c r="J170" s="25"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="39">
+      <c r="A171" s="44">
         <v>13</v>
       </c>
-      <c r="B171" s="50" t="s">
+      <c r="B171" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C171" s="3">
@@ -4345,8 +4345,8 @@
       <c r="I171" s="7"/>
     </row>
     <row r="172" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="40"/>
-      <c r="B172" s="40"/>
+      <c r="A172" s="36"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="3">
         <v>43926</v>
       </c>
@@ -4365,8 +4365,8 @@
       <c r="I172" s="6"/>
     </row>
     <row r="173" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="40"/>
-      <c r="B173" s="40"/>
+      <c r="A173" s="36"/>
+      <c r="B173" s="36"/>
       <c r="C173" s="3">
         <v>43928</v>
       </c>
@@ -4385,8 +4385,8 @@
       <c r="I173" s="6"/>
     </row>
     <row r="174" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="40"/>
-      <c r="B174" s="40"/>
+      <c r="A174" s="36"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="3">
         <v>43930</v>
       </c>
@@ -4405,8 +4405,8 @@
       <c r="I174" s="6"/>
     </row>
     <row r="175" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="40"/>
-      <c r="B175" s="40"/>
+      <c r="A175" s="36"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="3">
         <v>43932</v>
       </c>
@@ -4425,8 +4425,8 @@
       <c r="I175" s="6"/>
     </row>
     <row r="176" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="40"/>
-      <c r="B176" s="40"/>
+      <c r="A176" s="36"/>
+      <c r="B176" s="36"/>
       <c r="C176" s="3">
         <v>43934</v>
       </c>
@@ -4445,8 +4445,8 @@
       <c r="I176" s="6"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="40"/>
-      <c r="B177" s="40"/>
+      <c r="A177" s="36"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="3">
         <v>43936</v>
       </c>
@@ -4465,8 +4465,8 @@
       <c r="I177" s="6"/>
     </row>
     <row r="178" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="40"/>
-      <c r="B178" s="40"/>
+      <c r="A178" s="36"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="3">
         <v>43938</v>
       </c>
@@ -4485,8 +4485,8 @@
       <c r="I178" s="6"/>
     </row>
     <row r="179" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="40"/>
-      <c r="B179" s="40"/>
+      <c r="A179" s="36"/>
+      <c r="B179" s="36"/>
       <c r="C179" s="3">
         <v>43940</v>
       </c>
@@ -4505,8 +4505,8 @@
       <c r="I179" s="11"/>
     </row>
     <row r="180" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="40"/>
-      <c r="B180" s="40"/>
+      <c r="A180" s="36"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="3">
         <v>43942</v>
       </c>
@@ -4525,8 +4525,8 @@
       <c r="I180" s="14"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="40"/>
-      <c r="B181" s="40"/>
+      <c r="A181" s="36"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="3">
         <v>43944</v>
       </c>
@@ -4545,8 +4545,8 @@
       <c r="I181" s="14"/>
     </row>
     <row r="182" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="40"/>
-      <c r="B182" s="40"/>
+      <c r="A182" s="36"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="3">
         <v>43946</v>
       </c>
@@ -4565,8 +4565,8 @@
       <c r="I182" s="14"/>
     </row>
     <row r="183" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="40"/>
-      <c r="B183" s="40"/>
+      <c r="A183" s="36"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="3">
         <v>43948</v>
       </c>
@@ -4585,8 +4585,8 @@
       <c r="I183" s="14"/>
     </row>
     <row r="184" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="40"/>
-      <c r="B184" s="36"/>
+      <c r="A184" s="36"/>
+      <c r="B184" s="37"/>
       <c r="C184" s="3">
         <v>43950</v>
       </c>
@@ -4605,10 +4605,10 @@
       <c r="I184" s="14"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="44">
+      <c r="A185" s="46">
         <v>14</v>
       </c>
-      <c r="B185" s="49" t="s">
+      <c r="B185" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C185" s="18">
@@ -4629,8 +4629,8 @@
       <c r="J185" s="23"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="40"/>
-      <c r="B186" s="40"/>
+      <c r="A186" s="36"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="18">
         <v>43926</v>
       </c>
@@ -4650,8 +4650,8 @@
       <c r="J186" s="23"/>
     </row>
     <row r="187" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="40"/>
-      <c r="B187" s="40"/>
+      <c r="A187" s="36"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="18">
         <v>43928</v>
       </c>
@@ -4671,8 +4671,8 @@
       <c r="J187" s="23"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="40"/>
-      <c r="B188" s="40"/>
+      <c r="A188" s="36"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="18">
         <v>43930</v>
       </c>
@@ -4692,8 +4692,8 @@
       <c r="J188" s="23"/>
     </row>
     <row r="189" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="40"/>
-      <c r="B189" s="40"/>
+      <c r="A189" s="36"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="18">
         <v>43932</v>
       </c>
@@ -4713,8 +4713,8 @@
       <c r="J189" s="23"/>
     </row>
     <row r="190" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="40"/>
-      <c r="B190" s="40"/>
+      <c r="A190" s="36"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="18">
         <v>43934</v>
       </c>
@@ -4734,8 +4734,8 @@
       <c r="J190" s="23"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="40"/>
-      <c r="B191" s="40"/>
+      <c r="A191" s="36"/>
+      <c r="B191" s="36"/>
       <c r="C191" s="18">
         <v>43936</v>
       </c>
@@ -4755,8 +4755,8 @@
       <c r="J191" s="25"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="40"/>
-      <c r="B192" s="40"/>
+      <c r="A192" s="36"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="18">
         <v>43938</v>
       </c>
@@ -4776,8 +4776,8 @@
       <c r="J192" s="25"/>
     </row>
     <row r="193" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="40"/>
-      <c r="B193" s="40"/>
+      <c r="A193" s="36"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="18">
         <v>43940</v>
       </c>
@@ -4797,8 +4797,8 @@
       <c r="J193" s="25"/>
     </row>
     <row r="194" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="40"/>
-      <c r="B194" s="40"/>
+      <c r="A194" s="36"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="18">
         <v>43942</v>
       </c>
@@ -4818,8 +4818,8 @@
       <c r="J194" s="25"/>
     </row>
     <row r="195" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="40"/>
-      <c r="B195" s="40"/>
+      <c r="A195" s="36"/>
+      <c r="B195" s="36"/>
       <c r="C195" s="18">
         <v>43944</v>
       </c>
@@ -4839,8 +4839,8 @@
       <c r="J195" s="25"/>
     </row>
     <row r="196" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="40"/>
-      <c r="B196" s="40"/>
+      <c r="A196" s="36"/>
+      <c r="B196" s="36"/>
       <c r="C196" s="18">
         <v>43946</v>
       </c>
@@ -4860,8 +4860,8 @@
       <c r="J196" s="25"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="40"/>
-      <c r="B197" s="40"/>
+      <c r="A197" s="36"/>
+      <c r="B197" s="36"/>
       <c r="C197" s="18">
         <v>43948</v>
       </c>
@@ -4881,8 +4881,8 @@
       <c r="J197" s="25"/>
     </row>
     <row r="198" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="40"/>
-      <c r="B198" s="36"/>
+      <c r="A198" s="36"/>
+      <c r="B198" s="37"/>
       <c r="C198" s="18">
         <v>43950</v>
       </c>
@@ -4902,10 +4902,10 @@
       <c r="J198" s="25"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="39">
+      <c r="A199" s="44">
         <v>15</v>
       </c>
-      <c r="B199" s="48" t="s">
+      <c r="B199" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C199" s="3">
@@ -4925,8 +4925,8 @@
       <c r="I199" s="7"/>
     </row>
     <row r="200" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="40"/>
-      <c r="B200" s="42"/>
+      <c r="A200" s="36"/>
+      <c r="B200" s="39"/>
       <c r="C200" s="3">
         <v>43926</v>
       </c>
@@ -4945,8 +4945,8 @@
       <c r="I200" s="6"/>
     </row>
     <row r="201" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="40"/>
-      <c r="B201" s="42"/>
+      <c r="A201" s="36"/>
+      <c r="B201" s="39"/>
       <c r="C201" s="3">
         <v>43928</v>
       </c>
@@ -4965,8 +4965,8 @@
       <c r="I201" s="6"/>
     </row>
     <row r="202" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="40"/>
-      <c r="B202" s="42"/>
+      <c r="A202" s="36"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="3">
         <v>43930</v>
       </c>
@@ -4985,8 +4985,8 @@
       <c r="I202" s="6"/>
     </row>
     <row r="203" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="40"/>
-      <c r="B203" s="42"/>
+      <c r="A203" s="36"/>
+      <c r="B203" s="39"/>
       <c r="C203" s="3">
         <v>43932</v>
       </c>
@@ -5005,8 +5005,8 @@
       <c r="I203" s="6"/>
     </row>
     <row r="204" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="40"/>
-      <c r="B204" s="42"/>
+      <c r="A204" s="36"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="3">
         <v>43934</v>
       </c>
@@ -5025,8 +5025,8 @@
       <c r="I204" s="6"/>
     </row>
     <row r="205" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="40"/>
-      <c r="B205" s="42"/>
+      <c r="A205" s="36"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="3">
         <v>43936</v>
       </c>
@@ -5045,8 +5045,8 @@
       <c r="I205" s="6"/>
     </row>
     <row r="206" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="40"/>
-      <c r="B206" s="42"/>
+      <c r="A206" s="36"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="3">
         <v>43938</v>
       </c>
@@ -5065,8 +5065,8 @@
       <c r="I206" s="6"/>
     </row>
     <row r="207" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="40"/>
-      <c r="B207" s="42"/>
+      <c r="A207" s="36"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="3">
         <v>43940</v>
       </c>
@@ -5085,8 +5085,8 @@
       <c r="I207" s="11"/>
     </row>
     <row r="208" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="40"/>
-      <c r="B208" s="42"/>
+      <c r="A208" s="36"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="3">
         <v>43942</v>
       </c>
@@ -5105,8 +5105,8 @@
       <c r="I208" s="14"/>
     </row>
     <row r="209" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="40"/>
-      <c r="B209" s="42"/>
+      <c r="A209" s="36"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="3">
         <v>43944</v>
       </c>
@@ -5125,8 +5125,8 @@
       <c r="I209" s="14"/>
     </row>
     <row r="210" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="40"/>
-      <c r="B210" s="42"/>
+      <c r="A210" s="36"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="3">
         <v>43946</v>
       </c>
@@ -5145,8 +5145,8 @@
       <c r="I210" s="14"/>
     </row>
     <row r="211" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="40"/>
-      <c r="B211" s="42"/>
+      <c r="A211" s="36"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="3">
         <v>43948</v>
       </c>
@@ -5165,8 +5165,8 @@
       <c r="I211" s="14"/>
     </row>
     <row r="212" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="40"/>
-      <c r="B212" s="43"/>
+      <c r="A212" s="36"/>
+      <c r="B212" s="40"/>
       <c r="C212" s="3">
         <v>43950</v>
       </c>
@@ -5185,10 +5185,10 @@
       <c r="I212" s="14"/>
     </row>
     <row r="213" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="51">
+      <c r="A213" s="35">
         <v>16</v>
       </c>
-      <c r="B213" s="53" t="s">
+      <c r="B213" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C213" s="18">
@@ -5209,8 +5209,8 @@
       <c r="J213" s="23"/>
     </row>
     <row r="214" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="40"/>
-      <c r="B214" s="42"/>
+      <c r="A214" s="36"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="18">
         <v>43926</v>
       </c>
@@ -5230,8 +5230,8 @@
       <c r="J214" s="23"/>
     </row>
     <row r="215" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="40"/>
-      <c r="B215" s="42"/>
+      <c r="A215" s="36"/>
+      <c r="B215" s="39"/>
       <c r="C215" s="18">
         <v>43928</v>
       </c>
@@ -5251,8 +5251,8 @@
       <c r="J215" s="23"/>
     </row>
     <row r="216" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="40"/>
-      <c r="B216" s="42"/>
+      <c r="A216" s="36"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="18">
         <v>43930</v>
       </c>
@@ -5272,8 +5272,8 @@
       <c r="J216" s="23"/>
     </row>
     <row r="217" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="40"/>
-      <c r="B217" s="42"/>
+      <c r="A217" s="36"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="18">
         <v>43932</v>
       </c>
@@ -5293,8 +5293,8 @@
       <c r="J217" s="23"/>
     </row>
     <row r="218" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="40"/>
-      <c r="B218" s="42"/>
+      <c r="A218" s="36"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="18">
         <v>43934</v>
       </c>
@@ -5314,8 +5314,8 @@
       <c r="J218" s="23"/>
     </row>
     <row r="219" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="40"/>
-      <c r="B219" s="42"/>
+      <c r="A219" s="36"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="18">
         <v>43936</v>
       </c>
@@ -5335,8 +5335,8 @@
       <c r="J219" s="25"/>
     </row>
     <row r="220" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="40"/>
-      <c r="B220" s="42"/>
+      <c r="A220" s="36"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="18">
         <v>43938</v>
       </c>
@@ -5356,8 +5356,8 @@
       <c r="J220" s="25"/>
     </row>
     <row r="221" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="40"/>
-      <c r="B221" s="42"/>
+      <c r="A221" s="36"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="18">
         <v>43940</v>
       </c>
@@ -5377,8 +5377,8 @@
       <c r="J221" s="25"/>
     </row>
     <row r="222" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="40"/>
-      <c r="B222" s="42"/>
+      <c r="A222" s="36"/>
+      <c r="B222" s="39"/>
       <c r="C222" s="18">
         <v>43942</v>
       </c>
@@ -5398,8 +5398,8 @@
       <c r="J222" s="25"/>
     </row>
     <row r="223" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="40"/>
-      <c r="B223" s="42"/>
+      <c r="A223" s="36"/>
+      <c r="B223" s="39"/>
       <c r="C223" s="18">
         <v>43944</v>
       </c>
@@ -5419,8 +5419,8 @@
       <c r="J223" s="25"/>
     </row>
     <row r="224" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="40"/>
-      <c r="B224" s="42"/>
+      <c r="A224" s="36"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="18">
         <v>43946</v>
       </c>
@@ -5440,8 +5440,8 @@
       <c r="J224" s="25"/>
     </row>
     <row r="225" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="40"/>
-      <c r="B225" s="42"/>
+      <c r="A225" s="36"/>
+      <c r="B225" s="39"/>
       <c r="C225" s="18">
         <v>43948</v>
       </c>
@@ -5461,8 +5461,8 @@
       <c r="J225" s="25"/>
     </row>
     <row r="226" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="40"/>
-      <c r="B226" s="43"/>
+      <c r="A226" s="36"/>
+      <c r="B226" s="40"/>
       <c r="C226" s="18">
         <v>43950</v>
       </c>
@@ -5482,10 +5482,10 @@
       <c r="J226" s="25"/>
     </row>
     <row r="227" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="52">
+      <c r="A227" s="41">
         <v>17</v>
       </c>
-      <c r="B227" s="50" t="s">
+      <c r="B227" s="45" t="s">
         <v>27</v>
       </c>
       <c r="C227" s="3">
@@ -5505,8 +5505,8 @@
       <c r="I227" s="7"/>
     </row>
     <row r="228" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="40"/>
-      <c r="B228" s="40"/>
+      <c r="A228" s="36"/>
+      <c r="B228" s="36"/>
       <c r="C228" s="3">
         <v>43926</v>
       </c>
@@ -5525,8 +5525,8 @@
       <c r="I228" s="6"/>
     </row>
     <row r="229" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="40"/>
-      <c r="B229" s="40"/>
+      <c r="A229" s="36"/>
+      <c r="B229" s="36"/>
       <c r="C229" s="3">
         <v>43928</v>
       </c>
@@ -5545,8 +5545,8 @@
       <c r="I229" s="6"/>
     </row>
     <row r="230" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="40"/>
-      <c r="B230" s="40"/>
+      <c r="A230" s="36"/>
+      <c r="B230" s="36"/>
       <c r="C230" s="3">
         <v>43930</v>
       </c>
@@ -5565,8 +5565,8 @@
       <c r="I230" s="6"/>
     </row>
     <row r="231" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="40"/>
-      <c r="B231" s="40"/>
+      <c r="A231" s="36"/>
+      <c r="B231" s="36"/>
       <c r="C231" s="3">
         <v>43932</v>
       </c>
@@ -5585,8 +5585,8 @@
       <c r="I231" s="6"/>
     </row>
     <row r="232" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="40"/>
-      <c r="B232" s="40"/>
+      <c r="A232" s="36"/>
+      <c r="B232" s="36"/>
       <c r="C232" s="3">
         <v>43934</v>
       </c>
@@ -5605,8 +5605,8 @@
       <c r="I232" s="6"/>
     </row>
     <row r="233" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="40"/>
-      <c r="B233" s="40"/>
+      <c r="A233" s="36"/>
+      <c r="B233" s="36"/>
       <c r="C233" s="3">
         <v>43936</v>
       </c>
@@ -5625,8 +5625,8 @@
       <c r="I233" s="6"/>
     </row>
     <row r="234" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="40"/>
-      <c r="B234" s="40"/>
+      <c r="A234" s="36"/>
+      <c r="B234" s="36"/>
       <c r="C234" s="3">
         <v>43938</v>
       </c>
@@ -5645,8 +5645,8 @@
       <c r="I234" s="6"/>
     </row>
     <row r="235" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="40"/>
-      <c r="B235" s="40"/>
+      <c r="A235" s="36"/>
+      <c r="B235" s="36"/>
       <c r="C235" s="3">
         <v>43940</v>
       </c>
@@ -5665,8 +5665,8 @@
       <c r="I235" s="11"/>
     </row>
     <row r="236" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="40"/>
-      <c r="B236" s="40"/>
+      <c r="A236" s="36"/>
+      <c r="B236" s="36"/>
       <c r="C236" s="3">
         <v>43942</v>
       </c>
@@ -5685,8 +5685,8 @@
       <c r="I236" s="14"/>
     </row>
     <row r="237" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="40"/>
-      <c r="B237" s="40"/>
+      <c r="A237" s="36"/>
+      <c r="B237" s="36"/>
       <c r="C237" s="3">
         <v>43944</v>
       </c>
@@ -5705,8 +5705,8 @@
       <c r="I237" s="14"/>
     </row>
     <row r="238" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="40"/>
-      <c r="B238" s="40"/>
+      <c r="A238" s="36"/>
+      <c r="B238" s="36"/>
       <c r="C238" s="3">
         <v>43946</v>
       </c>
@@ -5725,8 +5725,8 @@
       <c r="I238" s="14"/>
     </row>
     <row r="239" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="40"/>
-      <c r="B239" s="40"/>
+      <c r="A239" s="36"/>
+      <c r="B239" s="36"/>
       <c r="C239" s="3">
         <v>43948</v>
       </c>
@@ -5745,8 +5745,8 @@
       <c r="I239" s="14"/>
     </row>
     <row r="240" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="40"/>
-      <c r="B240" s="36"/>
+      <c r="A240" s="36"/>
+      <c r="B240" s="37"/>
       <c r="C240" s="3">
         <v>43950</v>
       </c>
@@ -5765,10 +5765,10 @@
       <c r="I240" s="14"/>
     </row>
     <row r="241" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="51">
+      <c r="A241" s="35">
         <v>18</v>
       </c>
-      <c r="B241" s="53" t="s">
+      <c r="B241" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C241" s="18">
@@ -5789,8 +5789,8 @@
       <c r="J241" s="23"/>
     </row>
     <row r="242" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="40"/>
-      <c r="B242" s="42"/>
+      <c r="A242" s="36"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="18">
         <v>43926</v>
       </c>
@@ -5810,8 +5810,8 @@
       <c r="J242" s="23"/>
     </row>
     <row r="243" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="40"/>
-      <c r="B243" s="42"/>
+      <c r="A243" s="36"/>
+      <c r="B243" s="39"/>
       <c r="C243" s="18">
         <v>43928</v>
       </c>
@@ -5831,8 +5831,8 @@
       <c r="J243" s="23"/>
     </row>
     <row r="244" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="40"/>
-      <c r="B244" s="42"/>
+      <c r="A244" s="36"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="18">
         <v>43930</v>
       </c>
@@ -5852,8 +5852,8 @@
       <c r="J244" s="23"/>
     </row>
     <row r="245" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="40"/>
-      <c r="B245" s="42"/>
+      <c r="A245" s="36"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="18">
         <v>43932</v>
       </c>
@@ -5873,8 +5873,8 @@
       <c r="J245" s="23"/>
     </row>
     <row r="246" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="40"/>
-      <c r="B246" s="42"/>
+      <c r="A246" s="36"/>
+      <c r="B246" s="39"/>
       <c r="C246" s="18">
         <v>43934</v>
       </c>
@@ -5894,8 +5894,8 @@
       <c r="J246" s="23"/>
     </row>
     <row r="247" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="40"/>
-      <c r="B247" s="42"/>
+      <c r="A247" s="36"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="18">
         <v>43936</v>
       </c>
@@ -5915,8 +5915,8 @@
       <c r="J247" s="25"/>
     </row>
     <row r="248" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="40"/>
-      <c r="B248" s="42"/>
+      <c r="A248" s="36"/>
+      <c r="B248" s="39"/>
       <c r="C248" s="18">
         <v>43938</v>
       </c>
@@ -5936,8 +5936,8 @@
       <c r="J248" s="25"/>
     </row>
     <row r="249" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="40"/>
-      <c r="B249" s="42"/>
+      <c r="A249" s="36"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="18">
         <v>43940</v>
       </c>
@@ -5957,8 +5957,8 @@
       <c r="J249" s="25"/>
     </row>
     <row r="250" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="40"/>
-      <c r="B250" s="42"/>
+      <c r="A250" s="36"/>
+      <c r="B250" s="39"/>
       <c r="C250" s="18">
         <v>43942</v>
       </c>
@@ -5978,8 +5978,8 @@
       <c r="J250" s="25"/>
     </row>
     <row r="251" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="40"/>
-      <c r="B251" s="42"/>
+      <c r="A251" s="36"/>
+      <c r="B251" s="39"/>
       <c r="C251" s="18">
         <v>43944</v>
       </c>
@@ -5999,8 +5999,8 @@
       <c r="J251" s="25"/>
     </row>
     <row r="252" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="40"/>
-      <c r="B252" s="42"/>
+      <c r="A252" s="36"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="18">
         <v>43946</v>
       </c>
@@ -6020,8 +6020,8 @@
       <c r="J252" s="25"/>
     </row>
     <row r="253" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="40"/>
-      <c r="B253" s="42"/>
+      <c r="A253" s="36"/>
+      <c r="B253" s="39"/>
       <c r="C253" s="18">
         <v>43948</v>
       </c>
@@ -6041,8 +6041,8 @@
       <c r="J253" s="25"/>
     </row>
     <row r="254" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="40"/>
-      <c r="B254" s="43"/>
+      <c r="A254" s="36"/>
+      <c r="B254" s="40"/>
       <c r="C254" s="18">
         <v>43950</v>
       </c>
@@ -6062,10 +6062,10 @@
       <c r="J254" s="25"/>
     </row>
     <row r="255" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="52">
+      <c r="A255" s="41">
         <v>19</v>
       </c>
-      <c r="B255" s="48" t="s">
+      <c r="B255" s="42" t="s">
         <v>29</v>
       </c>
       <c r="C255" s="3">
@@ -6085,8 +6085,8 @@
       <c r="I255" s="7"/>
     </row>
     <row r="256" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="40"/>
-      <c r="B256" s="42"/>
+      <c r="A256" s="36"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="3">
         <v>43926</v>
       </c>
@@ -6105,8 +6105,8 @@
       <c r="I256" s="6"/>
     </row>
     <row r="257" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="40"/>
-      <c r="B257" s="42"/>
+      <c r="A257" s="36"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="3">
         <v>43928</v>
       </c>
@@ -6125,8 +6125,8 @@
       <c r="I257" s="6"/>
     </row>
     <row r="258" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="40"/>
-      <c r="B258" s="42"/>
+      <c r="A258" s="36"/>
+      <c r="B258" s="39"/>
       <c r="C258" s="3">
         <v>43930</v>
       </c>
@@ -6145,8 +6145,8 @@
       <c r="I258" s="6"/>
     </row>
     <row r="259" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="40"/>
-      <c r="B259" s="42"/>
+      <c r="A259" s="36"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="3">
         <v>43932</v>
       </c>
@@ -6165,8 +6165,8 @@
       <c r="I259" s="6"/>
     </row>
     <row r="260" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="40"/>
-      <c r="B260" s="42"/>
+      <c r="A260" s="36"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="3">
         <v>43934</v>
       </c>
@@ -6185,8 +6185,8 @@
       <c r="I260" s="6"/>
     </row>
     <row r="261" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="40"/>
-      <c r="B261" s="42"/>
+      <c r="A261" s="36"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="3">
         <v>43936</v>
       </c>
@@ -6205,8 +6205,8 @@
       <c r="I261" s="6"/>
     </row>
     <row r="262" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="40"/>
-      <c r="B262" s="42"/>
+      <c r="A262" s="36"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="3">
         <v>43938</v>
       </c>
@@ -6225,8 +6225,8 @@
       <c r="I262" s="6"/>
     </row>
     <row r="263" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="40"/>
-      <c r="B263" s="42"/>
+      <c r="A263" s="36"/>
+      <c r="B263" s="39"/>
       <c r="C263" s="3">
         <v>43940</v>
       </c>
@@ -6245,8 +6245,8 @@
       <c r="I263" s="11"/>
     </row>
     <row r="264" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="40"/>
-      <c r="B264" s="42"/>
+      <c r="A264" s="36"/>
+      <c r="B264" s="39"/>
       <c r="C264" s="3">
         <v>43942</v>
       </c>
@@ -6265,8 +6265,8 @@
       <c r="I264" s="14"/>
     </row>
     <row r="265" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="40"/>
-      <c r="B265" s="42"/>
+      <c r="A265" s="36"/>
+      <c r="B265" s="39"/>
       <c r="C265" s="3">
         <v>43944</v>
       </c>
@@ -6285,8 +6285,8 @@
       <c r="I265" s="14"/>
     </row>
     <row r="266" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="40"/>
-      <c r="B266" s="42"/>
+      <c r="A266" s="36"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="3">
         <v>43946</v>
       </c>
@@ -6305,8 +6305,8 @@
       <c r="I266" s="14"/>
     </row>
     <row r="267" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="40"/>
-      <c r="B267" s="42"/>
+      <c r="A267" s="36"/>
+      <c r="B267" s="39"/>
       <c r="C267" s="3">
         <v>43948</v>
       </c>
@@ -6325,8 +6325,8 @@
       <c r="I267" s="14"/>
     </row>
     <row r="268" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="40"/>
-      <c r="B268" s="43"/>
+      <c r="A268" s="36"/>
+      <c r="B268" s="40"/>
       <c r="C268" s="3">
         <v>43950</v>
       </c>
@@ -6345,10 +6345,10 @@
       <c r="I268" s="14"/>
     </row>
     <row r="269" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="51">
+      <c r="A269" s="35">
         <v>20</v>
       </c>
-      <c r="B269" s="53" t="s">
+      <c r="B269" s="38" t="s">
         <v>30</v>
       </c>
       <c r="C269" s="18">
@@ -6369,8 +6369,8 @@
       <c r="J269" s="23"/>
     </row>
     <row r="270" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="40"/>
-      <c r="B270" s="42"/>
+      <c r="A270" s="36"/>
+      <c r="B270" s="39"/>
       <c r="C270" s="18">
         <v>43926</v>
       </c>
@@ -6390,8 +6390,8 @@
       <c r="J270" s="23"/>
     </row>
     <row r="271" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="40"/>
-      <c r="B271" s="42"/>
+      <c r="A271" s="36"/>
+      <c r="B271" s="39"/>
       <c r="C271" s="18">
         <v>43928</v>
       </c>
@@ -6411,8 +6411,8 @@
       <c r="J271" s="23"/>
     </row>
     <row r="272" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="40"/>
-      <c r="B272" s="42"/>
+      <c r="A272" s="36"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="18">
         <v>43930</v>
       </c>
@@ -6432,8 +6432,8 @@
       <c r="J272" s="23"/>
     </row>
     <row r="273" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="40"/>
-      <c r="B273" s="42"/>
+      <c r="A273" s="36"/>
+      <c r="B273" s="39"/>
       <c r="C273" s="18">
         <v>43932</v>
       </c>
@@ -6453,8 +6453,8 @@
       <c r="J273" s="23"/>
     </row>
     <row r="274" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="40"/>
-      <c r="B274" s="42"/>
+      <c r="A274" s="36"/>
+      <c r="B274" s="39"/>
       <c r="C274" s="18">
         <v>43934</v>
       </c>
@@ -6474,8 +6474,8 @@
       <c r="J274" s="23"/>
     </row>
     <row r="275" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="40"/>
-      <c r="B275" s="42"/>
+      <c r="A275" s="36"/>
+      <c r="B275" s="39"/>
       <c r="C275" s="18">
         <v>43936</v>
       </c>
@@ -6495,8 +6495,8 @@
       <c r="J275" s="25"/>
     </row>
     <row r="276" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="40"/>
-      <c r="B276" s="42"/>
+      <c r="A276" s="36"/>
+      <c r="B276" s="39"/>
       <c r="C276" s="18">
         <v>43938</v>
       </c>
@@ -6516,8 +6516,8 @@
       <c r="J276" s="25"/>
     </row>
     <row r="277" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="40"/>
-      <c r="B277" s="42"/>
+      <c r="A277" s="36"/>
+      <c r="B277" s="39"/>
       <c r="C277" s="18">
         <v>43940</v>
       </c>
@@ -6537,8 +6537,8 @@
       <c r="J277" s="25"/>
     </row>
     <row r="278" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="40"/>
-      <c r="B278" s="42"/>
+      <c r="A278" s="36"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="18">
         <v>43942</v>
       </c>
@@ -6558,8 +6558,8 @@
       <c r="J278" s="25"/>
     </row>
     <row r="279" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="40"/>
-      <c r="B279" s="42"/>
+      <c r="A279" s="36"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="18">
         <v>43944</v>
       </c>
@@ -6579,8 +6579,8 @@
       <c r="J279" s="25"/>
     </row>
     <row r="280" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="40"/>
-      <c r="B280" s="42"/>
+      <c r="A280" s="36"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="18">
         <v>43946</v>
       </c>
@@ -6600,8 +6600,8 @@
       <c r="J280" s="25"/>
     </row>
     <row r="281" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="40"/>
-      <c r="B281" s="42"/>
+      <c r="A281" s="36"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="18">
         <v>43948</v>
       </c>
@@ -6621,8 +6621,8 @@
       <c r="J281" s="25"/>
     </row>
     <row r="282" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="40"/>
-      <c r="B282" s="43"/>
+      <c r="A282" s="36"/>
+      <c r="B282" s="40"/>
       <c r="C282" s="18">
         <v>43950</v>
       </c>
@@ -6642,10 +6642,10 @@
       <c r="J282" s="25"/>
     </row>
     <row r="283" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="52">
+      <c r="A283" s="41">
         <v>21</v>
       </c>
-      <c r="B283" s="48" t="s">
+      <c r="B283" s="42" t="s">
         <v>31</v>
       </c>
       <c r="C283" s="3">
@@ -6667,8 +6667,8 @@
       <c r="I283" s="7"/>
     </row>
     <row r="284" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="40"/>
-      <c r="B284" s="42"/>
+      <c r="A284" s="36"/>
+      <c r="B284" s="39"/>
       <c r="C284" s="3">
         <v>43926</v>
       </c>
@@ -6689,8 +6689,8 @@
       <c r="I284" s="6"/>
     </row>
     <row r="285" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="40"/>
-      <c r="B285" s="42"/>
+      <c r="A285" s="36"/>
+      <c r="B285" s="39"/>
       <c r="C285" s="3">
         <v>43928</v>
       </c>
@@ -6711,8 +6711,8 @@
       <c r="I285" s="6"/>
     </row>
     <row r="286" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="40"/>
-      <c r="B286" s="42"/>
+      <c r="A286" s="36"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="3">
         <v>43930</v>
       </c>
@@ -6733,8 +6733,8 @@
       <c r="I286" s="6"/>
     </row>
     <row r="287" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="40"/>
-      <c r="B287" s="42"/>
+      <c r="A287" s="36"/>
+      <c r="B287" s="39"/>
       <c r="C287" s="3">
         <v>43932</v>
       </c>
@@ -6755,8 +6755,8 @@
       <c r="I287" s="6"/>
     </row>
     <row r="288" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="40"/>
-      <c r="B288" s="42"/>
+      <c r="A288" s="36"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="3">
         <v>43934</v>
       </c>
@@ -6777,8 +6777,8 @@
       <c r="I288" s="6"/>
     </row>
     <row r="289" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="40"/>
-      <c r="B289" s="42"/>
+      <c r="A289" s="36"/>
+      <c r="B289" s="39"/>
       <c r="C289" s="3">
         <v>43936</v>
       </c>
@@ -6799,14 +6799,14 @@
       <c r="I289" s="6"/>
     </row>
     <row r="290" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="40"/>
-      <c r="B290" s="42"/>
+      <c r="A290" s="36"/>
+      <c r="B290" s="39"/>
       <c r="C290" s="3">
-        <v>43938</v>
+        <v>1</v>
       </c>
       <c r="D290" s="9">
         <f t="shared" si="40"/>
-        <v>43939</v>
+        <v>2</v>
       </c>
       <c r="E290" s="4">
         <v>4</v>
@@ -6815,12 +6815,14 @@
         <v>1</v>
       </c>
       <c r="G290" s="4"/>
-      <c r="H290" s="6"/>
+      <c r="H290" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I290" s="6"/>
     </row>
     <row r="291" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="40"/>
-      <c r="B291" s="42"/>
+      <c r="A291" s="36"/>
+      <c r="B291" s="39"/>
       <c r="C291" s="3">
         <v>43940</v>
       </c>
@@ -6835,12 +6837,14 @@
         <v>2</v>
       </c>
       <c r="G291" s="4"/>
-      <c r="H291" s="6"/>
+      <c r="H291" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I291" s="11"/>
     </row>
     <row r="292" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="40"/>
-      <c r="B292" s="42"/>
+      <c r="A292" s="36"/>
+      <c r="B292" s="39"/>
       <c r="C292" s="3">
         <v>43942</v>
       </c>
@@ -6855,12 +6859,14 @@
         <v>9</v>
       </c>
       <c r="G292" s="4"/>
-      <c r="H292" s="6"/>
+      <c r="H292" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I292" s="14"/>
     </row>
     <row r="293" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="40"/>
-      <c r="B293" s="42"/>
+      <c r="A293" s="36"/>
+      <c r="B293" s="39"/>
       <c r="C293" s="3">
         <v>43944</v>
       </c>
@@ -6879,8 +6885,8 @@
       <c r="I293" s="14"/>
     </row>
     <row r="294" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="40"/>
-      <c r="B294" s="42"/>
+      <c r="A294" s="36"/>
+      <c r="B294" s="39"/>
       <c r="C294" s="3">
         <v>43946</v>
       </c>
@@ -6899,8 +6905,8 @@
       <c r="I294" s="14"/>
     </row>
     <row r="295" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="40"/>
-      <c r="B295" s="42"/>
+      <c r="A295" s="36"/>
+      <c r="B295" s="39"/>
       <c r="C295" s="3">
         <v>43948</v>
       </c>
@@ -6919,8 +6925,8 @@
       <c r="I295" s="14"/>
     </row>
     <row r="296" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="40"/>
-      <c r="B296" s="43"/>
+      <c r="A296" s="36"/>
+      <c r="B296" s="40"/>
       <c r="C296" s="3">
         <v>43950</v>
       </c>
@@ -6939,10 +6945,10 @@
       <c r="I296" s="14"/>
     </row>
     <row r="297" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="51">
+      <c r="A297" s="35">
         <v>22</v>
       </c>
-      <c r="B297" s="49" t="s">
+      <c r="B297" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C297" s="18">
@@ -6963,8 +6969,8 @@
       <c r="J297" s="23"/>
     </row>
     <row r="298" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="40"/>
-      <c r="B298" s="40"/>
+      <c r="A298" s="36"/>
+      <c r="B298" s="36"/>
       <c r="C298" s="18">
         <v>43926</v>
       </c>
@@ -6984,8 +6990,8 @@
       <c r="J298" s="23"/>
     </row>
     <row r="299" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="40"/>
-      <c r="B299" s="40"/>
+      <c r="A299" s="36"/>
+      <c r="B299" s="36"/>
       <c r="C299" s="18">
         <v>43928</v>
       </c>
@@ -7005,8 +7011,8 @@
       <c r="J299" s="23"/>
     </row>
     <row r="300" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="40"/>
-      <c r="B300" s="40"/>
+      <c r="A300" s="36"/>
+      <c r="B300" s="36"/>
       <c r="C300" s="18">
         <v>43930</v>
       </c>
@@ -7026,8 +7032,8 @@
       <c r="J300" s="23"/>
     </row>
     <row r="301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="40"/>
-      <c r="B301" s="40"/>
+      <c r="A301" s="36"/>
+      <c r="B301" s="36"/>
       <c r="C301" s="18">
         <v>43932</v>
       </c>
@@ -7047,8 +7053,8 @@
       <c r="J301" s="23"/>
     </row>
     <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="40"/>
-      <c r="B302" s="40"/>
+      <c r="A302" s="36"/>
+      <c r="B302" s="36"/>
       <c r="C302" s="18">
         <v>43934</v>
       </c>
@@ -7068,8 +7074,8 @@
       <c r="J302" s="23"/>
     </row>
     <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="40"/>
-      <c r="B303" s="40"/>
+      <c r="A303" s="36"/>
+      <c r="B303" s="36"/>
       <c r="C303" s="18">
         <v>43936</v>
       </c>
@@ -7089,8 +7095,8 @@
       <c r="J303" s="25"/>
     </row>
     <row r="304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="40"/>
-      <c r="B304" s="40"/>
+      <c r="A304" s="36"/>
+      <c r="B304" s="36"/>
       <c r="C304" s="18">
         <v>43938</v>
       </c>
@@ -7110,8 +7116,8 @@
       <c r="J304" s="25"/>
     </row>
     <row r="305" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="40"/>
-      <c r="B305" s="40"/>
+      <c r="A305" s="36"/>
+      <c r="B305" s="36"/>
       <c r="C305" s="18">
         <v>43940</v>
       </c>
@@ -7131,8 +7137,8 @@
       <c r="J305" s="25"/>
     </row>
     <row r="306" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="40"/>
-      <c r="B306" s="40"/>
+      <c r="A306" s="36"/>
+      <c r="B306" s="36"/>
       <c r="C306" s="18">
         <v>43942</v>
       </c>
@@ -7152,8 +7158,8 @@
       <c r="J306" s="25"/>
     </row>
     <row r="307" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="40"/>
-      <c r="B307" s="40"/>
+      <c r="A307" s="36"/>
+      <c r="B307" s="36"/>
       <c r="C307" s="18">
         <v>43944</v>
       </c>
@@ -7173,8 +7179,8 @@
       <c r="J307" s="25"/>
     </row>
     <row r="308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="40"/>
-      <c r="B308" s="40"/>
+      <c r="A308" s="36"/>
+      <c r="B308" s="36"/>
       <c r="C308" s="18">
         <v>43946</v>
       </c>
@@ -7194,8 +7200,8 @@
       <c r="J308" s="25"/>
     </row>
     <row r="309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="40"/>
-      <c r="B309" s="40"/>
+      <c r="A309" s="36"/>
+      <c r="B309" s="36"/>
       <c r="C309" s="18">
         <v>43948</v>
       </c>
@@ -7215,8 +7221,8 @@
       <c r="J309" s="25"/>
     </row>
     <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="40"/>
-      <c r="B310" s="36"/>
+      <c r="A310" s="36"/>
+      <c r="B310" s="37"/>
       <c r="C310" s="18">
         <v>43950</v>
       </c>
@@ -7236,10 +7242,10 @@
       <c r="J310" s="25"/>
     </row>
     <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="52">
+      <c r="A311" s="41">
         <v>23</v>
       </c>
-      <c r="B311" s="48" t="s">
+      <c r="B311" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C311" s="3">
@@ -7259,8 +7265,8 @@
       <c r="I311" s="7"/>
     </row>
     <row r="312" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="40"/>
-      <c r="B312" s="42"/>
+      <c r="A312" s="36"/>
+      <c r="B312" s="39"/>
       <c r="C312" s="3">
         <v>43926</v>
       </c>
@@ -7279,8 +7285,8 @@
       <c r="I312" s="6"/>
     </row>
     <row r="313" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="40"/>
-      <c r="B313" s="42"/>
+      <c r="A313" s="36"/>
+      <c r="B313" s="39"/>
       <c r="C313" s="3">
         <v>43928</v>
       </c>
@@ -7299,8 +7305,8 @@
       <c r="I313" s="6"/>
     </row>
     <row r="314" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="40"/>
-      <c r="B314" s="42"/>
+      <c r="A314" s="36"/>
+      <c r="B314" s="39"/>
       <c r="C314" s="3">
         <v>43930</v>
       </c>
@@ -7319,8 +7325,8 @@
       <c r="I314" s="6"/>
     </row>
     <row r="315" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="40"/>
-      <c r="B315" s="42"/>
+      <c r="A315" s="36"/>
+      <c r="B315" s="39"/>
       <c r="C315" s="3">
         <v>43932</v>
       </c>
@@ -7339,8 +7345,8 @@
       <c r="I315" s="6"/>
     </row>
     <row r="316" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="40"/>
-      <c r="B316" s="42"/>
+      <c r="A316" s="36"/>
+      <c r="B316" s="39"/>
       <c r="C316" s="3">
         <v>43934</v>
       </c>
@@ -7359,8 +7365,8 @@
       <c r="I316" s="6"/>
     </row>
     <row r="317" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="40"/>
-      <c r="B317" s="42"/>
+      <c r="A317" s="36"/>
+      <c r="B317" s="39"/>
       <c r="C317" s="3">
         <v>43936</v>
       </c>
@@ -7379,8 +7385,8 @@
       <c r="I317" s="6"/>
     </row>
     <row r="318" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="40"/>
-      <c r="B318" s="42"/>
+      <c r="A318" s="36"/>
+      <c r="B318" s="39"/>
       <c r="C318" s="3">
         <v>43938</v>
       </c>
@@ -7399,8 +7405,8 @@
       <c r="I318" s="6"/>
     </row>
     <row r="319" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="40"/>
-      <c r="B319" s="42"/>
+      <c r="A319" s="36"/>
+      <c r="B319" s="39"/>
       <c r="C319" s="3">
         <v>43940</v>
       </c>
@@ -7419,8 +7425,8 @@
       <c r="I319" s="11"/>
     </row>
     <row r="320" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="40"/>
-      <c r="B320" s="42"/>
+      <c r="A320" s="36"/>
+      <c r="B320" s="39"/>
       <c r="C320" s="3">
         <v>43942</v>
       </c>
@@ -7439,8 +7445,8 @@
       <c r="I320" s="14"/>
     </row>
     <row r="321" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="40"/>
-      <c r="B321" s="42"/>
+      <c r="A321" s="36"/>
+      <c r="B321" s="39"/>
       <c r="C321" s="3">
         <v>43944</v>
       </c>
@@ -7459,8 +7465,8 @@
       <c r="I321" s="14"/>
     </row>
     <row r="322" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="40"/>
-      <c r="B322" s="42"/>
+      <c r="A322" s="36"/>
+      <c r="B322" s="39"/>
       <c r="C322" s="3">
         <v>43946</v>
       </c>
@@ -7479,8 +7485,8 @@
       <c r="I322" s="14"/>
     </row>
     <row r="323" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="40"/>
-      <c r="B323" s="42"/>
+      <c r="A323" s="36"/>
+      <c r="B323" s="39"/>
       <c r="C323" s="3">
         <v>43948</v>
       </c>
@@ -7499,8 +7505,8 @@
       <c r="I323" s="14"/>
     </row>
     <row r="324" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="40"/>
-      <c r="B324" s="43"/>
+      <c r="A324" s="36"/>
+      <c r="B324" s="40"/>
       <c r="C324" s="3">
         <v>43950</v>
       </c>
@@ -7519,10 +7525,10 @@
       <c r="I324" s="14"/>
     </row>
     <row r="325" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="51">
+      <c r="A325" s="35">
         <v>24</v>
       </c>
-      <c r="B325" s="53" t="s">
+      <c r="B325" s="38" t="s">
         <v>34</v>
       </c>
       <c r="C325" s="18">
@@ -7543,8 +7549,8 @@
       <c r="J325" s="23"/>
     </row>
     <row r="326" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="40"/>
-      <c r="B326" s="42"/>
+      <c r="A326" s="36"/>
+      <c r="B326" s="39"/>
       <c r="C326" s="18">
         <v>43926</v>
       </c>
@@ -7564,8 +7570,8 @@
       <c r="J326" s="23"/>
     </row>
     <row r="327" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="40"/>
-      <c r="B327" s="42"/>
+      <c r="A327" s="36"/>
+      <c r="B327" s="39"/>
       <c r="C327" s="18">
         <v>43928</v>
       </c>
@@ -7585,8 +7591,8 @@
       <c r="J327" s="23"/>
     </row>
     <row r="328" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="40"/>
-      <c r="B328" s="42"/>
+      <c r="A328" s="36"/>
+      <c r="B328" s="39"/>
       <c r="C328" s="18">
         <v>43930</v>
       </c>
@@ -7606,8 +7612,8 @@
       <c r="J328" s="23"/>
     </row>
     <row r="329" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="40"/>
-      <c r="B329" s="42"/>
+      <c r="A329" s="36"/>
+      <c r="B329" s="39"/>
       <c r="C329" s="18">
         <v>43932</v>
       </c>
@@ -7627,8 +7633,8 @@
       <c r="J329" s="23"/>
     </row>
     <row r="330" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="40"/>
-      <c r="B330" s="42"/>
+      <c r="A330" s="36"/>
+      <c r="B330" s="39"/>
       <c r="C330" s="18">
         <v>43934</v>
       </c>
@@ -7648,8 +7654,8 @@
       <c r="J330" s="23"/>
     </row>
     <row r="331" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="40"/>
-      <c r="B331" s="42"/>
+      <c r="A331" s="36"/>
+      <c r="B331" s="39"/>
       <c r="C331" s="18">
         <v>43936</v>
       </c>
@@ -7669,8 +7675,8 @@
       <c r="J331" s="25"/>
     </row>
     <row r="332" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="40"/>
-      <c r="B332" s="42"/>
+      <c r="A332" s="36"/>
+      <c r="B332" s="39"/>
       <c r="C332" s="18">
         <v>43938</v>
       </c>
@@ -7690,8 +7696,8 @@
       <c r="J332" s="25"/>
     </row>
     <row r="333" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="40"/>
-      <c r="B333" s="42"/>
+      <c r="A333" s="36"/>
+      <c r="B333" s="39"/>
       <c r="C333" s="18">
         <v>43940</v>
       </c>
@@ -7711,8 +7717,8 @@
       <c r="J333" s="25"/>
     </row>
     <row r="334" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="40"/>
-      <c r="B334" s="42"/>
+      <c r="A334" s="36"/>
+      <c r="B334" s="39"/>
       <c r="C334" s="18">
         <v>43942</v>
       </c>
@@ -7732,8 +7738,8 @@
       <c r="J334" s="25"/>
     </row>
     <row r="335" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="40"/>
-      <c r="B335" s="42"/>
+      <c r="A335" s="36"/>
+      <c r="B335" s="39"/>
       <c r="C335" s="18">
         <v>43944</v>
       </c>
@@ -7753,8 +7759,8 @@
       <c r="J335" s="25"/>
     </row>
     <row r="336" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="40"/>
-      <c r="B336" s="42"/>
+      <c r="A336" s="36"/>
+      <c r="B336" s="39"/>
       <c r="C336" s="18">
         <v>43946</v>
       </c>
@@ -7774,8 +7780,8 @@
       <c r="J336" s="25"/>
     </row>
     <row r="337" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="40"/>
-      <c r="B337" s="42"/>
+      <c r="A337" s="36"/>
+      <c r="B337" s="39"/>
       <c r="C337" s="18">
         <v>43948</v>
       </c>
@@ -7795,8 +7801,8 @@
       <c r="J337" s="25"/>
     </row>
     <row r="338" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="36"/>
-      <c r="B338" s="43"/>
+      <c r="A338" s="37"/>
+      <c r="B338" s="40"/>
       <c r="C338" s="18">
         <v>43950</v>
       </c>
@@ -8276,15 +8282,43 @@
     <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A325:A338"/>
-    <mergeCell ref="B325:B338"/>
-    <mergeCell ref="A241:A254"/>
-    <mergeCell ref="A255:A268"/>
-    <mergeCell ref="A269:A282"/>
-    <mergeCell ref="A283:A296"/>
-    <mergeCell ref="B283:B296"/>
-    <mergeCell ref="A297:A310"/>
-    <mergeCell ref="B297:B310"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="B31:B44"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A142"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="B129:B142"/>
+    <mergeCell ref="B143:B156"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A157:A170"/>
+    <mergeCell ref="A171:A184"/>
+    <mergeCell ref="A185:A198"/>
+    <mergeCell ref="B157:B170"/>
+    <mergeCell ref="B171:B184"/>
+    <mergeCell ref="B185:B198"/>
     <mergeCell ref="A199:A212"/>
     <mergeCell ref="A213:A226"/>
     <mergeCell ref="A227:A240"/>
@@ -8296,43 +8330,15 @@
     <mergeCell ref="B213:B226"/>
     <mergeCell ref="B227:B240"/>
     <mergeCell ref="B241:B254"/>
-    <mergeCell ref="B143:B156"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="A157:A170"/>
-    <mergeCell ref="A171:A184"/>
-    <mergeCell ref="A185:A198"/>
-    <mergeCell ref="B157:B170"/>
-    <mergeCell ref="B171:B184"/>
-    <mergeCell ref="B185:B198"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A129:A142"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B87:B100"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="B129:B142"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="B31:B44"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A325:A338"/>
+    <mergeCell ref="B325:B338"/>
+    <mergeCell ref="A241:A254"/>
+    <mergeCell ref="A255:A268"/>
+    <mergeCell ref="A269:A282"/>
+    <mergeCell ref="A283:A296"/>
+    <mergeCell ref="B283:B296"/>
+    <mergeCell ref="A297:A310"/>
+    <mergeCell ref="B297:B310"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
